--- a/806209426/localisation/excel/bookmarks_l_german.xlsx
+++ b/806209426/localisation/excel/bookmarks_l_german.xlsx
@@ -20,387 +20,255 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t xml:space="preserve">l_german:</t>
   </si>
   <si>
-    <t xml:space="preserve">BM_HISTORY_TITLE:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brief History</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GATHERING_STORM_NAME:0</t>
+    <t xml:space="preserve"> BM_HISTORY_TITLE:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurze Geschichte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GATHERING_STORM_NAME:0</t>
   </si>
   <si>
     <t xml:space="preserve">Total War Mod</t>
   </si>
   <si>
-    <t xml:space="preserve">GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark times are coming. In Europe, Hitler has consolidated his power and his attention is now increasingly drawn beyond Germany's borders. Mussolini's Italy continues to embark on daring military adventures, while the Empire of Japan stands poised to attack China in Asia. Almost twenty years have passed since the end of the Great War, and the world has yet again been doused in gasoline. A single spark may be all it takes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HITTING_FAN_NAME:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Hitting of the Fan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HITTING_FAN_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yup, that's right! That umbrella collection is about to come in real handy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENG_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Although the United Kingdom emerged victorious from the Great War, the foundation of its great empire was shaken to its core. A generation of the country's finest were lost in the trenches of Flanders and Northern France, while unrest spread throughout the Commonwealth and massive debts accrued.\n\nWith the trauma of the last war still in fresh memory, the country now faces the prospect of another. It is becoming increasingly clear that there will be no Peace for Our Time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRA_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despite the devastation of the Great War, France has been on the road to recovery thanks to a strong economy. However, the Depression has still affected the country and the new German regime has no interest in paying the war reparations stipulated by the Treaty of Versailles.\n\nWhen the treaty was signed, a French marshal famously remarked that it was not peace, but an armistice of 20 years. Those 20 years are now rapidly running out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GER_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A new Germany has risen. Three years have passed since the Weimar Republic was dismantled and replaced by Hitler's Third Reich. Economic stability has returned after the trying years of the Great Depression, and mass unemployment has been dealt with.\n\nThe military restrictions imposed on Germany by the Versailles Treaty are long forgotten, and the Wehrmacht grows stronger by the day. Another Weltkrieg is on the horizon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITA_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With the rise of Fascism, Italy has entered a new glorious era. Its forces are currently in the process of adding Ethiopia to the growing Italian colonial empire, but Mussolini's ambitions do not stop there.\n\nDominion over the Mediterranean has always been Italy's destiny, and a new order of things is taking shape in Europe. When the tidal wave of change arrives, Italy must find a place at its crest or risk being swept away.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAP_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Empire of Japan stands at a crossroads. Hokushin-ron, the Northern Expansion Doctrine, is favored by the Army and calls for an advance into Siberia. Nanshin-ron, the Southern Expansion Doctrine, is supported by the Navy and has the rich European colonies in Southeast Asia and the Pacific as its target. \n\nAnd then, of course, there is always China. Japan possesses a formidable military, but its industries are starving for resources and time is running out. Which path to choose?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOV_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the dust settled after the Russian Civil War, the U.S.S.R. had emerged as the undisputed ruler over most of what once constituted the Russian Empire. Rapid industrialization and collectivization followed, often at a great cost in human lives. \n\nThe Soviet Union is now faced with the threat of a resurgent Germany to the west, and a belligerent Japan in the east. Of course, there are also internal threats within the ranks of the Communist Party to contend with...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPR_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Spanish Republic stands at a crossroad. Internal instability and radical groups threaten the survival of the Republic. The next election will undoubtedly shape the future of the nation for decades to come.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The United States retreated back into isolation at the end of the last war and enjoyed a period of economic prosperity during the Roaring Twenties. This came to a dramatic end when the nation was gripped by the Great Depression.\n\nAmerica's policy of non-intervention in foreign wars has stood firm, but tensions are rising in both Europe and Asia. The 'Great Neutral' may find itself drawn into the maelstrom whether it wants to or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTHER_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The nations of the world, great and small, are not all content to hold their breath awaiting the outbreak of another global conflict. From major powers on the brink of civil war to the many nations formed and transformed by the Great War, all will have to make difficult decisions and balance ideals with pragmatism to have an impact on the future of the world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POL_GATHERING_STORM_DESC:1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After centuries in which the Polish nation has been divided between three empires, Poland now stands independent once again. But its position is not an easy one. \n\nIn the east, the Soviet Union has not forgotten the humiliating defeat in the Polish-Soviet war. \n\nIn the west, German Führer Adolf Hitler makes no secret of his desire for more "living space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and</t>
-  </si>
-  <si>
-    <t xml:space="preserve">that</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the</t>
-  </si>
-  <si>
-    <t xml:space="preserve">former</t>
-  </si>
-  <si>
-    <t xml:space="preserve">German</t>
-  </si>
-  <si>
-    <t xml:space="preserve">areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">under</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">will</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">achieve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUN_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One half of the late Austro-Hungarian Empire, Hungary was treated as a defeated enemy by the victorious Entente after the Great War. In the Treaty of Trianon, the country lost almost two thirds of its territory. Millions of ethnic Hungarians found themselves living outside its borders, and its economy was left in ruins. Harsh restrictions on rearmament were supposed to ensure that Hungary could never again threaten the peace in Europe. \n\nBut with the political climate in Europe shifting, the time may have come to finally right the wrongs of the past, and regain the former glory of the nation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROM_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania found herself on the winning side of the Great War, and as a result gained new territories and people - not all of whom were Romanians. To guard against the revanchionist desires of the countries that were forced to cede land, Romania has created a web of alliances all across the Balkans. In recent years, however, the country has concerned itself mostly with domestic matters, and the government of King Carol II has allowed these alliances to lapse. \n\nAs the political situation in Europe changes, Romania may well find herself standing alone - and vulnerable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZE_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During the Great War, Czech troops fought alongside the Entente forces all over Europe in an effort to secure recognition for their nation. Their efforts were successful and Czechoslovakia rose from the ashes of the Austro-Hungarian Empire. \n\nSince their explosive entry into statehood Czechoslovakia formed the 'Little Entente' alliance with Yugoslavia and Romania with the aim of suppressing Hungary's efforts to restore the Austro-Hungarian Empire, although as resurgent German power grows the political landscape of Europe is rapidly changing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#BUL_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria found itself on the losing side of the Great War. Whatever was left of the third Bulgarian Empire was destroyed by the Allied Powers and their forced demilitarization of Bulgaria. On top of demands of the Western Powers, Bulgaria's fellow Balkan countries also placed restrictions upon the country.  \n\nUnlike Austria, Germany and Hungary however, Bulgaria had a clean record of abiding by the peace demands of the Allied Powers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YUG_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yugoslavia came into existence after the new Kingdom of Serbs, Croats and Slovenes merged with the formerly independent Kingdom of Serbia in 1922. Initially Yugoslavia joined both the Little Entente and the Balkan Pact to secure their independence, but recently the assassination of King Alexander combined with growing internal pressure from nationalists and external pressure from Italy and Germany has caused drastic upheaval and reevaluation of their political and strategic position.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada entered the Great War as a mere colony and left it as a nation. Born in the mud of Passchendaele, Canada now takes its first few uncertain steps onto the world stage. \n\nHobbled by the Great Depression and with internal divisions between Anglophones and Francophones, the future of this new nation looks anything but secure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AST_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australians earned their place in the history books of the Great War in blood. The sacrifices made in the Gallipolli campaign have not been forgotten - and neither were those who ordered it. \n\nAustralia now stands at a crossroads: should she stay with her colonial master, about to be drawn into yet another conflict in distant Europe, or should the focus be on the threats that are appearing closer to home?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAF_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the Great War began, many in South Africa refused to take up arms for their British masters. The South African military spent most of the Great War chasing around German forces in their African colonies, with limited success. \n\nNow a new war looms on the horizon. Then as now, there are some in South Africa that think the country shouldn't be fighting against the Germans at all. Some even believe that the time has come for the descendents of the Boers to make their bid for the liberty that was denied to their forefathers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWE_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden is a fully industrialized nation in northern europe. It's people who are decendents of the infamous viking warriors are seen as the germanic ideal to Germany. Sweden stayed neutral in the great war but has a history of imperial ambitions in the "Stormaktstid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">held</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baltic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">territory.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neutral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or</t>
-  </si>
-  <si>
-    <t xml:space="preserve">risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oiled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">civilian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">economy..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Finnish Republic looks nervously to the East. Despite a healthy recovery from the 'Great Depression' diplomatic relations with the Russian bear are starting to become strained. Rumours abound that the blood of Finnish civillians is being spilt in the former Finnish Karelian region.\n\nOur tiny nation is no match for the mighty Soviets should conflict come. Perhaps though, we can still give them a bloody nose and maybe find willing allies to help support our cause?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZL_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The tiny nation in the South Pacific fought bravely in the Great War, suffering high casualties in the bloody battles at Gallipoli and on the western front. Nearly half the men of fighting age had served in the fighting overseas, and many had not returned.\n\nSome twenty years after end of the Great War, the people of New Zealand look anxiously at the world stage, for this time, the threat of war seems to draw ever closer to their own home...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAJ_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The crown jewel of the British Empire, the Raj of India is a strange combination of imperial power and imperial powerlessness. A tiny elite of British civil servants rule over a vast subcontinent filled with hundreds of millions of subjects. From their ranks recruits the Indian Army, which fought bravely in the Great War.\n\nIndian leaders hoped that the sacrifices made in the last war would help India gain her independence from Britain, but so far, that hope has been disappointed. With a new war looming, many believe that the time has come to take that freedom - by whatever means necessary.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#TUR_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Although Turkey lost its empire as a result of decades-long war, finally they found peace and tranquility with the proclamation of the republic. By the economic, social and political revolutions, Turks turned their faces to the west and underwent major changes and progresses development. Adhering to the principle of 'Peace at Home, Peace in the World', they continued peace and friendship policy with all the neighboring states and restricted his military spending.Although this policy made Turkey a valuable diplomatic power, as a side effect also it caused the Turkish Army has become in the meaning of technological poor-equipped. Nevertheless, the Turkish army is still a deterrent force.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEXICO_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico faced two decades of civil wars after the overthrow of the tyrant Porfirio Díaz. Centralizers fought regionalists, peasants and socialists rallied against hacienda landlords, and battles over the role of state versus religion came out of the annals of the Enlightenment to terrorize Mexico.\n\nThe secularist government insists that it won these battles, but it is seated on a throne of debris. After Mexico is rebuilt, perhaps a different victor will have emerged.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POR_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Portuguese Second Republic, led by António de Oliveira Salazar is a mildly fascist corporatist state led by a single party regime.\n\nWith its only neighbour seemingly heading for civil war, how will this country react should another war break out on its borders? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evicted from the Dragon Throne at the age of six, Puyi, the last Chinese Emperor, has been biding his time. While his former realm tore itself apart in the Chinese Civil War, Puyi found new allies in Japan.\n\nFor Puyi, the establishment of the Empire of Manchukuo in 1932 was but the first step in the quest to reclaim his ancestral birthright. For the moment, he is dependent on the Japanese Army to keep his rule, but in time, an opportunity might arise to cast off the shackles of servitude and become what he was born to be...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NETHERLANDS_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Dutch government eyes the mounting global tensions with concern. Between an ailing economy, a powerful pacifist movement, and a firm belief in neutrality to the point of driving potential allies away, they are unable to properly prepare their defenses.\n\nAt the same time, the importance of the Netherlands as a gateway of trade into the continent means that both the British and the Germans desire Dutch 'cooperation' to thwart the other, and may take rejection as a reason for hostility. Perhaps withdrawal to the colonies is the only possible means to resist such an invasion...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPAIN_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the first five years of its existence, the fledgling Second Spanish Republic has already had to deal with strikes, a military coup attempt, and a major revolutionary uprising. Though it has survived these challenges, Spanish society continues to be marred by political polarization and violence between anarchists, communists, and falangists.\n\nBoth sides look towards the upcoming 1936 general election with hopeful eyes, but it is unlikely that the victory of either side will bring a return to stability. And as the violence continues, the military waits and plots...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPAIN_BLITZKRIEG_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The civil war that has devastated the country for the past three years has finally concluded. Under the guidance of Franco, the victors must now see to Spain's recovery, the elimination of remaining pockets of resistance, and the mending of the divides created by the war.\n\nTime is not unlimited, however, as the world at large continues its inexorable march towards what will undoubtedly be a far larger and still more bloody war. If Spain is to stand its ground, let alone reap the fruits of opportunity presented by this coming conflict, it must ready its industry and its military without delay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTUGAL_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since Salazar's rise to power in 1932, Portugal has been gradually distancing herself from the unstable period of the First Republic. Fiscal Autonomy and Political Independence from the major powers led to the creation of the Estado Novo, laying the foundations for the development of the Portuguese industry and the modernization of the army. \n\nNow, Portugal must decide the way forward as political and social instability increases in neighboring Spain and international tensions are hopelessly worsening...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTUGAL_BLITZKRIEG_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The conservative government of Salazar allowed Portugal to remain neutral during the Spanish Civil War while actively supporting the Nationalists, thus ensuring the defeat of the Communists and the Anarchists. \n\nNow that the Iberian Peninsula has finally found stability, it is time to look abroad for potential allies and consider the role that Portugal will play on the seemingly inevitable world conflict.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOR_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The early 1900s have been borderline a golden age for Norway. With independence, economic growth, polar exploration and expanded territories on both ends of the globe, the Kingdom of Norway has made its mark on the world. It hasn't all been smooth sailing, however, as Norway's neutral merchant marine suffered losses during the Great War, and more recently the Great Depression has halted the economy somewhat.\n\nWhile the welfare policies of the Labor led Government has sought to alleviate the issues, this "Broken Gun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">with</t>
-  </si>
-  <si>
-    <t xml:space="preserve">less</t>
-  </si>
-  <si>
-    <t xml:space="preserve">defense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">has</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some</t>
-  </si>
-  <si>
-    <t xml:space="preserve">risk..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUL_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since the Liberation War of 1878 and the rejection of the San Stefano Treaty by Western democracies, Bulgaria has lived through a long history of conflict and betrayal in the Balkans. As a defeated member of the Central Powers in the Great War, Bulgaria suffered heavy territorial losses and the Treaty of Neuilly-sur-Seine imposed harsh economic sanctions and severe military restrictions. \n\nBut with the major political and social changes taking place in Europe, it is time for Bulgaria to choose its own path and find its rightful place in the Balkans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRE_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece is a nation in crisis. Royalists and republicans have perpetuated a fervent struggle for the nation's soul which resulted in the abolition of the Second Hellenic Republic in 1935. The king, an autocratic foreigner, remains a highly divisive figure with an uncertain future. \n\nDistracted by petty domestic politics, a malignant and revanchist Bulgaria has been allowed to fester in the north, while Greece’s long-time nemesis and new-found ally Turkey undergoes a political metamorphosis to the east, and that is to say nothing of the stirring monster on the other side of the Adriatic...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUR_GATHERING_STORM_DESC:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From the ashes of the Ottoman Empire, the Republic of Turkey was born. Turkish independence was won with blood and bullets in the National Campaign of 1923, and while the struggle was righteous the cost continues to weigh heavily upon the Turkish people. \n\nReligious conservatives plague the hinterlands and resist nation-wide modernization efforts in the strongest terms, while Kurdish nationalists wreak havoc in the east of the country. Lionized president Mustafa Kemal Atatürk must unite the country or pass the torch to a leader who can, and they must do it soon as trouble stirs in Europe...</t>
+    <t xml:space="preserve"> GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunkle Zeiten stehen bevor. In Europa hat Hitler seine Macht gefestigt, und seine Aufmerksamkeit richtet sich nun zunehmend auf die Länder außerhalb Deutschlands. Mussolinis Italien stürzt sich weiterhin in waghalsige militärische Abenteuer, während das Kaiserreich Japan bereit ist, China in Asien anzugreifen. Fast zwanzig Jahre sind seit dem Ende des Ersten Weltkriegs vergangen, und die Welt ist wieder einmal mit Benzin übergossen worden. Ein einziger Funke könnte alles sein, was es braucht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HITTING_FAN_NAME:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Einschlagen des Ventilators</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HITTING_FAN_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jawohl, das stimmt! Die Regenschirmsammlung wird sich bald als sehr nützlich erweisen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENG_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obwohl das Vereinigte Königreich aus dem Ersten Weltkrieg siegreich hervorging, wurde das Fundament seines großen Reiches in seinen Grundfesten erschüttert. Eine Generation der Besten des Landes ging in den Schützengräben Flanderns und Nordfrankreichs verloren, während sich im gesamten Commonwealth Unruhen ausbreiteten und massive Schulden angehäuft wurden.\n\nDas Trauma des letzten Krieges ist noch in frischer Erinnerung, und das Land steht nun vor der Aussicht auf einen weiteren. Es wird immer deutlicher, dass es keinen Frieden für unsere Zeit geben wird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FRA_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trotz der verheerenden Folgen des Ersten Weltkriegs ist Frankreich dank seiner starken Wirtschaft auf dem Weg der Besserung. Die Depression hat das Land jedoch immer noch im Griff, und das neue deutsche Regime hat kein Interesse daran, die im Versailler Vertrag festgelegten Reparationszahlungen zu leisten. Als der Vertrag unterzeichnet wurde, bemerkte ein französischer Marschall, dass es sich nicht um Frieden, sondern um einen Waffenstillstand von 20 Jahren handele. Diese 20 Jahre laufen nun rasch ab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GER_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein neues Deutschland ist auferstanden. Drei Jahre sind vergangen, seit die Weimarer Republik zerschlagen und durch Hitlers Drittes Reich ersetzt wurde. Nach den schwierigen Jahren der Weltwirtschaftskrise ist die wirtschaftliche Stabilität zurückgekehrt, und die Massenarbeitslosigkeit ist beseitigt. Die militärischen Einschränkungen, die Deutschland durch den Versailler Vertrag auferlegt wurden, sind längst vergessen, und die Wehrmacht wird von Tag zu Tag stärker. Ein weiterer Weltkrieg zeichnet sich ab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ITA_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit dem Aufstieg des Faschismus ist Italien in eine neue glorreiche Ära eingetreten. Seine Streitkräfte sind gerade dabei, das wachsende italienische Kolonialreich um Äthiopien zu erweitern, doch Mussolinis Ehrgeiz ist noch lange nicht gestillt.\n\nDie Herrschaft über das Mittelmeer war schon immer Italiens Bestimmung, und in Europa zeichnet sich eine neue Ordnung der Dinge ab. Wenn die Flutwelle des Wandels anrollt, muss Italien einen Platz an ihrer Spitze finden oder riskieren, mitgerissen zu werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JAP_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das japanische Kaiserreich steht an einem Scheideweg. Hokushin-ron, die nördliche Expansionsdoktrin, wird von der Armee favorisiert und fordert einen Vorstoß nach Sibirien. Nanshin-ron, die südliche Expansionsdoktrin, wird von der Marine unterstützt und hat die reichen europäischen Kolonien in Südostasien und im Pazifik zum Ziel. \Und dann ist da natürlich immer noch China. Japan verfügt über ein beeindruckendes Militär, aber seine Industrie leidet unter Ressourcenmangel und die Zeit wird knapp. Welchen Weg soll man wählen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOV_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als sich der Staub nach dem Russischen Bürgerkrieg gelegt hatte, war die UdSSR zum unangefochtenen Herrscher über den größten Teil des ehemaligen Russischen Reiches geworden. Es folgten eine rasche Industrialisierung und Kollektivierung, die oft viele Menschenleben kostete. \Die Sowjetunion sieht sich nun mit der Bedrohung durch ein wiedererstarktes Deutschland im Westen und ein kriegerisches Japan im Osten konfrontiert. Natürlich gibt es auch interne Bedrohungen in den Reihen der Kommunistischen Partei, mit denen man sich auseinandersetzen muss...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SPR_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Spanische Republik steht an einem Scheideweg. Innere Instabilität und radikale Gruppen bedrohen das Überleben der Republik. Die nächsten Wahlen werden zweifellos die Zukunft der Nation für die nächsten Jahrzehnte bestimmen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USA_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Vereinigten Staaten zogen sich nach dem Ende des letzten Krieges in die Isolation zurück und erlebten in den Roaring Twenties eine Zeit des wirtschaftlichen Wohlstands. Dies fand ein dramatisches Ende, als die Nation von der Großen Depression erfasst wurde.\n\Amerikas Politik der Nichteinmischung in ausländische Kriege hat sich bewährt, aber die Spannungen in Europa und Asien nehmen zu. Der "große Neutrale" könnte in den Strudel hineingezogen werden, ob er will oder nicht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OTHER_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Nationen der Welt, ob groß oder klein, sind nicht alle bereit, den Atem anzuhalten und auf den Ausbruch eines neuen globalen Konflikts zu warten. Von den Großmächten, die am Rande eines Bürgerkriegs stehen, bis hin zu den vielen Nationen, die der Große Krieg geformt und verändert hat, müssen alle schwierige Entscheidungen treffen und Ideale mit Pragmatismus abwägen, um die Zukunft der Welt zu beeinflussen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POL_GATHERING_STORM_DESC:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach Jahrhunderten, in denen die polnische Nation auf drei Reiche aufgeteilt war, ist Polen nun wieder unabhängig. Aber seine Position ist nicht einfach. \Im Osten hat die Sowjetunion die demütigende Niederlage im polnisch-sowjetischen Krieg nicht vergessen. \n\nIm Westen macht der deutsche Führer Adolf Hitler keinen Hehl aus seinem Wunsch nach mehr "Lebensraum" - und dass die ehemaligen deutschen Gebiete, die jetzt unter polnischer Kontrolle stehen, der erste Schritt zur Verwirklichung dieses Wunsches sein werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HUN_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ungarn, die eine Hälfte der ehemaligen österreichisch-ungarischen Monarchie, wurde von der siegreichen Entente nach dem Ersten Weltkrieg wie ein besiegter Feind behandelt. Mit dem Vertrag von Trianon verlor das Land fast zwei Drittel seines Territoriums. Millionen ethnischer Ungarn lebten außerhalb der Landesgrenzen, und die Wirtschaft des Landes lag in Trümmern. Strenge Aufrüstungsbeschränkungen sollten sicherstellen, dass Ungarn nie wieder den Frieden in Europa gefährden konnte. \Doch mit der Veränderung des politischen Klimas in Europa könnte die Zeit gekommen sein, die Fehler der Vergangenheit endlich wiedergutzumachen und den einstigen Ruhm der Nation wiederzuerlangen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROM_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rumänien befand sich auf der Gewinnerseite des Ersten Weltkriegs und gewann infolgedessen neue Gebiete und Menschen hinzu - nicht alle davon waren Rumänen. Um sich gegen die revanchistischen Bestrebungen der Länder zu schützen, die gezwungen waren, Land abzutreten, hat Rumänien ein Netz von Bündnissen auf dem gesamten Balkan geknüpft. In den letzten Jahren hat sich das Land jedoch hauptsächlich um innenpolitische Angelegenheiten gekümmert, und die Regierung von König Carol II. hat diese Bündnisse verfallen lassen. \Wenn sich die politische Lage in Europa ändert, steht Rumänien möglicherweise alleine da - und ist verwundbar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CZE_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Während des Ersten Weltkriegs kämpften tschechische Truppen in ganz Europa an der Seite der Entente, um die Anerkennung ihrer Nation zu sichern. Ihre Bemühungen waren erfolgreich, und die Tschechoslowakei erhob sich aus der Asche der österreichisch-ungarischen Monarchie. \Seit ihrem explosiven Eintritt in die Staatlichkeit bildete die Tschechoslowakei zusammen mit Jugoslawien und Rumänien das Bündnis der "Kleinen Entente" mit dem Ziel, Ungarns Bemühungen um die Wiederherstellung Österreich-Ungarns zu unterdrücken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #BUL_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgarien fand sich auf der Verliererseite des Großen Krieges wieder. Was auch immer vom dritten bulgarischen Reich übrig geblieben war, wurde von den Alliierten Mächten und ihrer erzwungenen Entmilitarisierung Bulgariens zerstört. Zusätzlich zu den Forderungen der Westmächte legten auch die anderen Balkanländer Bulgarien Beschränkungen auf.  \Im Gegensatz zu Österreich, Deutschland und Ungarn hielt sich Bulgarien jedoch an die Friedensauflagen der Alliierten Mächte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YUG_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jugoslawien entstand nach dem Zusammenschluss des neuen Königreichs der Serben, Kroaten und Slowenen mit dem zuvor unabhängigen Königreich Serbien im Jahr 1922. Ursprünglich schloss sich Jugoslawien sowohl der Kleinen Entente als auch dem Balkanpakt an, um seine Unabhängigkeit zu sichern, doch in jüngster Zeit führte die Ermordung von König Alexander in Verbindung mit dem wachsenden internen Druck von Nationalisten und dem externen Druck von Italien und Deutschland zu drastischen Umwälzungen und einer Neubewertung der politischen und strategischen Position des Landes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAN_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanada trat in den Großen Krieg als bloße Kolonie ein und verließ ihn als Nation. Geboren im Schlamm von Passchendaele, macht Kanada nun seine ersten unsicheren Schritte auf der Weltbühne. \Von der Weltwirtschaftskrise gebeutelt und mit internen Spaltungen zwischen Anglophonen und Frankophonen, sieht die Zukunft dieser neuen Nation alles andere als sicher aus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AST_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Australier haben sich ihren Platz in den Geschichtsbüchern des Großen Krieges mit Blut verdient. Die im Gallipolli-Feldzug erbrachten Opfer sind nicht vergessen - und auch nicht diejenigen, die ihn befohlen haben. \n\nAustralien steht nun am Scheideweg: Soll es bei seinem Kolonialherrn bleiben und in einen weiteren Konflikt im fernen Europa hineingezogen werden, oder soll es sich auf die Bedrohungen konzentrieren, die näher an der Heimat auftauchen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SAF_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als der Große Krieg begann, weigerten sich viele Südafrikaner, für ihre britischen Herren zu den Waffen zu greifen. Das südafrikanische Militär verbrachte die meiste Zeit des Ersten Weltkriegs damit, deutsche Truppen in den afrikanischen Kolonien zu jagen - mit begrenztem Erfolg. \Nun zeichnet sich ein neuer Krieg am Horizont ab. Damals wie heute gibt es in Südafrika einige, die der Meinung sind, dass das Land überhaupt nicht gegen die Deutschen kämpfen sollte. Manche glauben sogar, dass die Zeit für die Nachfahren der Buren gekommen ist, um die Freiheit zu fordern, die ihren Vorfahren verwehrt wurde.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SWE_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweden ist eine voll industrialisierte Nation in Nordeuropa. Sein Volk, das von den berüchtigten Wikingerkriegern abstammt, wird als das germanische Ideal für Deutschland angesehen. Schweden blieb im Großen Krieg neutral, hat aber in der "Stormaktstid", als Schweden baltische und deutsche Gebiete besaß, imperiale Ambitionen entwickelt. Sollte Schweden wieder neutral bleiben oder seine gut geölte zivile Wirtschaft riskieren?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FIN_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die finnische Republik blickt nervös nach Osten. Trotz einer gesunden Erholung von der "Großen Depression" beginnen sich die diplomatischen Beziehungen zum russischen Bären zu verschlechtern. Es gibt Gerüchte, dass in der ehemaligen finnisch-karelischen Region das Blut finnischer Zivilisten vergossen wird.\n\nUnsere winzige Nation ist den mächtigen Sowjets im Konfliktfall nicht gewachsen. Aber vielleicht können wir ihnen trotzdem eine blutige Nase verpassen und vielleicht willige Verbündete finden, die uns unterstützen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NZL_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die winzige Nation im Südpazifik hat im Ersten Weltkrieg tapfer gekämpft und in den blutigen Schlachten bei Gallipoli und an der Westfront hohe Verluste erlitten. Fast die Hälfte der Männer im kampffähigen Alter hatte in den Kämpfen in Übersee gedient, und viele kehrten nicht zurück. Etwa zwanzig Jahre nach dem Ende des Großen Krieges blickt das neuseeländische Volk ängstlich auf die Weltbühne, denn dieses Mal scheint die Kriegsgefahr immer näher an die eigene Heimat heranzurücken...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RAJ_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Raj von Indien, das Kronjuwel des britischen Empire, ist eine seltsame Kombination aus imperialer Macht und imperialer Ohnmacht. Eine winzige Elite britischer Beamter herrscht über einen riesigen Subkontinent mit Hunderten von Millionen von Untertanen. Aus ihren Reihen rekrutiert sich die indische Armee, die im Großen Krieg tapfer gekämpft hat. Die indische Führung hoffte, dass die im letzten Krieg erbrachten Opfer Indien helfen würden, seine Unabhängigkeit von Großbritannien zu erlangen, aber bisher wurde diese Hoffnung enttäuscht. Jetzt, da ein neuer Krieg droht, glauben viele, dass die Zeit gekommen ist, sich diese Freiheit zu nehmen - mit allen Mitteln.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #TUR_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obwohl die Türkei ihr Reich durch einen jahrzehntelangen Krieg verlor, fand sie schließlich mit der Ausrufung der Republik zu Frieden und Ruhe. Durch die wirtschaftlichen, sozialen und politischen Revolutionen wandten sich die Türken dem Westen zu und erlebten große Veränderungen und Entwicklungsfortschritte. Nach dem Prinzip "Frieden im eigenen Land, Frieden in der Welt" wurde die Friedens- und Freundschaftspolitik mit allen Nachbarstaaten fortgesetzt und die Militärausgaben eingeschränkt, was die Türkei zwar zu einer wertvollen diplomatischen Macht machte, aber als Nebeneffekt auch dazu führte, dass die türkische Armee im Sinne von technologisch schlecht ausgerüstet wurde. Dennoch ist die türkische Armee immer noch eine abschreckende Kraft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MEXICO_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexiko hatte nach dem Sturz des Tyrannen Porfirio Díaz zwei Jahrzehnte lang mit Bürgerkriegen zu kämpfen. Zentralisten kämpften gegen Regionalisten, Bauern und Sozialisten gegen Hazienda-Grundbesitzer, und die Kämpfe um die Rolle des Staates gegenüber der Religion kamen aus den Annalen der Aufklärung, um Mexiko zu terrorisieren.\n\n Die säkularistische Regierung besteht darauf, dass sie diese Kämpfe gewonnen hat, aber sie sitzt auf einem Thron aus Trümmern. Wenn Mexiko wiederaufgebaut ist, wird vielleicht ein anderer Sieger hervorgehen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POR_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die von António de Oliveira Salazar geführte Zweite Portugiesische Republik ist ein leicht faschistischer, korporatistischer Staat, der von einem Einparteienregime geführt wird.\n\nDa sein einziger Nachbar auf einen Bürgerkrieg zuzusteuern scheint, stellt sich die Frage, wie dieses Land reagieren wird, wenn an seinen Grenzen ein weiterer Krieg ausbricht. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAN_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puyi, der letzte chinesische Kaiser, der im Alter von sechs Jahren vom Drachenthron gestoßen wurde, hat seine Zeit abgewartet. Während sein früheres Reich im chinesischen Bürgerkrieg zerrissen wurde, fand Puyi in Japan neue Verbündete. Für Puyi war die Gründung des Reiches Mandschukuo im Jahr 1932 nur der erste Schritt auf dem Weg, sein angestammtes Geburtsrecht zurückzuerlangen. Im Moment ist er von der japanischen Armee abhängig, um seine Herrschaft aufrechtzuerhalten, aber mit der Zeit könnte sich eine Gelegenheit ergeben, die Fesseln der Knechtschaft abzuwerfen und das zu werden, wozu er geboren wurde...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NETHERLANDS_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die niederländische Regierung beobachtet die zunehmenden globalen Spannungen mit Sorge. Aufgrund ihrer kränkelnden Wirtschaft, einer mächtigen pazifistischen Bewegung und ihres festen Glaubens an die Neutralität, der potenzielle Verbündete vergrault, sind sie nicht in der Lage, ihre Verteidigung angemessen vorzubereiten. Gleichzeitig bedeutet die Bedeutung der Niederlande als Tor zum Handel auf dem Kontinent, dass sowohl die Briten als auch die Deutschen eine niederländische "Kooperation" wünschen, um den jeweils anderen auszubremsen, und eine Ablehnung als Grund für Feindseligkeit nehmen könnten. Vielleicht ist der Rückzug in die Kolonien das einzig mögliche Mittel, um sich einer solchen Invasion zu widersetzen...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SPAIN_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In den ersten fünf Jahren ihres Bestehens hatte die junge Zweite Spanische Republik bereits mit Streiks, einem Militärputschversuch und einem großen revolutionären Aufstand zu kämpfen. Obwohl sie diese Herausforderungen überstanden hat, ist die spanische Gesellschaft weiterhin von politischer Polarisierung und Gewalt zwischen Anarchisten, Kommunisten und Falangisten geprägt. Beide Seiten blicken hoffnungsvoll auf die bevorstehenden Parlamentswahlen von 1936, aber es ist unwahrscheinlich, dass der Sieg einer der beiden Seiten eine Rückkehr zur Stabilität bringen wird. Und während die Gewalt weitergeht, wartet das Militär ab und schmiedet Pläne...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SPAIN_BLITZKRIEG_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Bürgerkrieg, der das Land in den letzten drei Jahren verwüstet hat, ist endlich zu Ende. Unter der Führung Francos müssen die Sieger nun dafür sorgen, dass sich Spanien erholt, die letzten Widerstandsnester beseitigt und die durch den Krieg entstandenen Gräben überwunden werden. Die Zeit ist jedoch nicht unbegrenzt, da die Welt insgesamt ihren unaufhaltsamen Marsch in einen zweifellos noch größeren und blutigeren Krieg fortsetzt. Wenn Spanien sich behaupten will, geschweige denn die Früchte der Chancen dieses kommenden Konflikts ernten will, muss es seine Industrie und sein Militär unverzüglich vorbereiten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PORTUGAL_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seit Salazars Machtübernahme im Jahr 1932 hat sich Portugal allmählich von der instabilen Zeit der Ersten Republik entfernt. Steuerliche Autonomie und politische Unabhängigkeit von den Großmächten führten zur Schaffung des Estado Novo und legten den Grundstein für die Entwicklung der portugiesischen Industrie und die Modernisierung der Armee. \n\Nun muss Portugal entscheiden, wie es weitergehen soll, da die politische und soziale Instabilität im benachbarten Spanien zunimmt und die internationalen Spannungen hoffnungslos zunehmen...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PORTUGAL_BLITZKRIEG_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die konservative Regierung Salazar erlaubte Portugal, während des Spanischen Bürgerkriegs neutral zu bleiben, während sie die Nationalisten aktiv unterstützte und so die Niederlage der Kommunisten und Anarchisten sicherte. \n\nNun, da die Iberische Halbinsel endlich Stabilität gefunden hat, ist es an der Zeit, sich im Ausland nach potenziellen Verbündeten umzusehen und zu überlegen, welche Rolle Portugal in dem scheinbar unvermeidlichen weltweiten Konflikt spielen wird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOR_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die frühen 1900er Jahre waren für Norwegen geradezu ein goldenes Zeitalter. Mit der Unabhängigkeit, dem Wirtschaftswachstum, der Erforschung der Polargebiete und der Ausdehnung der Territorien auf beiden Seiten des Globus hat das Königreich Norwegen der Welt seinen Stempel aufgedrückt. Doch nicht alles verlief reibungslos, denn Norwegens neutrale Handelsmarine erlitt während des Ersten Weltkriegs Verluste, und in jüngster Zeit hat die Weltwirtschaftskrise die Wirtschaft etwas zum Stillstand gebracht. Zwar hat die Wohlfahrtspolitik der von der Labour-Partei geführten Regierung versucht, die Probleme zu lindern, doch diese "Broken-Gun"-Politik mit geringeren Verteidigungsausgaben hat Norwegen in eine gewisse Gefahr gebracht...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUL_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seit dem Befreiungskrieg von 1878 und der Ablehnung des San-Stefano-Vertrags durch die westlichen Demokratien hat Bulgarien eine lange Geschichte von Konflikten und Verrat auf dem Balkan erlebt. Als besiegtes Mitglied der Mittelmächte im Ersten Weltkrieg erlitt Bulgarien schwere territoriale Verluste, und der Vertrag von Neuilly-sur-Seine verhängte harte wirtschaftliche Sanktionen und strenge militärische Beschränkungen. \Angesichts der großen politischen und sozialen Veränderungen in Europa ist es für Bulgarien an der Zeit, seinen eigenen Weg zu gehen und seinen rechtmäßigen Platz auf dem Balkan zu finden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GRE_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Griechenland ist eine Nation in der Krise. Royalisten und Republikaner haben einen erbitterten Kampf um die Seele der Nation geführt, der 1935 in der Abschaffung der Zweiten Griechischen Republik endete. Der König, ein autokratischer Ausländer, bleibt eine höchst gespaltene Figur mit einer ungewissen Zukunft. \Abgelenkt durch kleinliche Innenpolitik hat man im Norden ein bösartiges und revanchistisches Bulgarien geduldet, während Griechenlands langjähriger Feind und neuer Verbündeter, die Türkei, im Osten eine politische Metamorphose durchmacht, ganz zu schweigen von dem rührenden Ungeheuer auf der anderen Seite der Adria...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TUR_GATHERING_STORM_DESC:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aus der Asche des Osmanischen Reiches wurde die Republik Türkei geboren. Die türkische Unabhängigkeit wurde mit Blut und Kugeln im Nationalen Feldzug von 1923 errungen, und obwohl der Kampf gerecht war, lastet der Preis weiterhin schwer auf dem türkischen Volk. \n\nReligiöse Konservative plagen das Hinterland und widersetzen sich den landesweiten Modernisierungsbemühungen aufs Schärfste, während kurdische Nationalisten im Osten des Landes ihr Unwesen treiben. Der hochverehrte Präsident Mustafa Kemal Atatürk muss das Land vereinen oder die Fackel an einen Führer weitergeben, der dazu in der Lage ist, und das muss bald geschehen, da sich in Europa Unruhen anbahnen...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ## EOF ##</t>
   </si>
   <si>
     <t xml:space="preserve">##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EOF</t>
   </si>
 </sst>
 </file>
@@ -410,7 +278,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -438,6 +306,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -482,7 +356,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -492,6 +366,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -620,8 +498,8 @@
   </sheetPr>
   <dimension ref="A1:V499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,11 +531,11 @@
       </c>
       <c r="C2" s="1" t="str">
         <f aca="false">A2 &amp;" " &amp;"""" &amp;B2 &amp;""""</f>
-        <v>BM_HISTORY_TITLE:0 "Brief History"</v>
+        <v> BM_HISTORY_TITLE:0 "Kurze Geschichte"</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A2),"",B2)</f>
-        <v>Brief History</v>
+        <f aca="false">IF(ISBLANK(A2),"",C2)</f>
+        <v> BM_HISTORY_TITLE:0 "Kurze Geschichte"</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,11 +547,11 @@
       </c>
       <c r="C3" s="1" t="str">
         <f aca="false">A3 &amp;" " &amp;"""" &amp;B3 &amp;""""</f>
-        <v>GATHERING_STORM_NAME:0 "Total War Mod"</v>
+        <v> GATHERING_STORM_NAME:0 "Total War Mod"</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A3),"",B3)</f>
-        <v>Total War Mod</v>
+        <f aca="false">IF(ISBLANK(A3),"",C3)</f>
+        <v> GATHERING_STORM_NAME:0 "Total War Mod"</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,11 +563,11 @@
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">A4 &amp;" " &amp;"""" &amp;B4 &amp;""""</f>
-        <v>GATHERING_STORM_DESC:0 "Dark times are coming. In Europe, Hitler has consolidated his power and his attention is now increasingly drawn beyond Germany's borders. Mussolini's Italy continues to embark on daring military adventures, while the Empire of Japan stands poised to attack China in Asia. Almost twenty years have passed since the end of the Great War, and the world has yet again been doused in gasoline. A single spark may be all it takes."</v>
+        <v> GATHERING_STORM_DESC:0 "Dunkle Zeiten stehen bevor. In Europa hat Hitler seine Macht gefestigt, und seine Aufmerksamkeit richtet sich nun zunehmend auf die Länder außerhalb Deutschlands. Mussolinis Italien stürzt sich weiterhin in waghalsige militärische Abenteuer, während das Kaiserreich Japan bereit ist, China in Asien anzugreifen. Fast zwanzig Jahre sind seit dem Ende des Ersten Weltkriegs vergangen, und die Welt ist wieder einmal mit Benzin übergossen worden. Ein einziger Funke könnte alles sein, was es braucht."</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A4),"",B4)</f>
-        <v>Dark times are coming. In Europe, Hitler has consolidated his power and his attention is now increasingly drawn beyond Germany's borders. Mussolini's Italy continues to embark on daring military adventures, while the Empire of Japan stands poised to attack China in Asia. Almost twenty years have passed since the end of the Great War, and the world has yet again been doused in gasoline. A single spark may be all it takes.</v>
+        <f aca="false">IF(ISBLANK(A4),"",C4)</f>
+        <v> GATHERING_STORM_DESC:0 "Dunkle Zeiten stehen bevor. In Europa hat Hitler seine Macht gefestigt, und seine Aufmerksamkeit richtet sich nun zunehmend auf die Länder außerhalb Deutschlands. Mussolinis Italien stürzt sich weiterhin in waghalsige militärische Abenteuer, während das Kaiserreich Japan bereit ist, China in Asien anzugreifen. Fast zwanzig Jahre sind seit dem Ende des Ersten Weltkriegs vergangen, und die Welt ist wieder einmal mit Benzin übergossen worden. Ein einziger Funke könnte alles sein, was es braucht."</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,11 +579,11 @@
       </c>
       <c r="C5" s="1" t="str">
         <f aca="false">A5 &amp;" " &amp;"""" &amp;B5 &amp;""""</f>
-        <v>HITTING_FAN_NAME:0 "The Hitting of the Fan"</v>
+        <v> HITTING_FAN_NAME:0 "Das Einschlagen des Ventilators"</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A5),"",B5)</f>
-        <v>The Hitting of the Fan</v>
+        <f aca="false">IF(ISBLANK(A5),"",C5)</f>
+        <v> HITTING_FAN_NAME:0 "Das Einschlagen des Ventilators"</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,11 +595,11 @@
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">A6 &amp;" " &amp;"""" &amp;B6 &amp;""""</f>
-        <v>HITTING_FAN_DESC:0 "Yup, that's right! That umbrella collection is about to come in real handy."</v>
+        <v> HITTING_FAN_DESC:0 "Jawohl, das stimmt! Die Regenschirmsammlung wird sich bald als sehr nützlich erweisen."</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A6),"",B6)</f>
-        <v>Yup, that's right! That umbrella collection is about to come in real handy.</v>
+        <f aca="false">IF(ISBLANK(A6),"",C6)</f>
+        <v> HITTING_FAN_DESC:0 "Jawohl, das stimmt! Die Regenschirmsammlung wird sich bald als sehr nützlich erweisen."</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,11 +611,11 @@
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">A7 &amp;" " &amp;"""" &amp;B7 &amp;""""</f>
-        <v>ENG_GATHERING_STORM_DESC:0 "Although the United Kingdom emerged victorious from the Great War, the foundation of its great empire was shaken to its core. A generation of the country's finest were lost in the trenches of Flanders and Northern France, while unrest spread throughout the Commonwealth and massive debts accrued.\n\nWith the trauma of the last war still in fresh memory, the country now faces the prospect of another. It is becoming increasingly clear that there will be no Peace for Our Time."</v>
+        <v> ENG_GATHERING_STORM_DESC:0 "Obwohl das Vereinigte Königreich aus dem Ersten Weltkrieg siegreich hervorging, wurde das Fundament seines großen Reiches in seinen Grundfesten erschüttert. Eine Generation der Besten des Landes ging in den Schützengräben Flanderns und Nordfrankreichs verloren, während sich im gesamten Commonwealth Unruhen ausbreiteten und massive Schulden angehäuft wurden.\n\nDas Trauma des letzten Krieges ist noch in frischer Erinnerung, und das Land steht nun vor der Aussicht auf einen weiteren. Es wird immer deutlicher, dass es keinen Frieden für unsere Zeit geben wird."</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A7),"",B7)</f>
-        <v>Although the United Kingdom emerged victorious from the Great War, the foundation of its great empire was shaken to its core. A generation of the country's finest were lost in the trenches of Flanders and Northern France, while unrest spread throughout the Commonwealth and massive debts accrued.\n\nWith the trauma of the last war still in fresh memory, the country now faces the prospect of another. It is becoming increasingly clear that there will be no Peace for Our Time.</v>
+        <f aca="false">IF(ISBLANK(A7),"",C7)</f>
+        <v> ENG_GATHERING_STORM_DESC:0 "Obwohl das Vereinigte Königreich aus dem Ersten Weltkrieg siegreich hervorging, wurde das Fundament seines großen Reiches in seinen Grundfesten erschüttert. Eine Generation der Besten des Landes ging in den Schützengräben Flanderns und Nordfrankreichs verloren, während sich im gesamten Commonwealth Unruhen ausbreiteten und massive Schulden angehäuft wurden.\n\nDas Trauma des letzten Krieges ist noch in frischer Erinnerung, und das Land steht nun vor der Aussicht auf einen weiteren. Es wird immer deutlicher, dass es keinen Frieden für unsere Zeit geben wird."</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,11 +627,11 @@
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">A8 &amp;" " &amp;"""" &amp;B8 &amp;""""</f>
-        <v>FRA_GATHERING_STORM_DESC:0 "Despite the devastation of the Great War, France has been on the road to recovery thanks to a strong economy. However, the Depression has still affected the country and the new German regime has no interest in paying the war reparations stipulated by the Treaty of Versailles.\n\nWhen the treaty was signed, a French marshal famously remarked that it was not peace, but an armistice of 20 years. Those 20 years are now rapidly running out."</v>
+        <v> FRA_GATHERING_STORM_DESC:0 "Trotz der verheerenden Folgen des Ersten Weltkriegs ist Frankreich dank seiner starken Wirtschaft auf dem Weg der Besserung. Die Depression hat das Land jedoch immer noch im Griff, und das neue deutsche Regime hat kein Interesse daran, die im Versailler Vertrag festgelegten Reparationszahlungen zu leisten. Als der Vertrag unterzeichnet wurde, bemerkte ein französischer Marschall, dass es sich nicht um Frieden, sondern um einen Waffenstillstand von 20 Jahren handele. Diese 20 Jahre laufen nun rasch ab."</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A8),"",B8)</f>
-        <v>Despite the devastation of the Great War, France has been on the road to recovery thanks to a strong economy. However, the Depression has still affected the country and the new German regime has no interest in paying the war reparations stipulated by the Treaty of Versailles.\n\nWhen the treaty was signed, a French marshal famously remarked that it was not peace, but an armistice of 20 years. Those 20 years are now rapidly running out.</v>
+        <f aca="false">IF(ISBLANK(A8),"",C8)</f>
+        <v> FRA_GATHERING_STORM_DESC:0 "Trotz der verheerenden Folgen des Ersten Weltkriegs ist Frankreich dank seiner starken Wirtschaft auf dem Weg der Besserung. Die Depression hat das Land jedoch immer noch im Griff, und das neue deutsche Regime hat kein Interesse daran, die im Versailler Vertrag festgelegten Reparationszahlungen zu leisten. Als der Vertrag unterzeichnet wurde, bemerkte ein französischer Marschall, dass es sich nicht um Frieden, sondern um einen Waffenstillstand von 20 Jahren handele. Diese 20 Jahre laufen nun rasch ab."</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,11 +643,11 @@
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">A9 &amp;" " &amp;"""" &amp;B9 &amp;""""</f>
-        <v>GER_GATHERING_STORM_DESC:0 "A new Germany has risen. Three years have passed since the Weimar Republic was dismantled and replaced by Hitler's Third Reich. Economic stability has returned after the trying years of the Great Depression, and mass unemployment has been dealt with.\n\nThe military restrictions imposed on Germany by the Versailles Treaty are long forgotten, and the Wehrmacht grows stronger by the day. Another Weltkrieg is on the horizon."</v>
+        <v> GER_GATHERING_STORM_DESC:0 "Ein neues Deutschland ist auferstanden. Drei Jahre sind vergangen, seit die Weimarer Republik zerschlagen und durch Hitlers Drittes Reich ersetzt wurde. Nach den schwierigen Jahren der Weltwirtschaftskrise ist die wirtschaftliche Stabilität zurückgekehrt, und die Massenarbeitslosigkeit ist beseitigt. Die militärischen Einschränkungen, die Deutschland durch den Versailler Vertrag auferlegt wurden, sind längst vergessen, und die Wehrmacht wird von Tag zu Tag stärker. Ein weiterer Weltkrieg zeichnet sich ab."</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A9),"",B9)</f>
-        <v>A new Germany has risen. Three years have passed since the Weimar Republic was dismantled and replaced by Hitler's Third Reich. Economic stability has returned after the trying years of the Great Depression, and mass unemployment has been dealt with.\n\nThe military restrictions imposed on Germany by the Versailles Treaty are long forgotten, and the Wehrmacht grows stronger by the day. Another Weltkrieg is on the horizon.</v>
+        <f aca="false">IF(ISBLANK(A9),"",C9)</f>
+        <v> GER_GATHERING_STORM_DESC:0 "Ein neues Deutschland ist auferstanden. Drei Jahre sind vergangen, seit die Weimarer Republik zerschlagen und durch Hitlers Drittes Reich ersetzt wurde. Nach den schwierigen Jahren der Weltwirtschaftskrise ist die wirtschaftliche Stabilität zurückgekehrt, und die Massenarbeitslosigkeit ist beseitigt. Die militärischen Einschränkungen, die Deutschland durch den Versailler Vertrag auferlegt wurden, sind längst vergessen, und die Wehrmacht wird von Tag zu Tag stärker. Ein weiterer Weltkrieg zeichnet sich ab."</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,11 +659,11 @@
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">A10 &amp;" " &amp;"""" &amp;B10 &amp;""""</f>
-        <v>ITA_GATHERING_STORM_DESC:0 "With the rise of Fascism, Italy has entered a new glorious era. Its forces are currently in the process of adding Ethiopia to the growing Italian colonial empire, but Mussolini's ambitions do not stop there.\n\nDominion over the Mediterranean has always been Italy's destiny, and a new order of things is taking shape in Europe. When the tidal wave of change arrives, Italy must find a place at its crest or risk being swept away."</v>
+        <v> ITA_GATHERING_STORM_DESC:0 "Mit dem Aufstieg des Faschismus ist Italien in eine neue glorreiche Ära eingetreten. Seine Streitkräfte sind gerade dabei, das wachsende italienische Kolonialreich um Äthiopien zu erweitern, doch Mussolinis Ehrgeiz ist noch lange nicht gestillt.\n\nDie Herrschaft über das Mittelmeer war schon immer Italiens Bestimmung, und in Europa zeichnet sich eine neue Ordnung der Dinge ab. Wenn die Flutwelle des Wandels anrollt, muss Italien einen Platz an ihrer Spitze finden oder riskieren, mitgerissen zu werden."</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A10),"",B10)</f>
-        <v>With the rise of Fascism, Italy has entered a new glorious era. Its forces are currently in the process of adding Ethiopia to the growing Italian colonial empire, but Mussolini's ambitions do not stop there.\n\nDominion over the Mediterranean has always been Italy's destiny, and a new order of things is taking shape in Europe. When the tidal wave of change arrives, Italy must find a place at its crest or risk being swept away.</v>
+        <f aca="false">IF(ISBLANK(A10),"",C10)</f>
+        <v> ITA_GATHERING_STORM_DESC:0 "Mit dem Aufstieg des Faschismus ist Italien in eine neue glorreiche Ära eingetreten. Seine Streitkräfte sind gerade dabei, das wachsende italienische Kolonialreich um Äthiopien zu erweitern, doch Mussolinis Ehrgeiz ist noch lange nicht gestillt.\n\nDie Herrschaft über das Mittelmeer war schon immer Italiens Bestimmung, und in Europa zeichnet sich eine neue Ordnung der Dinge ab. Wenn die Flutwelle des Wandels anrollt, muss Italien einen Platz an ihrer Spitze finden oder riskieren, mitgerissen zu werden."</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,11 +675,11 @@
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">A11 &amp;" " &amp;"""" &amp;B11 &amp;""""</f>
-        <v>JAP_GATHERING_STORM_DESC:0 "The Empire of Japan stands at a crossroads. Hokushin-ron, the Northern Expansion Doctrine, is favored by the Army and calls for an advance into Siberia. Nanshin-ron, the Southern Expansion Doctrine, is supported by the Navy and has the rich European colonies in Southeast Asia and the Pacific as its target. \n\nAnd then, of course, there is always China. Japan possesses a formidable military, but its industries are starving for resources and time is running out. Which path to choose?"</v>
+        <v> JAP_GATHERING_STORM_DESC:0 "Das japanische Kaiserreich steht an einem Scheideweg. Hokushin-ron, die nördliche Expansionsdoktrin, wird von der Armee favorisiert und fordert einen Vorstoß nach Sibirien. Nanshin-ron, die südliche Expansionsdoktrin, wird von der Marine unterstützt und hat die reichen europäischen Kolonien in Südostasien und im Pazifik zum Ziel. \Und dann ist da natürlich immer noch China. Japan verfügt über ein beeindruckendes Militär, aber seine Industrie leidet unter Ressourcenmangel und die Zeit wird knapp. Welchen Weg soll man wählen?"</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A11),"",B11)</f>
-        <v>The Empire of Japan stands at a crossroads. Hokushin-ron, the Northern Expansion Doctrine, is favored by the Army and calls for an advance into Siberia. Nanshin-ron, the Southern Expansion Doctrine, is supported by the Navy and has the rich European colonies in Southeast Asia and the Pacific as its target. \n\nAnd then, of course, there is always China. Japan possesses a formidable military, but its industries are starving for resources and time is running out. Which path to choose?</v>
+        <f aca="false">IF(ISBLANK(A11),"",C11)</f>
+        <v> JAP_GATHERING_STORM_DESC:0 "Das japanische Kaiserreich steht an einem Scheideweg. Hokushin-ron, die nördliche Expansionsdoktrin, wird von der Armee favorisiert und fordert einen Vorstoß nach Sibirien. Nanshin-ron, die südliche Expansionsdoktrin, wird von der Marine unterstützt und hat die reichen europäischen Kolonien in Südostasien und im Pazifik zum Ziel. \Und dann ist da natürlich immer noch China. Japan verfügt über ein beeindruckendes Militär, aber seine Industrie leidet unter Ressourcenmangel und die Zeit wird knapp. Welchen Weg soll man wählen?"</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,11 +691,11 @@
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">A12 &amp;" " &amp;"""" &amp;B12 &amp;""""</f>
-        <v>SOV_GATHERING_STORM_DESC:0 "When the dust settled after the Russian Civil War, the U.S.S.R. had emerged as the undisputed ruler over most of what once constituted the Russian Empire. Rapid industrialization and collectivization followed, often at a great cost in human lives. \n\nThe Soviet Union is now faced with the threat of a resurgent Germany to the west, and a belligerent Japan in the east. Of course, there are also internal threats within the ranks of the Communist Party to contend with..."</v>
+        <v> SOV_GATHERING_STORM_DESC:0 "Als sich der Staub nach dem Russischen Bürgerkrieg gelegt hatte, war die UdSSR zum unangefochtenen Herrscher über den größten Teil des ehemaligen Russischen Reiches geworden. Es folgten eine rasche Industrialisierung und Kollektivierung, die oft viele Menschenleben kostete. \Die Sowjetunion sieht sich nun mit der Bedrohung durch ein wiedererstarktes Deutschland im Westen und ein kriegerisches Japan im Osten konfrontiert. Natürlich gibt es auch interne Bedrohungen in den Reihen der Kommunistischen Partei, mit denen man sich auseinandersetzen muss..."</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A12),"",B12)</f>
-        <v>When the dust settled after the Russian Civil War, the U.S.S.R. had emerged as the undisputed ruler over most of what once constituted the Russian Empire. Rapid industrialization and collectivization followed, often at a great cost in human lives. \n\nThe Soviet Union is now faced with the threat of a resurgent Germany to the west, and a belligerent Japan in the east. Of course, there are also internal threats within the ranks of the Communist Party to contend with...</v>
+        <f aca="false">IF(ISBLANK(A12),"",C12)</f>
+        <v> SOV_GATHERING_STORM_DESC:0 "Als sich der Staub nach dem Russischen Bürgerkrieg gelegt hatte, war die UdSSR zum unangefochtenen Herrscher über den größten Teil des ehemaligen Russischen Reiches geworden. Es folgten eine rasche Industrialisierung und Kollektivierung, die oft viele Menschenleben kostete. \Die Sowjetunion sieht sich nun mit der Bedrohung durch ein wiedererstarktes Deutschland im Westen und ein kriegerisches Japan im Osten konfrontiert. Natürlich gibt es auch interne Bedrohungen in den Reihen der Kommunistischen Partei, mit denen man sich auseinandersetzen muss..."</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,11 +707,11 @@
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">A13 &amp;" " &amp;"""" &amp;B13 &amp;""""</f>
-        <v>SPR_GATHERING_STORM_DESC:0 "The Spanish Republic stands at a crossroad. Internal instability and radical groups threaten the survival of the Republic. The next election will undoubtedly shape the future of the nation for decades to come."</v>
+        <v> SPR_GATHERING_STORM_DESC:0 "Die Spanische Republik steht an einem Scheideweg. Innere Instabilität und radikale Gruppen bedrohen das Überleben der Republik. Die nächsten Wahlen werden zweifellos die Zukunft der Nation für die nächsten Jahrzehnte bestimmen."</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A13),"",B13)</f>
-        <v>The Spanish Republic stands at a crossroad. Internal instability and radical groups threaten the survival of the Republic. The next election will undoubtedly shape the future of the nation for decades to come.</v>
+        <f aca="false">IF(ISBLANK(A13),"",C13)</f>
+        <v> SPR_GATHERING_STORM_DESC:0 "Die Spanische Republik steht an einem Scheideweg. Innere Instabilität und radikale Gruppen bedrohen das Überleben der Republik. Die nächsten Wahlen werden zweifellos die Zukunft der Nation für die nächsten Jahrzehnte bestimmen."</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -845,11 +723,11 @@
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">A14 &amp;" " &amp;"""" &amp;B14 &amp;""""</f>
-        <v>USA_GATHERING_STORM_DESC:0 "The United States retreated back into isolation at the end of the last war and enjoyed a period of economic prosperity during the Roaring Twenties. This came to a dramatic end when the nation was gripped by the Great Depression.\n\nAmerica's policy of non-intervention in foreign wars has stood firm, but tensions are rising in both Europe and Asia. The 'Great Neutral' may find itself drawn into the maelstrom whether it wants to or not."</v>
+        <v> USA_GATHERING_STORM_DESC:0 "Die Vereinigten Staaten zogen sich nach dem Ende des letzten Krieges in die Isolation zurück und erlebten in den Roaring Twenties eine Zeit des wirtschaftlichen Wohlstands. Dies fand ein dramatisches Ende, als die Nation von der Großen Depression erfasst wurde.\n\Amerikas Politik der Nichteinmischung in ausländische Kriege hat sich bewährt, aber die Spannungen in Europa und Asien nehmen zu. Der "große Neutrale" könnte in den Strudel hineingezogen werden, ob er will oder nicht."</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A14),"",B14)</f>
-        <v>The United States retreated back into isolation at the end of the last war and enjoyed a period of economic prosperity during the Roaring Twenties. This came to a dramatic end when the nation was gripped by the Great Depression.\n\nAmerica's policy of non-intervention in foreign wars has stood firm, but tensions are rising in both Europe and Asia. The 'Great Neutral' may find itself drawn into the maelstrom whether it wants to or not.</v>
+        <f aca="false">IF(ISBLANK(A14),"",C14)</f>
+        <v> USA_GATHERING_STORM_DESC:0 "Die Vereinigten Staaten zogen sich nach dem Ende des letzten Krieges in die Isolation zurück und erlebten in den Roaring Twenties eine Zeit des wirtschaftlichen Wohlstands. Dies fand ein dramatisches Ende, als die Nation von der Großen Depression erfasst wurde.\n\Amerikas Politik der Nichteinmischung in ausländische Kriege hat sich bewährt, aber die Spannungen in Europa und Asien nehmen zu. Der "große Neutrale" könnte in den Strudel hineingezogen werden, ob er will oder nicht."</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,2954 +739,1910 @@
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">A15 &amp;" " &amp;"""" &amp;B15 &amp;""""</f>
-        <v>OTHER_GATHERING_STORM_DESC:0 "The nations of the world, great and small, are not all content to hold their breath awaiting the outbreak of another global conflict. From major powers on the brink of civil war to the many nations formed and transformed by the Great War, all will have to make difficult decisions and balance ideals with pragmatism to have an impact on the future of the world."</v>
+        <v> OTHER_GATHERING_STORM_DESC:0 "Die Nationen der Welt, ob groß oder klein, sind nicht alle bereit, den Atem anzuhalten und auf den Ausbruch eines neuen globalen Konflikts zu warten. Von den Großmächten, die am Rande eines Bürgerkriegs stehen, bis hin zu den vielen Nationen, die der Große Krieg geformt und verändert hat, müssen alle schwierige Entscheidungen treffen und Ideale mit Pragmatismus abwägen, um die Zukunft der Welt zu beeinflussen."</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A15),"",B15)</f>
-        <v>The nations of the world, great and small, are not all content to hold their breath awaiting the outbreak of another global conflict. From major powers on the brink of civil war to the many nations formed and transformed by the Great War, all will have to make difficult decisions and balance ideals with pragmatism to have an impact on the future of the world.</v>
+        <f aca="false">IF(ISBLANK(A15),"",C15)</f>
+        <v> OTHER_GATHERING_STORM_DESC:0 "Die Nationen der Welt, ob groß oder klein, sind nicht alle bereit, den Atem anzuhalten und auf den Ausbruch eines neuen globalen Konflikts zu warten. Von den Großmächten, die am Rande eines Bürgerkriegs stehen, bis hin zu den vielen Nationen, die der Große Krieg geformt und verändert hat, müssen alle schwierige Entscheidungen treffen und Ideale mit Pragmatismus abwägen, um die Zukunft der Welt zu beeinflussen."</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="1" t="str">
         <f aca="false">A16 &amp;" " &amp;"""" &amp;B16 &amp;""""</f>
-        <v>POL_GATHERING_STORM_DESC:1 "After centuries in which the Polish nation has been divided between three empires, Poland now stands independent once again. But its position is not an easy one. \n\nIn the east, the Soviet Union has not forgotten the humiliating defeat in the Polish-Soviet war. \n\nIn the west, German Führer Adolf Hitler makes no secret of his desire for more "living space"</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v> POL_GATHERING_STORM_DESC:1 "Nach Jahrhunderten, in denen die polnische Nation auf drei Reiche aufgeteilt war, ist Polen nun wieder unabhängig. Aber seine Position ist nicht einfach. \Im Osten hat die Sowjetunion die demütigende Niederlage im polnisch-sowjetischen Krieg nicht vergessen. \n\nIm Westen macht der deutsche Führer Adolf Hitler keinen Hehl aus seinem Wunsch nach mehr "Lebensraum" - und dass die ehemaligen deutschen Gebiete, die jetzt unter polnischer Kontrolle stehen, der erste Schritt zur Verwirklichung dieses Wunsches sein werden."</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A16),"",C16)</f>
+        <v> POL_GATHERING_STORM_DESC:1 "Nach Jahrhunderten, in denen die polnische Nation auf drei Reiche aufgeteilt war, ist Polen nun wieder unabhängig. Aber seine Position ist nicht einfach. \Im Osten hat die Sowjetunion die demütigende Niederlage im polnisch-sowjetischen Krieg nicht vergessen. \n\nIm Westen macht der deutsche Führer Adolf Hitler keinen Hehl aus seinem Wunsch nach mehr "Lebensraum" - und dass die ehemaligen deutschen Gebiete, die jetzt unter polnischer Kontrolle stehen, der erste Schritt zur Verwirklichung dieses Wunsches sein werden."</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">A17 &amp;" " &amp;"""" &amp;B17 &amp;""""</f>
-        <v>HUN_GATHERING_STORM_DESC:0 "One half of the late Austro-Hungarian Empire, Hungary was treated as a defeated enemy by the victorious Entente after the Great War. In the Treaty of Trianon, the country lost almost two thirds of its territory. Millions of ethnic Hungarians found themselves living outside its borders, and its economy was left in ruins. Harsh restrictions on rearmament were supposed to ensure that Hungary could never again threaten the peace in Europe. \n\nBut with the political climate in Europe shifting, the time may have come to finally right the wrongs of the past, and regain the former glory of the nation."</v>
+        <v> HUN_GATHERING_STORM_DESC:0 "Ungarn, die eine Hälfte der ehemaligen österreichisch-ungarischen Monarchie, wurde von der siegreichen Entente nach dem Ersten Weltkrieg wie ein besiegter Feind behandelt. Mit dem Vertrag von Trianon verlor das Land fast zwei Drittel seines Territoriums. Millionen ethnischer Ungarn lebten außerhalb der Landesgrenzen, und die Wirtschaft des Landes lag in Trümmern. Strenge Aufrüstungsbeschränkungen sollten sicherstellen, dass Ungarn nie wieder den Frieden in Europa gefährden konnte. \Doch mit der Veränderung des politischen Klimas in Europa könnte die Zeit gekommen sein, die Fehler der Vergangenheit endlich wiedergutzumachen und den einstigen Ruhm der Nation wiederzuerlangen."</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A17),"",B17)</f>
-        <v>One half of the late Austro-Hungarian Empire, Hungary was treated as a defeated enemy by the victorious Entente after the Great War. In the Treaty of Trianon, the country lost almost two thirds of its territory. Millions of ethnic Hungarians found themselves living outside its borders, and its economy was left in ruins. Harsh restrictions on rearmament were supposed to ensure that Hungary could never again threaten the peace in Europe. \n\nBut with the political climate in Europe shifting, the time may have come to finally right the wrongs of the past, and regain the former glory of the nation.</v>
+        <f aca="false">IF(ISBLANK(A17),"",C17)</f>
+        <v> HUN_GATHERING_STORM_DESC:0 "Ungarn, die eine Hälfte der ehemaligen österreichisch-ungarischen Monarchie, wurde von der siegreichen Entente nach dem Ersten Weltkrieg wie ein besiegter Feind behandelt. Mit dem Vertrag von Trianon verlor das Land fast zwei Drittel seines Territoriums. Millionen ethnischer Ungarn lebten außerhalb der Landesgrenzen, und die Wirtschaft des Landes lag in Trümmern. Strenge Aufrüstungsbeschränkungen sollten sicherstellen, dass Ungarn nie wieder den Frieden in Europa gefährden konnte. \Doch mit der Veränderung des politischen Klimas in Europa könnte die Zeit gekommen sein, die Fehler der Vergangenheit endlich wiedergutzumachen und den einstigen Ruhm der Nation wiederzuerlangen."</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="str">
         <f aca="false">A18 &amp;" " &amp;"""" &amp;B18 &amp;""""</f>
-        <v>ROM_GATHERING_STORM_DESC:0 "Romania found herself on the winning side of the Great War, and as a result gained new territories and people - not all of whom were Romanians. To guard against the revanchionist desires of the countries that were forced to cede land, Romania has created a web of alliances all across the Balkans. In recent years, however, the country has concerned itself mostly with domestic matters, and the government of King Carol II has allowed these alliances to lapse. \n\nAs the political situation in Europe changes, Romania may well find herself standing alone - and vulnerable."</v>
+        <v> ROM_GATHERING_STORM_DESC:0 "Rumänien befand sich auf der Gewinnerseite des Ersten Weltkriegs und gewann infolgedessen neue Gebiete und Menschen hinzu - nicht alle davon waren Rumänen. Um sich gegen die revanchistischen Bestrebungen der Länder zu schützen, die gezwungen waren, Land abzutreten, hat Rumänien ein Netz von Bündnissen auf dem gesamten Balkan geknüpft. In den letzten Jahren hat sich das Land jedoch hauptsächlich um innenpolitische Angelegenheiten gekümmert, und die Regierung von König Carol II. hat diese Bündnisse verfallen lassen. \Wenn sich die politische Lage in Europa ändert, steht Rumänien möglicherweise alleine da - und ist verwundbar."</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A18),"",B18)</f>
-        <v>Romania found herself on the winning side of the Great War, and as a result gained new territories and people - not all of whom were Romanians. To guard against the revanchionist desires of the countries that were forced to cede land, Romania has created a web of alliances all across the Balkans. In recent years, however, the country has concerned itself mostly with domestic matters, and the government of King Carol II has allowed these alliances to lapse. \n\nAs the political situation in Europe changes, Romania may well find herself standing alone - and vulnerable.</v>
+        <f aca="false">IF(ISBLANK(A18),"",C18)</f>
+        <v> ROM_GATHERING_STORM_DESC:0 "Rumänien befand sich auf der Gewinnerseite des Ersten Weltkriegs und gewann infolgedessen neue Gebiete und Menschen hinzu - nicht alle davon waren Rumänen. Um sich gegen die revanchistischen Bestrebungen der Länder zu schützen, die gezwungen waren, Land abzutreten, hat Rumänien ein Netz von Bündnissen auf dem gesamten Balkan geknüpft. In den letzten Jahren hat sich das Land jedoch hauptsächlich um innenpolitische Angelegenheiten gekümmert, und die Regierung von König Carol II. hat diese Bündnisse verfallen lassen. \Wenn sich die politische Lage in Europa ändert, steht Rumänien möglicherweise alleine da - und ist verwundbar."</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="str">
         <f aca="false">A19 &amp;" " &amp;"""" &amp;B19 &amp;""""</f>
-        <v>CZE_GATHERING_STORM_DESC:0 "During the Great War, Czech troops fought alongside the Entente forces all over Europe in an effort to secure recognition for their nation. Their efforts were successful and Czechoslovakia rose from the ashes of the Austro-Hungarian Empire. \n\nSince their explosive entry into statehood Czechoslovakia formed the 'Little Entente' alliance with Yugoslavia and Romania with the aim of suppressing Hungary's efforts to restore the Austro-Hungarian Empire, although as resurgent German power grows the political landscape of Europe is rapidly changing."</v>
+        <v> CZE_GATHERING_STORM_DESC:0 "Während des Ersten Weltkriegs kämpften tschechische Truppen in ganz Europa an der Seite der Entente, um die Anerkennung ihrer Nation zu sichern. Ihre Bemühungen waren erfolgreich, und die Tschechoslowakei erhob sich aus der Asche der österreichisch-ungarischen Monarchie. \Seit ihrem explosiven Eintritt in die Staatlichkeit bildete die Tschechoslowakei zusammen mit Jugoslawien und Rumänien das Bündnis der "Kleinen Entente" mit dem Ziel, Ungarns Bemühungen um die Wiederherstellung Österreich-Ungarns zu unterdrücken."</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A19),"",B19)</f>
-        <v>During the Great War, Czech troops fought alongside the Entente forces all over Europe in an effort to secure recognition for their nation. Their efforts were successful and Czechoslovakia rose from the ashes of the Austro-Hungarian Empire. \n\nSince their explosive entry into statehood Czechoslovakia formed the 'Little Entente' alliance with Yugoslavia and Romania with the aim of suppressing Hungary's efforts to restore the Austro-Hungarian Empire, although as resurgent German power grows the political landscape of Europe is rapidly changing.</v>
+        <f aca="false">IF(ISBLANK(A19),"",C19)</f>
+        <v> CZE_GATHERING_STORM_DESC:0 "Während des Ersten Weltkriegs kämpften tschechische Truppen in ganz Europa an der Seite der Entente, um die Anerkennung ihrer Nation zu sichern. Ihre Bemühungen waren erfolgreich, und die Tschechoslowakei erhob sich aus der Asche der österreichisch-ungarischen Monarchie. \Seit ihrem explosiven Eintritt in die Staatlichkeit bildete die Tschechoslowakei zusammen mit Jugoslawien und Rumänien das Bündnis der "Kleinen Entente" mit dem Ziel, Ungarns Bemühungen um die Wiederherstellung Österreich-Ungarns zu unterdrücken."</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">A20 &amp;" " &amp;"""" &amp;B20 &amp;""""</f>
-        <v>#BUL_GATHERING_STORM_DESC:0 "Bulgaria found itself on the losing side of the Great War. Whatever was left of the third Bulgarian Empire was destroyed by the Allied Powers and their forced demilitarization of Bulgaria. On top of demands of the Western Powers, Bulgaria's fellow Balkan countries also placed restrictions upon the country.  \n\nUnlike Austria, Germany and Hungary however, Bulgaria had a clean record of abiding by the peace demands of the Allied Powers."</v>
+        <v> #BUL_GATHERING_STORM_DESC:0 "Bulgarien fand sich auf der Verliererseite des Großen Krieges wieder. Was auch immer vom dritten bulgarischen Reich übrig geblieben war, wurde von den Alliierten Mächten und ihrer erzwungenen Entmilitarisierung Bulgariens zerstört. Zusätzlich zu den Forderungen der Westmächte legten auch die anderen Balkanländer Bulgarien Beschränkungen auf.  \Im Gegensatz zu Österreich, Deutschland und Ungarn hielt sich Bulgarien jedoch an die Friedensauflagen der Alliierten Mächte."</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A20),"",B20)</f>
-        <v>Bulgaria found itself on the losing side of the Great War. Whatever was left of the third Bulgarian Empire was destroyed by the Allied Powers and their forced demilitarization of Bulgaria. On top of demands of the Western Powers, Bulgaria's fellow Balkan countries also placed restrictions upon the country.  \n\nUnlike Austria, Germany and Hungary however, Bulgaria had a clean record of abiding by the peace demands of the Allied Powers.</v>
+        <f aca="false">IF(ISBLANK(A20),"",C20)</f>
+        <v> #BUL_GATHERING_STORM_DESC:0 "Bulgarien fand sich auf der Verliererseite des Großen Krieges wieder. Was auch immer vom dritten bulgarischen Reich übrig geblieben war, wurde von den Alliierten Mächten und ihrer erzwungenen Entmilitarisierung Bulgariens zerstört. Zusätzlich zu den Forderungen der Westmächte legten auch die anderen Balkanländer Bulgarien Beschränkungen auf.  \Im Gegensatz zu Österreich, Deutschland und Ungarn hielt sich Bulgarien jedoch an die Friedensauflagen der Alliierten Mächte."</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="str">
         <f aca="false">A21 &amp;" " &amp;"""" &amp;B21 &amp;""""</f>
-        <v>YUG_GATHERING_STORM_DESC:0 "Yugoslavia came into existence after the new Kingdom of Serbs, Croats and Slovenes merged with the formerly independent Kingdom of Serbia in 1922. Initially Yugoslavia joined both the Little Entente and the Balkan Pact to secure their independence, but recently the assassination of King Alexander combined with growing internal pressure from nationalists and external pressure from Italy and Germany has caused drastic upheaval and reevaluation of their political and strategic position."</v>
+        <v> YUG_GATHERING_STORM_DESC:0 "Jugoslawien entstand nach dem Zusammenschluss des neuen Königreichs der Serben, Kroaten und Slowenen mit dem zuvor unabhängigen Königreich Serbien im Jahr 1922. Ursprünglich schloss sich Jugoslawien sowohl der Kleinen Entente als auch dem Balkanpakt an, um seine Unabhängigkeit zu sichern, doch in jüngster Zeit führte die Ermordung von König Alexander in Verbindung mit dem wachsenden internen Druck von Nationalisten und dem externen Druck von Italien und Deutschland zu drastischen Umwälzungen und einer Neubewertung der politischen und strategischen Position des Landes."</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A21),"",B21)</f>
-        <v>Yugoslavia came into existence after the new Kingdom of Serbs, Croats and Slovenes merged with the formerly independent Kingdom of Serbia in 1922. Initially Yugoslavia joined both the Little Entente and the Balkan Pact to secure their independence, but recently the assassination of King Alexander combined with growing internal pressure from nationalists and external pressure from Italy and Germany has caused drastic upheaval and reevaluation of their political and strategic position.</v>
+        <f aca="false">IF(ISBLANK(A21),"",C21)</f>
+        <v> YUG_GATHERING_STORM_DESC:0 "Jugoslawien entstand nach dem Zusammenschluss des neuen Königreichs der Serben, Kroaten und Slowenen mit dem zuvor unabhängigen Königreich Serbien im Jahr 1922. Ursprünglich schloss sich Jugoslawien sowohl der Kleinen Entente als auch dem Balkanpakt an, um seine Unabhängigkeit zu sichern, doch in jüngster Zeit führte die Ermordung von König Alexander in Verbindung mit dem wachsenden internen Druck von Nationalisten und dem externen Druck von Italien und Deutschland zu drastischen Umwälzungen und einer Neubewertung der politischen und strategischen Position des Landes."</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">A22 &amp;" " &amp;"""" &amp;B22 &amp;""""</f>
-        <v>CAN_GATHERING_STORM_DESC:0 "Canada entered the Great War as a mere colony and left it as a nation. Born in the mud of Passchendaele, Canada now takes its first few uncertain steps onto the world stage. \n\nHobbled by the Great Depression and with internal divisions between Anglophones and Francophones, the future of this new nation looks anything but secure."</v>
+        <v> CAN_GATHERING_STORM_DESC:0 "Kanada trat in den Großen Krieg als bloße Kolonie ein und verließ ihn als Nation. Geboren im Schlamm von Passchendaele, macht Kanada nun seine ersten unsicheren Schritte auf der Weltbühne. \Von der Weltwirtschaftskrise gebeutelt und mit internen Spaltungen zwischen Anglophonen und Frankophonen, sieht die Zukunft dieser neuen Nation alles andere als sicher aus."</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A22),"",B22)</f>
-        <v>Canada entered the Great War as a mere colony and left it as a nation. Born in the mud of Passchendaele, Canada now takes its first few uncertain steps onto the world stage. \n\nHobbled by the Great Depression and with internal divisions between Anglophones and Francophones, the future of this new nation looks anything but secure.</v>
+        <f aca="false">IF(ISBLANK(A22),"",C22)</f>
+        <v> CAN_GATHERING_STORM_DESC:0 "Kanada trat in den Großen Krieg als bloße Kolonie ein und verließ ihn als Nation. Geboren im Schlamm von Passchendaele, macht Kanada nun seine ersten unsicheren Schritte auf der Weltbühne. \Von der Weltwirtschaftskrise gebeutelt und mit internen Spaltungen zwischen Anglophonen und Frankophonen, sieht die Zukunft dieser neuen Nation alles andere als sicher aus."</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="str">
         <f aca="false">A23 &amp;" " &amp;"""" &amp;B23 &amp;""""</f>
-        <v>AST_GATHERING_STORM_DESC:0 "Australians earned their place in the history books of the Great War in blood. The sacrifices made in the Gallipolli campaign have not been forgotten - and neither were those who ordered it. \n\nAustralia now stands at a crossroads: should she stay with her colonial master, about to be drawn into yet another conflict in distant Europe, or should the focus be on the threats that are appearing closer to home?"</v>
+        <v> AST_GATHERING_STORM_DESC:0 "Die Australier haben sich ihren Platz in den Geschichtsbüchern des Großen Krieges mit Blut verdient. Die im Gallipolli-Feldzug erbrachten Opfer sind nicht vergessen - und auch nicht diejenigen, die ihn befohlen haben. \n\nAustralien steht nun am Scheideweg: Soll es bei seinem Kolonialherrn bleiben und in einen weiteren Konflikt im fernen Europa hineingezogen werden, oder soll es sich auf die Bedrohungen konzentrieren, die näher an der Heimat auftauchen?"</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A23),"",B23)</f>
-        <v>Australians earned their place in the history books of the Great War in blood. The sacrifices made in the Gallipolli campaign have not been forgotten - and neither were those who ordered it. \n\nAustralia now stands at a crossroads: should she stay with her colonial master, about to be drawn into yet another conflict in distant Europe, or should the focus be on the threats that are appearing closer to home?</v>
+        <f aca="false">IF(ISBLANK(A23),"",C23)</f>
+        <v> AST_GATHERING_STORM_DESC:0 "Die Australier haben sich ihren Platz in den Geschichtsbüchern des Großen Krieges mit Blut verdient. Die im Gallipolli-Feldzug erbrachten Opfer sind nicht vergessen - und auch nicht diejenigen, die ihn befohlen haben. \n\nAustralien steht nun am Scheideweg: Soll es bei seinem Kolonialherrn bleiben und in einen weiteren Konflikt im fernen Europa hineingezogen werden, oder soll es sich auf die Bedrohungen konzentrieren, die näher an der Heimat auftauchen?"</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">A24 &amp;" " &amp;"""" &amp;B24 &amp;""""</f>
-        <v>SAF_GATHERING_STORM_DESC:0 "When the Great War began, many in South Africa refused to take up arms for their British masters. The South African military spent most of the Great War chasing around German forces in their African colonies, with limited success. \n\nNow a new war looms on the horizon. Then as now, there are some in South Africa that think the country shouldn't be fighting against the Germans at all. Some even believe that the time has come for the descendents of the Boers to make their bid for the liberty that was denied to their forefathers."</v>
+        <v> SAF_GATHERING_STORM_DESC:0 "Als der Große Krieg begann, weigerten sich viele Südafrikaner, für ihre britischen Herren zu den Waffen zu greifen. Das südafrikanische Militär verbrachte die meiste Zeit des Ersten Weltkriegs damit, deutsche Truppen in den afrikanischen Kolonien zu jagen - mit begrenztem Erfolg. \Nun zeichnet sich ein neuer Krieg am Horizont ab. Damals wie heute gibt es in Südafrika einige, die der Meinung sind, dass das Land überhaupt nicht gegen die Deutschen kämpfen sollte. Manche glauben sogar, dass die Zeit für die Nachfahren der Buren gekommen ist, um die Freiheit zu fordern, die ihren Vorfahren verwehrt wurde."</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A24),"",B24)</f>
-        <v>When the Great War began, many in South Africa refused to take up arms for their British masters. The South African military spent most of the Great War chasing around German forces in their African colonies, with limited success. \n\nNow a new war looms on the horizon. Then as now, there are some in South Africa that think the country shouldn't be fighting against the Germans at all. Some even believe that the time has come for the descendents of the Boers to make their bid for the liberty that was denied to their forefathers.</v>
+        <f aca="false">IF(ISBLANK(A24),"",C24)</f>
+        <v> SAF_GATHERING_STORM_DESC:0 "Als der Große Krieg begann, weigerten sich viele Südafrikaner, für ihre britischen Herren zu den Waffen zu greifen. Das südafrikanische Militär verbrachte die meiste Zeit des Ersten Weltkriegs damit, deutsche Truppen in den afrikanischen Kolonien zu jagen - mit begrenztem Erfolg. \Nun zeichnet sich ein neuer Krieg am Horizont ab. Damals wie heute gibt es in Südafrika einige, die der Meinung sind, dass das Land überhaupt nicht gegen die Deutschen kämpfen sollte. Manche glauben sogar, dass die Zeit für die Nachfahren der Buren gekommen ist, um die Freiheit zu fordern, die ihren Vorfahren verwehrt wurde."</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">A25 &amp;" " &amp;"""" &amp;B25 &amp;""""</f>
-        <v>SWE_GATHERING_STORM_DESC:0 "Sweden is a fully industrialized nation in northern europe. It's people who are decendents of the infamous viking warriors are seen as the germanic ideal to Germany. Sweden stayed neutral in the great war but has a history of imperial ambitions in the "Stormaktstid"</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v> SWE_GATHERING_STORM_DESC:0 "Schweden ist eine voll industrialisierte Nation in Nordeuropa. Sein Volk, das von den berüchtigten Wikingerkriegern abstammt, wird als das germanische Ideal für Deutschland angesehen. Schweden blieb im Großen Krieg neutral, hat aber in der "Stormaktstid", als Schweden baltische und deutsche Gebiete besaß, imperiale Ambitionen entwickelt. Sollte Schweden wieder neutral bleiben oder seine gut geölte zivile Wirtschaft riskieren?"</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A25),"",C25)</f>
+        <v> SWE_GATHERING_STORM_DESC:0 "Schweden ist eine voll industrialisierte Nation in Nordeuropa. Sein Volk, das von den berüchtigten Wikingerkriegern abstammt, wird als das germanische Ideal für Deutschland angesehen. Schweden blieb im Großen Krieg neutral, hat aber in der "Stormaktstid", als Schweden baltische und deutsche Gebiete besaß, imperiale Ambitionen entwickelt. Sollte Schweden wieder neutral bleiben oder seine gut geölte zivile Wirtschaft riskieren?"</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="str">
         <f aca="false">A26 &amp;" " &amp;"""" &amp;B26 &amp;""""</f>
-        <v>FIN_GATHERING_STORM_DESC:0 "The Finnish Republic looks nervously to the East. Despite a healthy recovery from the 'Great Depression' diplomatic relations with the Russian bear are starting to become strained. Rumours abound that the blood of Finnish civillians is being spilt in the former Finnish Karelian region.\n\nOur tiny nation is no match for the mighty Soviets should conflict come. Perhaps though, we can still give them a bloody nose and maybe find willing allies to help support our cause?"</v>
+        <v> FIN_GATHERING_STORM_DESC:0 "Die finnische Republik blickt nervös nach Osten. Trotz einer gesunden Erholung von der "Großen Depression" beginnen sich die diplomatischen Beziehungen zum russischen Bären zu verschlechtern. Es gibt Gerüchte, dass in der ehemaligen finnisch-karelischen Region das Blut finnischer Zivilisten vergossen wird.\n\nUnsere winzige Nation ist den mächtigen Sowjets im Konfliktfall nicht gewachsen. Aber vielleicht können wir ihnen trotzdem eine blutige Nase verpassen und vielleicht willige Verbündete finden, die uns unterstützen?"</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A26),"",B26)</f>
-        <v>The Finnish Republic looks nervously to the East. Despite a healthy recovery from the 'Great Depression' diplomatic relations with the Russian bear are starting to become strained. Rumours abound that the blood of Finnish civillians is being spilt in the former Finnish Karelian region.\n\nOur tiny nation is no match for the mighty Soviets should conflict come. Perhaps though, we can still give them a bloody nose and maybe find willing allies to help support our cause?</v>
+        <f aca="false">IF(ISBLANK(A26),"",C26)</f>
+        <v> FIN_GATHERING_STORM_DESC:0 "Die finnische Republik blickt nervös nach Osten. Trotz einer gesunden Erholung von der "Großen Depression" beginnen sich die diplomatischen Beziehungen zum russischen Bären zu verschlechtern. Es gibt Gerüchte, dass in der ehemaligen finnisch-karelischen Region das Blut finnischer Zivilisten vergossen wird.\n\nUnsere winzige Nation ist den mächtigen Sowjets im Konfliktfall nicht gewachsen. Aber vielleicht können wir ihnen trotzdem eine blutige Nase verpassen und vielleicht willige Verbündete finden, die uns unterstützen?"</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1" t="str">
         <f aca="false">A27 &amp;" " &amp;"""" &amp;B27 &amp;""""</f>
-        <v>NZL_GATHERING_STORM_DESC:0 "The tiny nation in the South Pacific fought bravely in the Great War, suffering high casualties in the bloody battles at Gallipoli and on the western front. Nearly half the men of fighting age had served in the fighting overseas, and many had not returned.\n\nSome twenty years after end of the Great War, the people of New Zealand look anxiously at the world stage, for this time, the threat of war seems to draw ever closer to their own home..."</v>
+        <v> NZL_GATHERING_STORM_DESC:0 "Die winzige Nation im Südpazifik hat im Ersten Weltkrieg tapfer gekämpft und in den blutigen Schlachten bei Gallipoli und an der Westfront hohe Verluste erlitten. Fast die Hälfte der Männer im kampffähigen Alter hatte in den Kämpfen in Übersee gedient, und viele kehrten nicht zurück. Etwa zwanzig Jahre nach dem Ende des Großen Krieges blickt das neuseeländische Volk ängstlich auf die Weltbühne, denn dieses Mal scheint die Kriegsgefahr immer näher an die eigene Heimat heranzurücken..."</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A27),"",B27)</f>
-        <v>The tiny nation in the South Pacific fought bravely in the Great War, suffering high casualties in the bloody battles at Gallipoli and on the western front. Nearly half the men of fighting age had served in the fighting overseas, and many had not returned.\n\nSome twenty years after end of the Great War, the people of New Zealand look anxiously at the world stage, for this time, the threat of war seems to draw ever closer to their own home...</v>
+        <f aca="false">IF(ISBLANK(A27),"",C27)</f>
+        <v> NZL_GATHERING_STORM_DESC:0 "Die winzige Nation im Südpazifik hat im Ersten Weltkrieg tapfer gekämpft und in den blutigen Schlachten bei Gallipoli und an der Westfront hohe Verluste erlitten. Fast die Hälfte der Männer im kampffähigen Alter hatte in den Kämpfen in Übersee gedient, und viele kehrten nicht zurück. Etwa zwanzig Jahre nach dem Ende des Großen Krieges blickt das neuseeländische Volk ängstlich auf die Weltbühne, denn dieses Mal scheint die Kriegsgefahr immer näher an die eigene Heimat heranzurücken..."</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1" t="str">
         <f aca="false">A28 &amp;" " &amp;"""" &amp;B28 &amp;""""</f>
-        <v>RAJ_GATHERING_STORM_DESC:0 "The crown jewel of the British Empire, the Raj of India is a strange combination of imperial power and imperial powerlessness. A tiny elite of British civil servants rule over a vast subcontinent filled with hundreds of millions of subjects. From their ranks recruits the Indian Army, which fought bravely in the Great War.\n\nIndian leaders hoped that the sacrifices made in the last war would help India gain her independence from Britain, but so far, that hope has been disappointed. With a new war looming, many believe that the time has come to take that freedom - by whatever means necessary."</v>
+        <v> RAJ_GATHERING_STORM_DESC:0 "Das Raj von Indien, das Kronjuwel des britischen Empire, ist eine seltsame Kombination aus imperialer Macht und imperialer Ohnmacht. Eine winzige Elite britischer Beamter herrscht über einen riesigen Subkontinent mit Hunderten von Millionen von Untertanen. Aus ihren Reihen rekrutiert sich die indische Armee, die im Großen Krieg tapfer gekämpft hat. Die indische Führung hoffte, dass die im letzten Krieg erbrachten Opfer Indien helfen würden, seine Unabhängigkeit von Großbritannien zu erlangen, aber bisher wurde diese Hoffnung enttäuscht. Jetzt, da ein neuer Krieg droht, glauben viele, dass die Zeit gekommen ist, sich diese Freiheit zu nehmen - mit allen Mitteln."</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A28),"",B28)</f>
-        <v>The crown jewel of the British Empire, the Raj of India is a strange combination of imperial power and imperial powerlessness. A tiny elite of British civil servants rule over a vast subcontinent filled with hundreds of millions of subjects. From their ranks recruits the Indian Army, which fought bravely in the Great War.\n\nIndian leaders hoped that the sacrifices made in the last war would help India gain her independence from Britain, but so far, that hope has been disappointed. With a new war looming, many believe that the time has come to take that freedom - by whatever means necessary.</v>
+        <f aca="false">IF(ISBLANK(A28),"",C28)</f>
+        <v> RAJ_GATHERING_STORM_DESC:0 "Das Raj von Indien, das Kronjuwel des britischen Empire, ist eine seltsame Kombination aus imperialer Macht und imperialer Ohnmacht. Eine winzige Elite britischer Beamter herrscht über einen riesigen Subkontinent mit Hunderten von Millionen von Untertanen. Aus ihren Reihen rekrutiert sich die indische Armee, die im Großen Krieg tapfer gekämpft hat. Die indische Führung hoffte, dass die im letzten Krieg erbrachten Opfer Indien helfen würden, seine Unabhängigkeit von Großbritannien zu erlangen, aber bisher wurde diese Hoffnung enttäuscht. Jetzt, da ein neuer Krieg droht, glauben viele, dass die Zeit gekommen ist, sich diese Freiheit zu nehmen - mit allen Mitteln."</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="str">
         <f aca="false">A29 &amp;" " &amp;"""" &amp;B29 &amp;""""</f>
-        <v>#TUR_GATHERING_STORM_DESC:0 "Although Turkey lost its empire as a result of decades-long war, finally they found peace and tranquility with the proclamation of the republic. By the economic, social and political revolutions, Turks turned their faces to the west and underwent major changes and progresses development. Adhering to the principle of 'Peace at Home, Peace in the World', they continued peace and friendship policy with all the neighboring states and restricted his military spending.Although this policy made Turkey a valuable diplomatic power, as a side effect also it caused the Turkish Army has become in the meaning of technological poor-equipped. Nevertheless, the Turkish army is still a deterrent force."</v>
+        <v> #TUR_GATHERING_STORM_DESC:0 "Obwohl die Türkei ihr Reich durch einen jahrzehntelangen Krieg verlor, fand sie schließlich mit der Ausrufung der Republik zu Frieden und Ruhe. Durch die wirtschaftlichen, sozialen und politischen Revolutionen wandten sich die Türken dem Westen zu und erlebten große Veränderungen und Entwicklungsfortschritte. Nach dem Prinzip "Frieden im eigenen Land, Frieden in der Welt" wurde die Friedens- und Freundschaftspolitik mit allen Nachbarstaaten fortgesetzt und die Militärausgaben eingeschränkt, was die Türkei zwar zu einer wertvollen diplomatischen Macht machte, aber als Nebeneffekt auch dazu führte, dass die türkische Armee im Sinne von technologisch schlecht ausgerüstet wurde. Dennoch ist die türkische Armee immer noch eine abschreckende Kraft."</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A29),"",B29)</f>
-        <v>Although Turkey lost its empire as a result of decades-long war, finally they found peace and tranquility with the proclamation of the republic. By the economic, social and political revolutions, Turks turned their faces to the west and underwent major changes and progresses development. Adhering to the principle of 'Peace at Home, Peace in the World', they continued peace and friendship policy with all the neighboring states and restricted his military spending.Although this policy made Turkey a valuable diplomatic power, as a side effect also it caused the Turkish Army has become in the meaning of technological poor-equipped. Nevertheless, the Turkish army is still a deterrent force.</v>
+        <f aca="false">IF(ISBLANK(A29),"",C29)</f>
+        <v> #TUR_GATHERING_STORM_DESC:0 "Obwohl die Türkei ihr Reich durch einen jahrzehntelangen Krieg verlor, fand sie schließlich mit der Ausrufung der Republik zu Frieden und Ruhe. Durch die wirtschaftlichen, sozialen und politischen Revolutionen wandten sich die Türken dem Westen zu und erlebten große Veränderungen und Entwicklungsfortschritte. Nach dem Prinzip "Frieden im eigenen Land, Frieden in der Welt" wurde die Friedens- und Freundschaftspolitik mit allen Nachbarstaaten fortgesetzt und die Militärausgaben eingeschränkt, was die Türkei zwar zu einer wertvollen diplomatischen Macht machte, aber als Nebeneffekt auch dazu führte, dass die türkische Armee im Sinne von technologisch schlecht ausgerüstet wurde. Dennoch ist die türkische Armee immer noch eine abschreckende Kraft."</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="str">
         <f aca="false">A30 &amp;" " &amp;"""" &amp;B30 &amp;""""</f>
-        <v>MEXICO_GATHERING_STORM_DESC:0 "Mexico faced two decades of civil wars after the overthrow of the tyrant Porfirio Díaz. Centralizers fought regionalists, peasants and socialists rallied against hacienda landlords, and battles over the role of state versus religion came out of the annals of the Enlightenment to terrorize Mexico.\n\nThe secularist government insists that it won these battles, but it is seated on a throne of debris. After Mexico is rebuilt, perhaps a different victor will have emerged."</v>
+        <v> MEXICO_GATHERING_STORM_DESC:0 "Mexiko hatte nach dem Sturz des Tyrannen Porfirio Díaz zwei Jahrzehnte lang mit Bürgerkriegen zu kämpfen. Zentralisten kämpften gegen Regionalisten, Bauern und Sozialisten gegen Hazienda-Grundbesitzer, und die Kämpfe um die Rolle des Staates gegenüber der Religion kamen aus den Annalen der Aufklärung, um Mexiko zu terrorisieren.\n\n Die säkularistische Regierung besteht darauf, dass sie diese Kämpfe gewonnen hat, aber sie sitzt auf einem Thron aus Trümmern. Wenn Mexiko wiederaufgebaut ist, wird vielleicht ein anderer Sieger hervorgehen."</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A30),"",B30)</f>
-        <v>Mexico faced two decades of civil wars after the overthrow of the tyrant Porfirio Díaz. Centralizers fought regionalists, peasants and socialists rallied against hacienda landlords, and battles over the role of state versus religion came out of the annals of the Enlightenment to terrorize Mexico.\n\nThe secularist government insists that it won these battles, but it is seated on a throne of debris. After Mexico is rebuilt, perhaps a different victor will have emerged.</v>
+        <f aca="false">IF(ISBLANK(A30),"",C30)</f>
+        <v> MEXICO_GATHERING_STORM_DESC:0 "Mexiko hatte nach dem Sturz des Tyrannen Porfirio Díaz zwei Jahrzehnte lang mit Bürgerkriegen zu kämpfen. Zentralisten kämpften gegen Regionalisten, Bauern und Sozialisten gegen Hazienda-Grundbesitzer, und die Kämpfe um die Rolle des Staates gegenüber der Religion kamen aus den Annalen der Aufklärung, um Mexiko zu terrorisieren.\n\n Die säkularistische Regierung besteht darauf, dass sie diese Kämpfe gewonnen hat, aber sie sitzt auf einem Thron aus Trümmern. Wenn Mexiko wiederaufgebaut ist, wird vielleicht ein anderer Sieger hervorgehen."</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="str">
         <f aca="false">A31 &amp;" " &amp;"""" &amp;B31 &amp;""""</f>
-        <v>POR_GATHERING_STORM_DESC:0 "The Portuguese Second Republic, led by António de Oliveira Salazar is a mildly fascist corporatist state led by a single party regime.\n\nWith its only neighbour seemingly heading for civil war, how will this country react should another war break out on its borders? "</v>
+        <v> POR_GATHERING_STORM_DESC:0 "Die von António de Oliveira Salazar geführte Zweite Portugiesische Republik ist ein leicht faschistischer, korporatistischer Staat, der von einem Einparteienregime geführt wird.\n\nDa sein einziger Nachbar auf einen Bürgerkrieg zuzusteuern scheint, stellt sich die Frage, wie dieses Land reagieren wird, wenn an seinen Grenzen ein weiterer Krieg ausbricht. "</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A31),"",B31)</f>
-        <v>The Portuguese Second Republic, led by António de Oliveira Salazar is a mildly fascist corporatist state led by a single party regime.\n\nWith its only neighbour seemingly heading for civil war, how will this country react should another war break out on its borders? </v>
+        <f aca="false">IF(ISBLANK(A31),"",C31)</f>
+        <v> POR_GATHERING_STORM_DESC:0 "Die von António de Oliveira Salazar geführte Zweite Portugiesische Republik ist ein leicht faschistischer, korporatistischer Staat, der von einem Einparteienregime geführt wird.\n\nDa sein einziger Nachbar auf einen Bürgerkrieg zuzusteuern scheint, stellt sich die Frage, wie dieses Land reagieren wird, wenn an seinen Grenzen ein weiterer Krieg ausbricht. "</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C32" s="1" t="str">
         <f aca="false">A32 &amp;" " &amp;"""" &amp;B32 &amp;""""</f>
-        <v>MAN_GATHERING_STORM_DESC:0 "Evicted from the Dragon Throne at the age of six, Puyi, the last Chinese Emperor, has been biding his time. While his former realm tore itself apart in the Chinese Civil War, Puyi found new allies in Japan.\n\nFor Puyi, the establishment of the Empire of Manchukuo in 1932 was but the first step in the quest to reclaim his ancestral birthright. For the moment, he is dependent on the Japanese Army to keep his rule, but in time, an opportunity might arise to cast off the shackles of servitude and become what he was born to be..."</v>
+        <v> MAN_GATHERING_STORM_DESC:0 "Puyi, der letzte chinesische Kaiser, der im Alter von sechs Jahren vom Drachenthron gestoßen wurde, hat seine Zeit abgewartet. Während sein früheres Reich im chinesischen Bürgerkrieg zerrissen wurde, fand Puyi in Japan neue Verbündete. Für Puyi war die Gründung des Reiches Mandschukuo im Jahr 1932 nur der erste Schritt auf dem Weg, sein angestammtes Geburtsrecht zurückzuerlangen. Im Moment ist er von der japanischen Armee abhängig, um seine Herrschaft aufrechtzuerhalten, aber mit der Zeit könnte sich eine Gelegenheit ergeben, die Fesseln der Knechtschaft abzuwerfen und das zu werden, wozu er geboren wurde..."</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A32),"",B32)</f>
-        <v>Evicted from the Dragon Throne at the age of six, Puyi, the last Chinese Emperor, has been biding his time. While his former realm tore itself apart in the Chinese Civil War, Puyi found new allies in Japan.\n\nFor Puyi, the establishment of the Empire of Manchukuo in 1932 was but the first step in the quest to reclaim his ancestral birthright. For the moment, he is dependent on the Japanese Army to keep his rule, but in time, an opportunity might arise to cast off the shackles of servitude and become what he was born to be...</v>
+        <f aca="false">IF(ISBLANK(A32),"",C32)</f>
+        <v> MAN_GATHERING_STORM_DESC:0 "Puyi, der letzte chinesische Kaiser, der im Alter von sechs Jahren vom Drachenthron gestoßen wurde, hat seine Zeit abgewartet. Während sein früheres Reich im chinesischen Bürgerkrieg zerrissen wurde, fand Puyi in Japan neue Verbündete. Für Puyi war die Gründung des Reiches Mandschukuo im Jahr 1932 nur der erste Schritt auf dem Weg, sein angestammtes Geburtsrecht zurückzuerlangen. Im Moment ist er von der japanischen Armee abhängig, um seine Herrschaft aufrechtzuerhalten, aber mit der Zeit könnte sich eine Gelegenheit ergeben, die Fesseln der Knechtschaft abzuwerfen und das zu werden, wozu er geboren wurde..."</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1" t="str">
         <f aca="false">A33 &amp;" " &amp;"""" &amp;B33 &amp;""""</f>
-        <v>NETHERLANDS_GATHERING_STORM_DESC:0 "The Dutch government eyes the mounting global tensions with concern. Between an ailing economy, a powerful pacifist movement, and a firm belief in neutrality to the point of driving potential allies away, they are unable to properly prepare their defenses.\n\nAt the same time, the importance of the Netherlands as a gateway of trade into the continent means that both the British and the Germans desire Dutch 'cooperation' to thwart the other, and may take rejection as a reason for hostility. Perhaps withdrawal to the colonies is the only possible means to resist such an invasion..."</v>
+        <v> NETHERLANDS_GATHERING_STORM_DESC:0 "Die niederländische Regierung beobachtet die zunehmenden globalen Spannungen mit Sorge. Aufgrund ihrer kränkelnden Wirtschaft, einer mächtigen pazifistischen Bewegung und ihres festen Glaubens an die Neutralität, der potenzielle Verbündete vergrault, sind sie nicht in der Lage, ihre Verteidigung angemessen vorzubereiten. Gleichzeitig bedeutet die Bedeutung der Niederlande als Tor zum Handel auf dem Kontinent, dass sowohl die Briten als auch die Deutschen eine niederländische "Kooperation" wünschen, um den jeweils anderen auszubremsen, und eine Ablehnung als Grund für Feindseligkeit nehmen könnten. Vielleicht ist der Rückzug in die Kolonien das einzig mögliche Mittel, um sich einer solchen Invasion zu widersetzen..."</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A33),"",B33)</f>
-        <v>The Dutch government eyes the mounting global tensions with concern. Between an ailing economy, a powerful pacifist movement, and a firm belief in neutrality to the point of driving potential allies away, they are unable to properly prepare their defenses.\n\nAt the same time, the importance of the Netherlands as a gateway of trade into the continent means that both the British and the Germans desire Dutch 'cooperation' to thwart the other, and may take rejection as a reason for hostility. Perhaps withdrawal to the colonies is the only possible means to resist such an invasion...</v>
+        <f aca="false">IF(ISBLANK(A33),"",C33)</f>
+        <v> NETHERLANDS_GATHERING_STORM_DESC:0 "Die niederländische Regierung beobachtet die zunehmenden globalen Spannungen mit Sorge. Aufgrund ihrer kränkelnden Wirtschaft, einer mächtigen pazifistischen Bewegung und ihres festen Glaubens an die Neutralität, der potenzielle Verbündete vergrault, sind sie nicht in der Lage, ihre Verteidigung angemessen vorzubereiten. Gleichzeitig bedeutet die Bedeutung der Niederlande als Tor zum Handel auf dem Kontinent, dass sowohl die Briten als auch die Deutschen eine niederländische "Kooperation" wünschen, um den jeweils anderen auszubremsen, und eine Ablehnung als Grund für Feindseligkeit nehmen könnten. Vielleicht ist der Rückzug in die Kolonien das einzig mögliche Mittel, um sich einer solchen Invasion zu widersetzen..."</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1" t="str">
         <f aca="false">A34 &amp;" " &amp;"""" &amp;B34 &amp;""""</f>
-        <v>SPAIN_GATHERING_STORM_DESC:0 "In the first five years of its existence, the fledgling Second Spanish Republic has already had to deal with strikes, a military coup attempt, and a major revolutionary uprising. Though it has survived these challenges, Spanish society continues to be marred by political polarization and violence between anarchists, communists, and falangists.\n\nBoth sides look towards the upcoming 1936 general election with hopeful eyes, but it is unlikely that the victory of either side will bring a return to stability. And as the violence continues, the military waits and plots..."</v>
+        <v> SPAIN_GATHERING_STORM_DESC:0 "In den ersten fünf Jahren ihres Bestehens hatte die junge Zweite Spanische Republik bereits mit Streiks, einem Militärputschversuch und einem großen revolutionären Aufstand zu kämpfen. Obwohl sie diese Herausforderungen überstanden hat, ist die spanische Gesellschaft weiterhin von politischer Polarisierung und Gewalt zwischen Anarchisten, Kommunisten und Falangisten geprägt. Beide Seiten blicken hoffnungsvoll auf die bevorstehenden Parlamentswahlen von 1936, aber es ist unwahrscheinlich, dass der Sieg einer der beiden Seiten eine Rückkehr zur Stabilität bringen wird. Und während die Gewalt weitergeht, wartet das Militär ab und schmiedet Pläne..."</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A34),"",B34)</f>
-        <v>In the first five years of its existence, the fledgling Second Spanish Republic has already had to deal with strikes, a military coup attempt, and a major revolutionary uprising. Though it has survived these challenges, Spanish society continues to be marred by political polarization and violence between anarchists, communists, and falangists.\n\nBoth sides look towards the upcoming 1936 general election with hopeful eyes, but it is unlikely that the victory of either side will bring a return to stability. And as the violence continues, the military waits and plots...</v>
+        <f aca="false">IF(ISBLANK(A34),"",C34)</f>
+        <v> SPAIN_GATHERING_STORM_DESC:0 "In den ersten fünf Jahren ihres Bestehens hatte die junge Zweite Spanische Republik bereits mit Streiks, einem Militärputschversuch und einem großen revolutionären Aufstand zu kämpfen. Obwohl sie diese Herausforderungen überstanden hat, ist die spanische Gesellschaft weiterhin von politischer Polarisierung und Gewalt zwischen Anarchisten, Kommunisten und Falangisten geprägt. Beide Seiten blicken hoffnungsvoll auf die bevorstehenden Parlamentswahlen von 1936, aber es ist unwahrscheinlich, dass der Sieg einer der beiden Seiten eine Rückkehr zur Stabilität bringen wird. Und während die Gewalt weitergeht, wartet das Militär ab und schmiedet Pläne..."</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1" t="str">
         <f aca="false">A35 &amp;" " &amp;"""" &amp;B35 &amp;""""</f>
-        <v>SPAIN_BLITZKRIEG_DESC:0 "The civil war that has devastated the country for the past three years has finally concluded. Under the guidance of Franco, the victors must now see to Spain's recovery, the elimination of remaining pockets of resistance, and the mending of the divides created by the war.\n\nTime is not unlimited, however, as the world at large continues its inexorable march towards what will undoubtedly be a far larger and still more bloody war. If Spain is to stand its ground, let alone reap the fruits of opportunity presented by this coming conflict, it must ready its industry and its military without delay."</v>
+        <v> SPAIN_BLITZKRIEG_DESC:0 "Der Bürgerkrieg, der das Land in den letzten drei Jahren verwüstet hat, ist endlich zu Ende. Unter der Führung Francos müssen die Sieger nun dafür sorgen, dass sich Spanien erholt, die letzten Widerstandsnester beseitigt und die durch den Krieg entstandenen Gräben überwunden werden. Die Zeit ist jedoch nicht unbegrenzt, da die Welt insgesamt ihren unaufhaltsamen Marsch in einen zweifellos noch größeren und blutigeren Krieg fortsetzt. Wenn Spanien sich behaupten will, geschweige denn die Früchte der Chancen dieses kommenden Konflikts ernten will, muss es seine Industrie und sein Militär unverzüglich vorbereiten."</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A35),"",B35)</f>
-        <v>The civil war that has devastated the country for the past three years has finally concluded. Under the guidance of Franco, the victors must now see to Spain's recovery, the elimination of remaining pockets of resistance, and the mending of the divides created by the war.\n\nTime is not unlimited, however, as the world at large continues its inexorable march towards what will undoubtedly be a far larger and still more bloody war. If Spain is to stand its ground, let alone reap the fruits of opportunity presented by this coming conflict, it must ready its industry and its military without delay.</v>
+        <f aca="false">IF(ISBLANK(A35),"",C35)</f>
+        <v> SPAIN_BLITZKRIEG_DESC:0 "Der Bürgerkrieg, der das Land in den letzten drei Jahren verwüstet hat, ist endlich zu Ende. Unter der Führung Francos müssen die Sieger nun dafür sorgen, dass sich Spanien erholt, die letzten Widerstandsnester beseitigt und die durch den Krieg entstandenen Gräben überwunden werden. Die Zeit ist jedoch nicht unbegrenzt, da die Welt insgesamt ihren unaufhaltsamen Marsch in einen zweifellos noch größeren und blutigeren Krieg fortsetzt. Wenn Spanien sich behaupten will, geschweige denn die Früchte der Chancen dieses kommenden Konflikts ernten will, muss es seine Industrie und sein Militär unverzüglich vorbereiten."</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C36" s="1" t="str">
         <f aca="false">A36 &amp;" " &amp;"""" &amp;B36 &amp;""""</f>
-        <v>PORTUGAL_GATHERING_STORM_DESC:0 "Since Salazar's rise to power in 1932, Portugal has been gradually distancing herself from the unstable period of the First Republic. Fiscal Autonomy and Political Independence from the major powers led to the creation of the Estado Novo, laying the foundations for the development of the Portuguese industry and the modernization of the army. \n\nNow, Portugal must decide the way forward as political and social instability increases in neighboring Spain and international tensions are hopelessly worsening..."</v>
+        <v> PORTUGAL_GATHERING_STORM_DESC:0 "Seit Salazars Machtübernahme im Jahr 1932 hat sich Portugal allmählich von der instabilen Zeit der Ersten Republik entfernt. Steuerliche Autonomie und politische Unabhängigkeit von den Großmächten führten zur Schaffung des Estado Novo und legten den Grundstein für die Entwicklung der portugiesischen Industrie und die Modernisierung der Armee. \n\Nun muss Portugal entscheiden, wie es weitergehen soll, da die politische und soziale Instabilität im benachbarten Spanien zunimmt und die internationalen Spannungen hoffnungslos zunehmen..."</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A36),"",B36)</f>
-        <v>Since Salazar's rise to power in 1932, Portugal has been gradually distancing herself from the unstable period of the First Republic. Fiscal Autonomy and Political Independence from the major powers led to the creation of the Estado Novo, laying the foundations for the development of the Portuguese industry and the modernization of the army. \n\nNow, Portugal must decide the way forward as political and social instability increases in neighboring Spain and international tensions are hopelessly worsening...</v>
+        <f aca="false">IF(ISBLANK(A36),"",C36)</f>
+        <v> PORTUGAL_GATHERING_STORM_DESC:0 "Seit Salazars Machtübernahme im Jahr 1932 hat sich Portugal allmählich von der instabilen Zeit der Ersten Republik entfernt. Steuerliche Autonomie und politische Unabhängigkeit von den Großmächten führten zur Schaffung des Estado Novo und legten den Grundstein für die Entwicklung der portugiesischen Industrie und die Modernisierung der Armee. \n\Nun muss Portugal entscheiden, wie es weitergehen soll, da die politische und soziale Instabilität im benachbarten Spanien zunimmt und die internationalen Spannungen hoffnungslos zunehmen..."</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1" t="str">
         <f aca="false">A37 &amp;" " &amp;"""" &amp;B37 &amp;""""</f>
-        <v>PORTUGAL_BLITZKRIEG_DESC:0 "The conservative government of Salazar allowed Portugal to remain neutral during the Spanish Civil War while actively supporting the Nationalists, thus ensuring the defeat of the Communists and the Anarchists. \n\nNow that the Iberian Peninsula has finally found stability, it is time to look abroad for potential allies and consider the role that Portugal will play on the seemingly inevitable world conflict."</v>
+        <v> PORTUGAL_BLITZKRIEG_DESC:0 "Die konservative Regierung Salazar erlaubte Portugal, während des Spanischen Bürgerkriegs neutral zu bleiben, während sie die Nationalisten aktiv unterstützte und so die Niederlage der Kommunisten und Anarchisten sicherte. \n\nNun, da die Iberische Halbinsel endlich Stabilität gefunden hat, ist es an der Zeit, sich im Ausland nach potenziellen Verbündeten umzusehen und zu überlegen, welche Rolle Portugal in dem scheinbar unvermeidlichen weltweiten Konflikt spielen wird."</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A37),"",B37)</f>
-        <v>The conservative government of Salazar allowed Portugal to remain neutral during the Spanish Civil War while actively supporting the Nationalists, thus ensuring the defeat of the Communists and the Anarchists. \n\nNow that the Iberian Peninsula has finally found stability, it is time to look abroad for potential allies and consider the role that Portugal will play on the seemingly inevitable world conflict.</v>
+        <f aca="false">IF(ISBLANK(A37),"",C37)</f>
+        <v> PORTUGAL_BLITZKRIEG_DESC:0 "Die konservative Regierung Salazar erlaubte Portugal, während des Spanischen Bürgerkriegs neutral zu bleiben, während sie die Nationalisten aktiv unterstützte und so die Niederlage der Kommunisten und Anarchisten sicherte. \n\nNun, da die Iberische Halbinsel endlich Stabilität gefunden hat, ist es an der Zeit, sich im Ausland nach potenziellen Verbündeten umzusehen und zu überlegen, welche Rolle Portugal in dem scheinbar unvermeidlichen weltweiten Konflikt spielen wird."</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1" t="str">
         <f aca="false">A38 &amp;" " &amp;"""" &amp;B38 &amp;""""</f>
-        <v>NOR_GATHERING_STORM_DESC:0 "The early 1900s have been borderline a golden age for Norway. With independence, economic growth, polar exploration and expanded territories on both ends of the globe, the Kingdom of Norway has made its mark on the world. It hasn't all been smooth sailing, however, as Norway's neutral merchant marine suffered losses during the Great War, and more recently the Great Depression has halted the economy somewhat.\n\nWhile the welfare policies of the Labor led Government has sought to alleviate the issues, this "Broken Gun"</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v> NOR_GATHERING_STORM_DESC:0 "Die frühen 1900er Jahre waren für Norwegen geradezu ein goldenes Zeitalter. Mit der Unabhängigkeit, dem Wirtschaftswachstum, der Erforschung der Polargebiete und der Ausdehnung der Territorien auf beiden Seiten des Globus hat das Königreich Norwegen der Welt seinen Stempel aufgedrückt. Doch nicht alles verlief reibungslos, denn Norwegens neutrale Handelsmarine erlitt während des Ersten Weltkriegs Verluste, und in jüngster Zeit hat die Weltwirtschaftskrise die Wirtschaft etwas zum Stillstand gebracht. Zwar hat die Wohlfahrtspolitik der von der Labour-Partei geführten Regierung versucht, die Probleme zu lindern, doch diese "Broken-Gun"-Politik mit geringeren Verteidigungsausgaben hat Norwegen in eine gewisse Gefahr gebracht..."</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f aca="false">IF(ISBLANK(A38),"",C38)</f>
+        <v> NOR_GATHERING_STORM_DESC:0 "Die frühen 1900er Jahre waren für Norwegen geradezu ein goldenes Zeitalter. Mit der Unabhängigkeit, dem Wirtschaftswachstum, der Erforschung der Polargebiete und der Ausdehnung der Territorien auf beiden Seiten des Globus hat das Königreich Norwegen der Welt seinen Stempel aufgedrückt. Doch nicht alles verlief reibungslos, denn Norwegens neutrale Handelsmarine erlitt während des Ersten Weltkriegs Verluste, und in jüngster Zeit hat die Weltwirtschaftskrise die Wirtschaft etwas zum Stillstand gebracht. Zwar hat die Wohlfahrtspolitik der von der Labour-Partei geführten Regierung versucht, die Probleme zu lindern, doch diese "Broken-Gun"-Politik mit geringeren Verteidigungsausgaben hat Norwegen in eine gewisse Gefahr gebracht..."</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">A39 &amp;" " &amp;"""" &amp;B39 &amp;""""</f>
-        <v>BUL_GATHERING_STORM_DESC:0 "Since the Liberation War of 1878 and the rejection of the San Stefano Treaty by Western democracies, Bulgaria has lived through a long history of conflict and betrayal in the Balkans. As a defeated member of the Central Powers in the Great War, Bulgaria suffered heavy territorial losses and the Treaty of Neuilly-sur-Seine imposed harsh economic sanctions and severe military restrictions. \n\nBut with the major political and social changes taking place in Europe, it is time for Bulgaria to choose its own path and find its rightful place in the Balkans."</v>
+        <v> BUL_GATHERING_STORM_DESC:0 "Seit dem Befreiungskrieg von 1878 und der Ablehnung des San-Stefano-Vertrags durch die westlichen Demokratien hat Bulgarien eine lange Geschichte von Konflikten und Verrat auf dem Balkan erlebt. Als besiegtes Mitglied der Mittelmächte im Ersten Weltkrieg erlitt Bulgarien schwere territoriale Verluste, und der Vertrag von Neuilly-sur-Seine verhängte harte wirtschaftliche Sanktionen und strenge militärische Beschränkungen. \Angesichts der großen politischen und sozialen Veränderungen in Europa ist es für Bulgarien an der Zeit, seinen eigenen Weg zu gehen und seinen rechtmäßigen Platz auf dem Balkan zu finden."</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A39),"",B39)</f>
-        <v>Since the Liberation War of 1878 and the rejection of the San Stefano Treaty by Western democracies, Bulgaria has lived through a long history of conflict and betrayal in the Balkans. As a defeated member of the Central Powers in the Great War, Bulgaria suffered heavy territorial losses and the Treaty of Neuilly-sur-Seine imposed harsh economic sanctions and severe military restrictions. \n\nBut with the major political and social changes taking place in Europe, it is time for Bulgaria to choose its own path and find its rightful place in the Balkans.</v>
+        <f aca="false">IF(ISBLANK(A39),"",C39)</f>
+        <v> BUL_GATHERING_STORM_DESC:0 "Seit dem Befreiungskrieg von 1878 und der Ablehnung des San-Stefano-Vertrags durch die westlichen Demokratien hat Bulgarien eine lange Geschichte von Konflikten und Verrat auf dem Balkan erlebt. Als besiegtes Mitglied der Mittelmächte im Ersten Weltkrieg erlitt Bulgarien schwere territoriale Verluste, und der Vertrag von Neuilly-sur-Seine verhängte harte wirtschaftliche Sanktionen und strenge militärische Beschränkungen. \Angesichts der großen politischen und sozialen Veränderungen in Europa ist es für Bulgarien an der Zeit, seinen eigenen Weg zu gehen und seinen rechtmäßigen Platz auf dem Balkan zu finden."</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="str">
         <f aca="false">A40 &amp;" " &amp;"""" &amp;B40 &amp;""""</f>
-        <v>GRE_GATHERING_STORM_DESC:0 "Greece is a nation in crisis. Royalists and republicans have perpetuated a fervent struggle for the nation's soul which resulted in the abolition of the Second Hellenic Republic in 1935. The king, an autocratic foreigner, remains a highly divisive figure with an uncertain future. \n\nDistracted by petty domestic politics, a malignant and revanchist Bulgaria has been allowed to fester in the north, while Greece’s long-time nemesis and new-found ally Turkey undergoes a political metamorphosis to the east, and that is to say nothing of the stirring monster on the other side of the Adriatic..."</v>
+        <v> GRE_GATHERING_STORM_DESC:0 "Griechenland ist eine Nation in der Krise. Royalisten und Republikaner haben einen erbitterten Kampf um die Seele der Nation geführt, der 1935 in der Abschaffung der Zweiten Griechischen Republik endete. Der König, ein autokratischer Ausländer, bleibt eine höchst gespaltene Figur mit einer ungewissen Zukunft. \Abgelenkt durch kleinliche Innenpolitik hat man im Norden ein bösartiges und revanchistisches Bulgarien geduldet, während Griechenlands langjähriger Feind und neuer Verbündeter, die Türkei, im Osten eine politische Metamorphose durchmacht, ganz zu schweigen von dem rührenden Ungeheuer auf der anderen Seite der Adria..."</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A40),"",B40)</f>
-        <v>Greece is a nation in crisis. Royalists and republicans have perpetuated a fervent struggle for the nation's soul which resulted in the abolition of the Second Hellenic Republic in 1935. The king, an autocratic foreigner, remains a highly divisive figure with an uncertain future. \n\nDistracted by petty domestic politics, a malignant and revanchist Bulgaria has been allowed to fester in the north, while Greece’s long-time nemesis and new-found ally Turkey undergoes a political metamorphosis to the east, and that is to say nothing of the stirring monster on the other side of the Adriatic...</v>
+        <f aca="false">IF(ISBLANK(A40),"",C40)</f>
+        <v> GRE_GATHERING_STORM_DESC:0 "Griechenland ist eine Nation in der Krise. Royalisten und Republikaner haben einen erbitterten Kampf um die Seele der Nation geführt, der 1935 in der Abschaffung der Zweiten Griechischen Republik endete. Der König, ein autokratischer Ausländer, bleibt eine höchst gespaltene Figur mit einer ungewissen Zukunft. \Abgelenkt durch kleinliche Innenpolitik hat man im Norden ein bösartiges und revanchistisches Bulgarien geduldet, während Griechenlands langjähriger Feind und neuer Verbündeter, die Türkei, im Osten eine politische Metamorphose durchmacht, ganz zu schweigen von dem rührenden Ungeheuer auf der anderen Seite der Adria..."</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">A41 &amp;" " &amp;"""" &amp;B41 &amp;""""</f>
-        <v>TUR_GATHERING_STORM_DESC:0 "From the ashes of the Ottoman Empire, the Republic of Turkey was born. Turkish independence was won with blood and bullets in the National Campaign of 1923, and while the struggle was righteous the cost continues to weigh heavily upon the Turkish people. \n\nReligious conservatives plague the hinterlands and resist nation-wide modernization efforts in the strongest terms, while Kurdish nationalists wreak havoc in the east of the country. Lionized president Mustafa Kemal Atatürk must unite the country or pass the torch to a leader who can, and they must do it soon as trouble stirs in Europe..."</v>
+        <v> TUR_GATHERING_STORM_DESC:0 "Aus der Asche des Osmanischen Reiches wurde die Republik Türkei geboren. Die türkische Unabhängigkeit wurde mit Blut und Kugeln im Nationalen Feldzug von 1923 errungen, und obwohl der Kampf gerecht war, lastet der Preis weiterhin schwer auf dem türkischen Volk. \n\nReligiöse Konservative plagen das Hinterland und widersetzen sich den landesweiten Modernisierungsbemühungen aufs Schärfste, während kurdische Nationalisten im Osten des Landes ihr Unwesen treiben. Der hochverehrte Präsident Mustafa Kemal Atatürk muss das Land vereinen oder die Fackel an einen Führer weitergeben, der dazu in der Lage ist, und das muss bald geschehen, da sich in Europa Unruhen anbahnen..."</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A41),"",B41)</f>
-        <v>From the ashes of the Ottoman Empire, the Republic of Turkey was born. Turkish independence was won with blood and bullets in the National Campaign of 1923, and while the struggle was righteous the cost continues to weigh heavily upon the Turkish people. \n\nReligious conservatives plague the hinterlands and resist nation-wide modernization efforts in the strongest terms, while Kurdish nationalists wreak havoc in the east of the country. Lionized president Mustafa Kemal Atatürk must unite the country or pass the torch to a leader who can, and they must do it soon as trouble stirs in Europe...</v>
+        <f aca="false">IF(ISBLANK(A41),"",C41)</f>
+        <v> TUR_GATHERING_STORM_DESC:0 "Aus der Asche des Osmanischen Reiches wurde die Republik Türkei geboren. Die türkische Unabhängigkeit wurde mit Blut und Kugeln im Nationalen Feldzug von 1923 errungen, und obwohl der Kampf gerecht war, lastet der Preis weiterhin schwer auf dem türkischen Volk. \n\nReligiöse Konservative plagen das Hinterland und widersetzen sich den landesweiten Modernisierungsbemühungen aufs Schärfste, während kurdische Nationalisten im Osten des Landes ihr Unwesen treiben. Der hochverehrte Präsident Mustafa Kemal Atatürk muss das Land vereinen oder die Fackel an einen Führer weitergeben, der dazu in der Lage ist, und das muss bald geschehen, da sich in Europa Unruhen anbahnen..."</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="C42" s="1" t="str">
         <f aca="false">A42 &amp;" " &amp;"""" &amp;B42 &amp;""""</f>
-        <v>## "EOF"</v>
+        <v> ## EOF ## ""</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1" t="str">
-        <f aca="false">A43 &amp;" " &amp;"""" &amp;B43 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D43" s="1" t="str">
         <f aca="false">IF(ISBLANK(A43),"",C43)</f>
         <v/>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1" t="str">
-        <f aca="false">A44 &amp;" " &amp;"""" &amp;B44 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D44" s="1" t="str">
         <f aca="false">IF(ISBLANK(A44),"",C44)</f>
         <v/>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1" t="str">
-        <f aca="false">A45 &amp;" " &amp;"""" &amp;B45 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D45" s="1" t="str">
         <f aca="false">IF(ISBLANK(A45),"",C45)</f>
         <v/>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1" t="str">
-        <f aca="false">A46 &amp;" " &amp;"""" &amp;B46 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D46" s="1" t="str">
         <f aca="false">IF(ISBLANK(A46),"",C46)</f>
         <v/>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1" t="str">
-        <f aca="false">A47 &amp;" " &amp;"""" &amp;B47 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D47" s="1" t="str">
         <f aca="false">IF(ISBLANK(A47),"",C47)</f>
         <v/>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1" t="str">
-        <f aca="false">A48 &amp;" " &amp;"""" &amp;B48 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D48" s="1" t="str">
         <f aca="false">IF(ISBLANK(A48),"",C48)</f>
         <v/>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1" t="str">
-        <f aca="false">A49 &amp;" " &amp;"""" &amp;B49 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D49" s="1" t="str">
         <f aca="false">IF(ISBLANK(A49),"",C49)</f>
         <v/>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1" t="str">
-        <f aca="false">A50 &amp;" " &amp;"""" &amp;B50 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D50" s="1" t="str">
         <f aca="false">IF(ISBLANK(A50),"",C50)</f>
         <v/>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1" t="str">
-        <f aca="false">A51 &amp;" " &amp;"""" &amp;B51 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D51" s="1" t="str">
         <f aca="false">IF(ISBLANK(A51),"",C51)</f>
         <v/>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1" t="str">
-        <f aca="false">A52 &amp;" " &amp;"""" &amp;B52 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D52" s="1" t="str">
         <f aca="false">IF(ISBLANK(A52),"",C52)</f>
         <v/>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1" t="str">
-        <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D53" s="1" t="str">
         <f aca="false">IF(ISBLANK(A53),"",C53)</f>
         <v/>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1" t="str">
-        <f aca="false">A54 &amp;" " &amp;"""" &amp;B54 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D54" s="1" t="str">
         <f aca="false">IF(ISBLANK(A54),"",C54)</f>
         <v/>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1" t="str">
-        <f aca="false">A55 &amp;" " &amp;"""" &amp;B55 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D55" s="1" t="str">
         <f aca="false">IF(ISBLANK(A55),"",C55)</f>
         <v/>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1" t="str">
-        <f aca="false">A56 &amp;" " &amp;"""" &amp;B56 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D56" s="1" t="str">
         <f aca="false">IF(ISBLANK(A56),"",C56)</f>
         <v/>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1" t="str">
-        <f aca="false">A57 &amp;" " &amp;"""" &amp;B57 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D57" s="1" t="str">
         <f aca="false">IF(ISBLANK(A57),"",C57)</f>
         <v/>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1" t="str">
-        <f aca="false">A58 &amp;" " &amp;"""" &amp;B58 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D58" s="1" t="str">
         <f aca="false">IF(ISBLANK(A58),"",C58)</f>
         <v/>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1" t="str">
-        <f aca="false">A59 &amp;" " &amp;"""" &amp;B59 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D59" s="1" t="str">
         <f aca="false">IF(ISBLANK(A59),"",C59)</f>
         <v/>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1" t="str">
-        <f aca="false">A60 &amp;" " &amp;"""" &amp;B60 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D60" s="1" t="str">
         <f aca="false">IF(ISBLANK(A60),"",C60)</f>
         <v/>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1" t="str">
-        <f aca="false">A61 &amp;" " &amp;"""" &amp;B61 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D61" s="1" t="str">
         <f aca="false">IF(ISBLANK(A61),"",C61)</f>
         <v/>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1" t="str">
-        <f aca="false">A62 &amp;" " &amp;"""" &amp;B62 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D62" s="1" t="str">
         <f aca="false">IF(ISBLANK(A62),"",C62)</f>
         <v/>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1" t="str">
-        <f aca="false">A63 &amp;" " &amp;"""" &amp;B63 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D63" s="1" t="str">
         <f aca="false">IF(ISBLANK(A63),"",C63)</f>
         <v/>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1" t="str">
-        <f aca="false">A64 &amp;" " &amp;"""" &amp;B64 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D64" s="1" t="str">
         <f aca="false">IF(ISBLANK(A64),"",C64)</f>
         <v/>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1" t="str">
-        <f aca="false">A65 &amp;" " &amp;"""" &amp;B65 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D65" s="1" t="str">
         <f aca="false">IF(ISBLANK(A65),"",C65)</f>
         <v/>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1" t="str">
-        <f aca="false">A66 &amp;" " &amp;"""" &amp;B66 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D66" s="1" t="str">
         <f aca="false">IF(ISBLANK(A66),"",C66)</f>
         <v/>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1" t="str">
-        <f aca="false">A67 &amp;" " &amp;"""" &amp;B67 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D67" s="1" t="str">
         <f aca="false">IF(ISBLANK(A67),"",C67)</f>
         <v/>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1" t="str">
-        <f aca="false">A68 &amp;" " &amp;"""" &amp;B68 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D68" s="1" t="str">
         <f aca="false">IF(ISBLANK(A68),"",C68)</f>
         <v/>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1" t="str">
-        <f aca="false">A69 &amp;" " &amp;"""" &amp;B69 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D69" s="1" t="str">
         <f aca="false">IF(ISBLANK(A69),"",C69)</f>
         <v/>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1" t="str">
-        <f aca="false">A70 &amp;" " &amp;"""" &amp;B70 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D70" s="1" t="str">
         <f aca="false">IF(ISBLANK(A70),"",C70)</f>
         <v/>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="1" t="str">
-        <f aca="false">A71 &amp;" " &amp;"""" &amp;B71 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D71" s="1" t="str">
         <f aca="false">IF(ISBLANK(A71),"",C71)</f>
         <v/>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="1" t="str">
-        <f aca="false">A72 &amp;" " &amp;"""" &amp;B72 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D72" s="1" t="str">
         <f aca="false">IF(ISBLANK(A72),"",C72)</f>
         <v/>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="1" t="str">
-        <f aca="false">A73 &amp;" " &amp;"""" &amp;B73 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D73" s="1" t="str">
         <f aca="false">IF(ISBLANK(A73),"",C73)</f>
         <v/>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="1" t="str">
-        <f aca="false">A74 &amp;" " &amp;"""" &amp;B74 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D74" s="1" t="str">
         <f aca="false">IF(ISBLANK(A74),"",C74)</f>
         <v/>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="1" t="str">
-        <f aca="false">A75 &amp;" " &amp;"""" &amp;B75 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D75" s="1" t="str">
         <f aca="false">IF(ISBLANK(A75),"",C75)</f>
         <v/>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="1" t="str">
-        <f aca="false">A76 &amp;" " &amp;"""" &amp;B76 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D76" s="1" t="str">
         <f aca="false">IF(ISBLANK(A76),"",C76)</f>
         <v/>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="1" t="str">
-        <f aca="false">A77 &amp;" " &amp;"""" &amp;B77 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D77" s="1" t="str">
         <f aca="false">IF(ISBLANK(A77),"",C77)</f>
         <v/>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="1" t="str">
-        <f aca="false">A78 &amp;" " &amp;"""" &amp;B78 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D78" s="1" t="str">
         <f aca="false">IF(ISBLANK(A78),"",C78)</f>
         <v/>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="1" t="str">
-        <f aca="false">A79 &amp;" " &amp;"""" &amp;B79 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D79" s="1" t="str">
         <f aca="false">IF(ISBLANK(A79),"",C79)</f>
         <v/>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="1" t="str">
-        <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D80" s="1" t="str">
         <f aca="false">IF(ISBLANK(A80),"",C80)</f>
         <v/>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="1" t="str">
-        <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D81" s="1" t="str">
         <f aca="false">IF(ISBLANK(A81),"",C81)</f>
         <v/>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="1" t="str">
-        <f aca="false">A82 &amp;" " &amp;"""" &amp;B82 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D82" s="1" t="str">
         <f aca="false">IF(ISBLANK(A82),"",C82)</f>
         <v/>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="1" t="str">
-        <f aca="false">A83 &amp;" " &amp;"""" &amp;B83 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D83" s="1" t="str">
         <f aca="false">IF(ISBLANK(A83),"",C83)</f>
         <v/>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="1" t="str">
-        <f aca="false">A84 &amp;" " &amp;"""" &amp;B84 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D84" s="1" t="str">
         <f aca="false">IF(ISBLANK(A84),"",C84)</f>
         <v/>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="1" t="str">
-        <f aca="false">A85 &amp;" " &amp;"""" &amp;B85 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D85" s="1" t="str">
         <f aca="false">IF(ISBLANK(A85),"",C85)</f>
         <v/>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="1" t="str">
-        <f aca="false">A86 &amp;" " &amp;"""" &amp;B86 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D86" s="1" t="str">
         <f aca="false">IF(ISBLANK(A86),"",C86)</f>
         <v/>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="1" t="str">
-        <f aca="false">A87 &amp;" " &amp;"""" &amp;B87 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D87" s="1" t="str">
         <f aca="false">IF(ISBLANK(A87),"",C87)</f>
         <v/>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="1" t="str">
-        <f aca="false">A88 &amp;" " &amp;"""" &amp;B88 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D88" s="1" t="str">
         <f aca="false">IF(ISBLANK(A88),"",C88)</f>
         <v/>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="1" t="str">
-        <f aca="false">A89 &amp;" " &amp;"""" &amp;B89 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D89" s="1" t="str">
         <f aca="false">IF(ISBLANK(A89),"",C89)</f>
         <v/>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="1" t="str">
-        <f aca="false">A90 &amp;" " &amp;"""" &amp;B90 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D90" s="1" t="str">
         <f aca="false">IF(ISBLANK(A90),"",C90)</f>
         <v/>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="1" t="str">
-        <f aca="false">A91 &amp;" " &amp;"""" &amp;B91 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D91" s="1" t="str">
         <f aca="false">IF(ISBLANK(A91),"",C91)</f>
         <v/>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="1" t="str">
-        <f aca="false">A92 &amp;" " &amp;"""" &amp;B92 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D92" s="1" t="str">
         <f aca="false">IF(ISBLANK(A92),"",C92)</f>
         <v/>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="1" t="str">
-        <f aca="false">A93 &amp;" " &amp;"""" &amp;B93 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D93" s="1" t="str">
         <f aca="false">IF(ISBLANK(A93),"",C93)</f>
         <v/>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="1" t="str">
-        <f aca="false">A94 &amp;" " &amp;"""" &amp;B94 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D94" s="1" t="str">
         <f aca="false">IF(ISBLANK(A94),"",C94)</f>
         <v/>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="1" t="str">
-        <f aca="false">A95 &amp;" " &amp;"""" &amp;B95 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D95" s="1" t="str">
         <f aca="false">IF(ISBLANK(A95),"",C95)</f>
         <v/>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="1" t="str">
-        <f aca="false">A96 &amp;" " &amp;"""" &amp;B96 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D96" s="1" t="str">
         <f aca="false">IF(ISBLANK(A96),"",C96)</f>
         <v/>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="1" t="str">
-        <f aca="false">A97 &amp;" " &amp;"""" &amp;B97 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D97" s="1" t="str">
         <f aca="false">IF(ISBLANK(A97),"",C97)</f>
         <v/>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="1" t="str">
-        <f aca="false">A98 &amp;" " &amp;"""" &amp;B98 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D98" s="1" t="str">
         <f aca="false">IF(ISBLANK(A98),"",C98)</f>
         <v/>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="1" t="str">
-        <f aca="false">A99 &amp;" " &amp;"""" &amp;B99 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D99" s="1" t="str">
         <f aca="false">IF(ISBLANK(A99),"",C99)</f>
         <v/>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="1" t="str">
-        <f aca="false">A100 &amp;" " &amp;"""" &amp;B100 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D100" s="1" t="str">
         <f aca="false">IF(ISBLANK(A100),"",C100)</f>
         <v/>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="1" t="str">
-        <f aca="false">A101 &amp;" " &amp;"""" &amp;B101 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D101" s="1" t="str">
         <f aca="false">IF(ISBLANK(A101),"",C101)</f>
         <v/>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="1" t="str">
-        <f aca="false">A102 &amp;" " &amp;"""" &amp;B102 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D102" s="1" t="str">
         <f aca="false">IF(ISBLANK(A102),"",C102)</f>
         <v/>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="1" t="str">
-        <f aca="false">A103 &amp;" " &amp;"""" &amp;B103 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D103" s="1" t="str">
         <f aca="false">IF(ISBLANK(A103),"",C103)</f>
         <v/>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="1" t="str">
-        <f aca="false">A104 &amp;" " &amp;"""" &amp;B104 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D104" s="1" t="str">
         <f aca="false">IF(ISBLANK(A104),"",C104)</f>
         <v/>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="1" t="str">
-        <f aca="false">A105 &amp;" " &amp;"""" &amp;B105 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D105" s="1" t="str">
         <f aca="false">IF(ISBLANK(A105),"",C105)</f>
         <v/>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="1" t="str">
-        <f aca="false">A106 &amp;" " &amp;"""" &amp;B106 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D106" s="1" t="str">
         <f aca="false">IF(ISBLANK(A106),"",C106)</f>
         <v/>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="1" t="str">
-        <f aca="false">A107 &amp;" " &amp;"""" &amp;B107 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D107" s="1" t="str">
         <f aca="false">IF(ISBLANK(A107),"",C107)</f>
         <v/>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="1" t="str">
-        <f aca="false">A108 &amp;" " &amp;"""" &amp;B108 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D108" s="1" t="str">
         <f aca="false">IF(ISBLANK(A108),"",C108)</f>
         <v/>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="1" t="str">
-        <f aca="false">A109 &amp;" " &amp;"""" &amp;B109 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D109" s="1" t="str">
         <f aca="false">IF(ISBLANK(A109),"",C109)</f>
         <v/>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="1" t="str">
-        <f aca="false">A110 &amp;" " &amp;"""" &amp;B110 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D110" s="1" t="str">
         <f aca="false">IF(ISBLANK(A110),"",C110)</f>
         <v/>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="1" t="str">
-        <f aca="false">A111 &amp;" " &amp;"""" &amp;B111 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D111" s="1" t="str">
         <f aca="false">IF(ISBLANK(A111),"",C111)</f>
         <v/>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="1" t="str">
-        <f aca="false">A112 &amp;" " &amp;"""" &amp;B112 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D112" s="1" t="str">
         <f aca="false">IF(ISBLANK(A112),"",C112)</f>
         <v/>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="1" t="str">
-        <f aca="false">A113 &amp;" " &amp;"""" &amp;B113 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D113" s="1" t="str">
         <f aca="false">IF(ISBLANK(A113),"",C113)</f>
         <v/>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="1" t="str">
-        <f aca="false">A114 &amp;" " &amp;"""" &amp;B114 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D114" s="1" t="str">
         <f aca="false">IF(ISBLANK(A114),"",C114)</f>
         <v/>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="1" t="str">
-        <f aca="false">A115 &amp;" " &amp;"""" &amp;B115 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D115" s="1" t="str">
         <f aca="false">IF(ISBLANK(A115),"",C115)</f>
         <v/>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="1" t="str">
-        <f aca="false">A116 &amp;" " &amp;"""" &amp;B116 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D116" s="1" t="str">
         <f aca="false">IF(ISBLANK(A116),"",C116)</f>
         <v/>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="1" t="str">
-        <f aca="false">A117 &amp;" " &amp;"""" &amp;B117 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D117" s="1" t="str">
         <f aca="false">IF(ISBLANK(A117),"",C117)</f>
         <v/>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="1" t="str">
-        <f aca="false">A118 &amp;" " &amp;"""" &amp;B118 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D118" s="1" t="str">
         <f aca="false">IF(ISBLANK(A118),"",C118)</f>
         <v/>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="1" t="str">
-        <f aca="false">A119 &amp;" " &amp;"""" &amp;B119 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D119" s="1" t="str">
         <f aca="false">IF(ISBLANK(A119),"",C119)</f>
         <v/>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="1" t="str">
-        <f aca="false">A120 &amp;" " &amp;"""" &amp;B120 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D120" s="1" t="str">
         <f aca="false">IF(ISBLANK(A120),"",C120)</f>
         <v/>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="1" t="str">
-        <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D121" s="1" t="str">
         <f aca="false">IF(ISBLANK(A121),"",C121)</f>
         <v/>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="1" t="str">
-        <f aca="false">A122 &amp;" " &amp;"""" &amp;B122 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D122" s="1" t="str">
         <f aca="false">IF(ISBLANK(A122),"",C122)</f>
         <v/>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="1" t="str">
-        <f aca="false">A123 &amp;" " &amp;"""" &amp;B123 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D123" s="1" t="str">
         <f aca="false">IF(ISBLANK(A123),"",C123)</f>
         <v/>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="1" t="str">
-        <f aca="false">A124 &amp;" " &amp;"""" &amp;B124 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D124" s="1" t="str">
         <f aca="false">IF(ISBLANK(A124),"",C124)</f>
         <v/>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="1" t="str">
-        <f aca="false">A125 &amp;" " &amp;"""" &amp;B125 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D125" s="1" t="str">
         <f aca="false">IF(ISBLANK(A125),"",C125)</f>
         <v/>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="1" t="str">
-        <f aca="false">A126 &amp;" " &amp;"""" &amp;B126 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D126" s="1" t="str">
         <f aca="false">IF(ISBLANK(A126),"",C126)</f>
         <v/>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="1" t="str">
-        <f aca="false">A127 &amp;" " &amp;"""" &amp;B127 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D127" s="1" t="str">
         <f aca="false">IF(ISBLANK(A127),"",C127)</f>
         <v/>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="1" t="str">
-        <f aca="false">A128 &amp;" " &amp;"""" &amp;B128 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D128" s="1" t="str">
         <f aca="false">IF(ISBLANK(A128),"",C128)</f>
         <v/>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="1" t="str">
-        <f aca="false">A129 &amp;" " &amp;"""" &amp;B129 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D129" s="1" t="str">
         <f aca="false">IF(ISBLANK(A129),"",C129)</f>
         <v/>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="1" t="str">
-        <f aca="false">A130 &amp;" " &amp;"""" &amp;B130 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D130" s="1" t="str">
         <f aca="false">IF(ISBLANK(A130),"",C130)</f>
         <v/>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="1" t="str">
-        <f aca="false">A131 &amp;" " &amp;"""" &amp;B131 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D131" s="1" t="str">
         <f aca="false">IF(ISBLANK(A131),"",C131)</f>
         <v/>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="1" t="str">
-        <f aca="false">A132 &amp;" " &amp;"""" &amp;B132 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D132" s="1" t="str">
         <f aca="false">IF(ISBLANK(A132),"",C132)</f>
         <v/>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="1" t="str">
-        <f aca="false">A133 &amp;" " &amp;"""" &amp;B133 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D133" s="1" t="str">
         <f aca="false">IF(ISBLANK(A133),"",C133)</f>
         <v/>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="1" t="str">
-        <f aca="false">A134 &amp;" " &amp;"""" &amp;B134 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D134" s="1" t="str">
         <f aca="false">IF(ISBLANK(A134),"",C134)</f>
         <v/>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="1" t="str">
-        <f aca="false">A135 &amp;" " &amp;"""" &amp;B135 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D135" s="1" t="str">
         <f aca="false">IF(ISBLANK(A135),"",C135)</f>
         <v/>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="1" t="str">
-        <f aca="false">A136 &amp;" " &amp;"""" &amp;B136 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D136" s="1" t="str">
         <f aca="false">IF(ISBLANK(A136),"",C136)</f>
         <v/>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="1" t="str">
-        <f aca="false">A137 &amp;" " &amp;"""" &amp;B137 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D137" s="1" t="str">
         <f aca="false">IF(ISBLANK(A137),"",C137)</f>
         <v/>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="1" t="str">
-        <f aca="false">A138 &amp;" " &amp;"""" &amp;B138 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D138" s="1" t="str">
         <f aca="false">IF(ISBLANK(A138),"",C138)</f>
         <v/>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="1" t="str">
-        <f aca="false">A139 &amp;" " &amp;"""" &amp;B139 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D139" s="1" t="str">
         <f aca="false">IF(ISBLANK(A139),"",C139)</f>
         <v/>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="1" t="str">
-        <f aca="false">A140 &amp;" " &amp;"""" &amp;B140 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D140" s="1" t="str">
         <f aca="false">IF(ISBLANK(A140),"",C140)</f>
         <v/>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="1" t="str">
-        <f aca="false">A141 &amp;" " &amp;"""" &amp;B141 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D141" s="1" t="str">
         <f aca="false">IF(ISBLANK(A141),"",C141)</f>
         <v/>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="1" t="str">
-        <f aca="false">A142 &amp;" " &amp;"""" &amp;B142 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D142" s="1" t="str">
         <f aca="false">IF(ISBLANK(A142),"",C142)</f>
         <v/>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="1" t="str">
-        <f aca="false">A143 &amp;" " &amp;"""" &amp;B143 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D143" s="1" t="str">
         <f aca="false">IF(ISBLANK(A143),"",C143)</f>
         <v/>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="1" t="str">
-        <f aca="false">A144 &amp;" " &amp;"""" &amp;B144 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D144" s="1" t="str">
         <f aca="false">IF(ISBLANK(A144),"",C144)</f>
         <v/>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="1" t="str">
-        <f aca="false">A145 &amp;" " &amp;"""" &amp;B145 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D145" s="1" t="str">
         <f aca="false">IF(ISBLANK(A145),"",C145)</f>
         <v/>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="1" t="str">
-        <f aca="false">A146 &amp;" " &amp;"""" &amp;B146 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D146" s="1" t="str">
         <f aca="false">IF(ISBLANK(A146),"",C146)</f>
         <v/>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="1" t="str">
-        <f aca="false">A147 &amp;" " &amp;"""" &amp;B147 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D147" s="1" t="str">
         <f aca="false">IF(ISBLANK(A147),"",C147)</f>
         <v/>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="1" t="str">
-        <f aca="false">A148 &amp;" " &amp;"""" &amp;B148 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D148" s="1" t="str">
         <f aca="false">IF(ISBLANK(A148),"",C148)</f>
         <v/>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="1" t="str">
-        <f aca="false">A149 &amp;" " &amp;"""" &amp;B149 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D149" s="1" t="str">
         <f aca="false">IF(ISBLANK(A149),"",C149)</f>
         <v/>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C150" s="1" t="str">
-        <f aca="false">A150 &amp;" " &amp;"""" &amp;B150 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D150" s="1" t="str">
         <f aca="false">IF(ISBLANK(A150),"",C150)</f>
         <v/>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="1" t="str">
-        <f aca="false">A151 &amp;" " &amp;"""" &amp;B151 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D151" s="1" t="str">
         <f aca="false">IF(ISBLANK(A151),"",C151)</f>
         <v/>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C152" s="1" t="str">
-        <f aca="false">A152 &amp;" " &amp;"""" &amp;B152 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D152" s="1" t="str">
         <f aca="false">IF(ISBLANK(A152),"",C152)</f>
         <v/>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="1" t="str">
-        <f aca="false">A153 &amp;" " &amp;"""" &amp;B153 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D153" s="1" t="str">
         <f aca="false">IF(ISBLANK(A153),"",C153)</f>
         <v/>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="1" t="str">
-        <f aca="false">A154 &amp;" " &amp;"""" &amp;B154 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D154" s="1" t="str">
         <f aca="false">IF(ISBLANK(A154),"",C154)</f>
         <v/>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="1" t="str">
-        <f aca="false">A155 &amp;" " &amp;"""" &amp;B155 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D155" s="1" t="str">
         <f aca="false">IF(ISBLANK(A155),"",C155)</f>
         <v/>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="1" t="str">
-        <f aca="false">A156 &amp;" " &amp;"""" &amp;B156 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D156" s="1" t="str">
         <f aca="false">IF(ISBLANK(A156),"",C156)</f>
         <v/>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="1" t="str">
-        <f aca="false">A157 &amp;" " &amp;"""" &amp;B157 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D157" s="1" t="str">
         <f aca="false">IF(ISBLANK(A157),"",C157)</f>
         <v/>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="1" t="str">
-        <f aca="false">A158 &amp;" " &amp;"""" &amp;B158 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D158" s="1" t="str">
         <f aca="false">IF(ISBLANK(A158),"",C158)</f>
         <v/>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="1" t="str">
-        <f aca="false">A159 &amp;" " &amp;"""" &amp;B159 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D159" s="1" t="str">
         <f aca="false">IF(ISBLANK(A159),"",C159)</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="1" t="str">
-        <f aca="false">A160 &amp;" " &amp;"""" &amp;B160 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D160" s="1" t="str">
         <f aca="false">IF(ISBLANK(A160),"",C160)</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="1" t="str">
-        <f aca="false">A161 &amp;" " &amp;"""" &amp;B161 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D161" s="1" t="str">
         <f aca="false">IF(ISBLANK(A161),"",C161)</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="1" t="str">
-        <f aca="false">A162 &amp;" " &amp;"""" &amp;B162 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D162" s="1" t="str">
         <f aca="false">IF(ISBLANK(A162),"",C162)</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="1" t="str">
-        <f aca="false">A163 &amp;" " &amp;"""" &amp;B163 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D163" s="1" t="str">
         <f aca="false">IF(ISBLANK(A163),"",C163)</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="1" t="str">
-        <f aca="false">A164 &amp;" " &amp;"""" &amp;B164 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D164" s="1" t="str">
         <f aca="false">IF(ISBLANK(A164),"",C164)</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="1" t="str">
-        <f aca="false">A165 &amp;" " &amp;"""" &amp;B165 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D165" s="1" t="str">
         <f aca="false">IF(ISBLANK(A165),"",C165)</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="1" t="str">
-        <f aca="false">A166 &amp;" " &amp;"""" &amp;B166 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D166" s="1" t="str">
         <f aca="false">IF(ISBLANK(A166),"",C166)</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C167" s="1" t="str">
-        <f aca="false">A167 &amp;" " &amp;"""" &amp;B167 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D167" s="1" t="str">
         <f aca="false">IF(ISBLANK(A167),"",C167)</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="1" t="str">
-        <f aca="false">A168 &amp;" " &amp;"""" &amp;B168 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D168" s="1" t="str">
         <f aca="false">IF(ISBLANK(A168),"",C168)</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C169" s="1" t="str">
-        <f aca="false">A169 &amp;" " &amp;"""" &amp;B169 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D169" s="1" t="str">
         <f aca="false">IF(ISBLANK(A169),"",C169)</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="1" t="str">
-        <f aca="false">A170 &amp;" " &amp;"""" &amp;B170 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D170" s="1" t="str">
         <f aca="false">IF(ISBLANK(A170),"",C170)</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="1" t="str">
-        <f aca="false">A171 &amp;" " &amp;"""" &amp;B171 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D171" s="1" t="str">
         <f aca="false">IF(ISBLANK(A171),"",C171)</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="1" t="str">
-        <f aca="false">A172 &amp;" " &amp;"""" &amp;B172 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D172" s="1" t="str">
         <f aca="false">IF(ISBLANK(A172),"",C172)</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="1" t="str">
-        <f aca="false">A173 &amp;" " &amp;"""" &amp;B173 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D173" s="1" t="str">
         <f aca="false">IF(ISBLANK(A173),"",C173)</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="1" t="str">
-        <f aca="false">A174 &amp;" " &amp;"""" &amp;B174 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D174" s="1" t="str">
         <f aca="false">IF(ISBLANK(A174),"",C174)</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="1" t="str">
-        <f aca="false">A175 &amp;" " &amp;"""" &amp;B175 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D175" s="1" t="str">
         <f aca="false">IF(ISBLANK(A175),"",C175)</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C176" s="1" t="str">
-        <f aca="false">A176 &amp;" " &amp;"""" &amp;B176 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D176" s="1" t="str">
         <f aca="false">IF(ISBLANK(A176),"",C176)</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C177" s="1" t="str">
-        <f aca="false">A177 &amp;" " &amp;"""" &amp;B177 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D177" s="1" t="str">
         <f aca="false">IF(ISBLANK(A177),"",C177)</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C178" s="1" t="str">
-        <f aca="false">A178 &amp;" " &amp;"""" &amp;B178 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D178" s="1" t="str">
         <f aca="false">IF(ISBLANK(A178),"",C178)</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C179" s="1" t="str">
-        <f aca="false">A179 &amp;" " &amp;"""" &amp;B179 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D179" s="1" t="str">
         <f aca="false">IF(ISBLANK(A179),"",C179)</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="1" t="str">
-        <f aca="false">A180 &amp;" " &amp;"""" &amp;B180 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D180" s="1" t="str">
         <f aca="false">IF(ISBLANK(A180),"",C180)</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="1" t="str">
-        <f aca="false">A181 &amp;" " &amp;"""" &amp;B181 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D181" s="1" t="str">
         <f aca="false">IF(ISBLANK(A181),"",C181)</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C182" s="1" t="str">
-        <f aca="false">A182 &amp;" " &amp;"""" &amp;B182 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D182" s="1" t="str">
         <f aca="false">IF(ISBLANK(A182),"",C182)</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="1" t="str">
-        <f aca="false">A183 &amp;" " &amp;"""" &amp;B183 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D183" s="1" t="str">
         <f aca="false">IF(ISBLANK(A183),"",C183)</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="1" t="str">
-        <f aca="false">A184 &amp;" " &amp;"""" &amp;B184 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D184" s="1" t="str">
         <f aca="false">IF(ISBLANK(A184),"",C184)</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="1" t="str">
-        <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A185),"",C185)</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="1" t="str">
-        <f aca="false">A186 &amp;" " &amp;"""" &amp;B186 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D186" s="1" t="str">
         <f aca="false">IF(ISBLANK(A186),"",C186)</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="1" t="str">
-        <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D187" s="1" t="str">
         <f aca="false">IF(ISBLANK(A187),"",C187)</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="1" t="str">
-        <f aca="false">A188 &amp;" " &amp;"""" &amp;B188 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D188" s="1" t="str">
         <f aca="false">IF(ISBLANK(A188),"",C188)</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="1" t="str">
-        <f aca="false">A189 &amp;" " &amp;"""" &amp;B189 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D189" s="1" t="str">
         <f aca="false">IF(ISBLANK(A189),"",C189)</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="1" t="str">
-        <f aca="false">A190 &amp;" " &amp;"""" &amp;B190 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D190" s="1" t="str">
         <f aca="false">IF(ISBLANK(A190),"",C190)</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="1" t="str">
-        <f aca="false">A191 &amp;" " &amp;"""" &amp;B191 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D191" s="1" t="str">
         <f aca="false">IF(ISBLANK(A191),"",C191)</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="1" t="str">
-        <f aca="false">A192 &amp;" " &amp;"""" &amp;B192 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D192" s="1" t="str">
         <f aca="false">IF(ISBLANK(A192),"",C192)</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="1" t="str">
-        <f aca="false">A193 &amp;" " &amp;"""" &amp;B193 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D193" s="1" t="str">
         <f aca="false">IF(ISBLANK(A193),"",C193)</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="1" t="str">
-        <f aca="false">A194 &amp;" " &amp;"""" &amp;B194 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D194" s="1" t="str">
         <f aca="false">IF(ISBLANK(A194),"",C194)</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="1" t="str">
-        <f aca="false">A195 &amp;" " &amp;"""" &amp;B195 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D195" s="1" t="str">
         <f aca="false">IF(ISBLANK(A195),"",C195)</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="1" t="str">
-        <f aca="false">A196 &amp;" " &amp;"""" &amp;B196 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D196" s="1" t="str">
         <f aca="false">IF(ISBLANK(A196),"",C196)</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="1" t="str">
-        <f aca="false">A197 &amp;" " &amp;"""" &amp;B197 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D197" s="1" t="str">
         <f aca="false">IF(ISBLANK(A197),"",C197)</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="1" t="str">
-        <f aca="false">A198 &amp;" " &amp;"""" &amp;B198 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D198" s="1" t="str">
         <f aca="false">IF(ISBLANK(A198),"",C198)</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="1" t="str">
-        <f aca="false">A199 &amp;" " &amp;"""" &amp;B199 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D199" s="1" t="str">
         <f aca="false">IF(ISBLANK(A199),"",C199)</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="1" t="str">
-        <f aca="false">A200 &amp;" " &amp;"""" &amp;B200 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D200" s="1" t="str">
         <f aca="false">IF(ISBLANK(A200),"",C200)</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="1" t="str">
-        <f aca="false">A201 &amp;" " &amp;"""" &amp;B201 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D201" s="1" t="str">
         <f aca="false">IF(ISBLANK(A201),"",C201)</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="1" t="str">
-        <f aca="false">A202 &amp;" " &amp;"""" &amp;B202 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D202" s="1" t="str">
         <f aca="false">IF(ISBLANK(A202),"",C202)</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="1" t="str">
-        <f aca="false">A203 &amp;" " &amp;"""" &amp;B203 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D203" s="1" t="str">
         <f aca="false">IF(ISBLANK(A203),"",C203)</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="1" t="str">
-        <f aca="false">A204 &amp;" " &amp;"""" &amp;B204 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D204" s="1" t="str">
         <f aca="false">IF(ISBLANK(A204),"",C204)</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="1" t="str">
-        <f aca="false">A205 &amp;" " &amp;"""" &amp;B205 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D205" s="1" t="str">
         <f aca="false">IF(ISBLANK(A205),"",C205)</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="1" t="str">
-        <f aca="false">A206 &amp;" " &amp;"""" &amp;B206 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D206" s="1" t="str">
         <f aca="false">IF(ISBLANK(A206),"",C206)</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="1" t="str">
-        <f aca="false">A207 &amp;" " &amp;"""" &amp;B207 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D207" s="1" t="str">
         <f aca="false">IF(ISBLANK(A207),"",C207)</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="1" t="str">
-        <f aca="false">A208 &amp;" " &amp;"""" &amp;B208 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D208" s="1" t="str">
         <f aca="false">IF(ISBLANK(A208),"",C208)</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="1" t="str">
-        <f aca="false">A209 &amp;" " &amp;"""" &amp;B209 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D209" s="1" t="str">
         <f aca="false">IF(ISBLANK(A209),"",C209)</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="1" t="str">
-        <f aca="false">A210 &amp;" " &amp;"""" &amp;B210 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D210" s="1" t="str">
         <f aca="false">IF(ISBLANK(A210),"",C210)</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="1" t="str">
-        <f aca="false">A211 &amp;" " &amp;"""" &amp;B211 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D211" s="1" t="str">
         <f aca="false">IF(ISBLANK(A211),"",C211)</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="1" t="str">
-        <f aca="false">A212 &amp;" " &amp;"""" &amp;B212 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D212" s="1" t="str">
         <f aca="false">IF(ISBLANK(A212),"",C212)</f>
         <v/>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="1" t="str">
-        <f aca="false">A213 &amp;" " &amp;"""" &amp;B213 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D213" s="1" t="str">
         <f aca="false">IF(ISBLANK(A213),"",C213)</f>
         <v/>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C214" s="1" t="str">
-        <f aca="false">A214 &amp;" " &amp;"""" &amp;B214 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D214" s="1" t="str">
         <f aca="false">IF(ISBLANK(A214),"",C214)</f>
         <v/>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="1" t="str">
-        <f aca="false">A215 &amp;" " &amp;"""" &amp;B215 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D215" s="1" t="str">
         <f aca="false">IF(ISBLANK(A215),"",C215)</f>
         <v/>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C216" s="1" t="str">
-        <f aca="false">A216 &amp;" " &amp;"""" &amp;B216 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D216" s="1" t="str">
         <f aca="false">IF(ISBLANK(A216),"",C216)</f>
         <v/>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="1" t="str">
-        <f aca="false">A217 &amp;" " &amp;"""" &amp;B217 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D217" s="1" t="str">
         <f aca="false">IF(ISBLANK(A217),"",C217)</f>
         <v/>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="1" t="str">
-        <f aca="false">A218 &amp;" " &amp;"""" &amp;B218 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D218" s="1" t="str">
         <f aca="false">IF(ISBLANK(A218),"",C218)</f>
         <v/>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="1" t="str">
-        <f aca="false">A219 &amp;" " &amp;"""" &amp;B219 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D219" s="1" t="str">
         <f aca="false">IF(ISBLANK(A219),"",C219)</f>
         <v/>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C220" s="1" t="str">
-        <f aca="false">A220 &amp;" " &amp;"""" &amp;B220 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D220" s="1" t="str">
         <f aca="false">IF(ISBLANK(A220),"",C220)</f>
         <v/>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="1" t="str">
-        <f aca="false">A221 &amp;" " &amp;"""" &amp;B221 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D221" s="1" t="str">
         <f aca="false">IF(ISBLANK(A221),"",C221)</f>
         <v/>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="1" t="str">
-        <f aca="false">A222 &amp;" " &amp;"""" &amp;B222 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D222" s="1" t="str">
         <f aca="false">IF(ISBLANK(A222),"",C222)</f>
         <v/>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="1" t="str">
-        <f aca="false">A223 &amp;" " &amp;"""" &amp;B223 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D223" s="1" t="str">
         <f aca="false">IF(ISBLANK(A223),"",C223)</f>
         <v/>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="1" t="str">
-        <f aca="false">A224 &amp;" " &amp;"""" &amp;B224 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D224" s="1" t="str">
         <f aca="false">IF(ISBLANK(A224),"",C224)</f>
         <v/>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="1" t="str">
-        <f aca="false">A225 &amp;" " &amp;"""" &amp;B225 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D225" s="1" t="str">
         <f aca="false">IF(ISBLANK(A225),"",C225)</f>
         <v/>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="1" t="str">
-        <f aca="false">A226 &amp;" " &amp;"""" &amp;B226 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D226" s="1" t="str">
         <f aca="false">IF(ISBLANK(A226),"",C226)</f>
         <v/>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="1" t="str">
-        <f aca="false">A227 &amp;" " &amp;"""" &amp;B227 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D227" s="1" t="str">
         <f aca="false">IF(ISBLANK(A227),"",C227)</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="1" t="str">
-        <f aca="false">A228 &amp;" " &amp;"""" &amp;B228 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D228" s="1" t="str">
         <f aca="false">IF(ISBLANK(A228),"",C228)</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="1" t="str">
-        <f aca="false">A229 &amp;" " &amp;"""" &amp;B229 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D229" s="1" t="str">
         <f aca="false">IF(ISBLANK(A229),"",C229)</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="1" t="str">
-        <f aca="false">A230 &amp;" " &amp;"""" &amp;B230 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D230" s="1" t="str">
         <f aca="false">IF(ISBLANK(A230),"",C230)</f>
         <v/>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="1" t="str">
-        <f aca="false">A231 &amp;" " &amp;"""" &amp;B231 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D231" s="1" t="str">
         <f aca="false">IF(ISBLANK(A231),"",C231)</f>
         <v/>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="1" t="str">
-        <f aca="false">A232 &amp;" " &amp;"""" &amp;B232 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D232" s="1" t="str">
         <f aca="false">IF(ISBLANK(A232),"",C232)</f>
         <v/>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="1" t="str">
-        <f aca="false">A233 &amp;" " &amp;"""" &amp;B233 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D233" s="1" t="str">
         <f aca="false">IF(ISBLANK(A233),"",C233)</f>
         <v/>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="1" t="str">
-        <f aca="false">A234 &amp;" " &amp;"""" &amp;B234 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D234" s="1" t="str">
         <f aca="false">IF(ISBLANK(A234),"",C234)</f>
         <v/>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="1" t="str">
-        <f aca="false">A235 &amp;" " &amp;"""" &amp;B235 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D235" s="1" t="str">
         <f aca="false">IF(ISBLANK(A235),"",C235)</f>
         <v/>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="1" t="str">
-        <f aca="false">A236 &amp;" " &amp;"""" &amp;B236 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D236" s="1" t="str">
         <f aca="false">IF(ISBLANK(A236),"",C236)</f>
         <v/>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="1" t="str">
-        <f aca="false">A237 &amp;" " &amp;"""" &amp;B237 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D237" s="1" t="str">
         <f aca="false">IF(ISBLANK(A237),"",C237)</f>
         <v/>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="1" t="str">
-        <f aca="false">A238 &amp;" " &amp;"""" &amp;B238 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D238" s="1" t="str">
         <f aca="false">IF(ISBLANK(A238),"",C238)</f>
         <v/>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="1" t="str">
-        <f aca="false">A239 &amp;" " &amp;"""" &amp;B239 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D239" s="1" t="str">
         <f aca="false">IF(ISBLANK(A239),"",C239)</f>
         <v/>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="1" t="str">
-        <f aca="false">A240 &amp;" " &amp;"""" &amp;B240 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D240" s="1" t="str">
         <f aca="false">IF(ISBLANK(A240),"",C240)</f>
         <v/>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="1" t="str">
-        <f aca="false">A241 &amp;" " &amp;"""" &amp;B241 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D241" s="1" t="str">
         <f aca="false">IF(ISBLANK(A241),"",C241)</f>
         <v/>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="1" t="str">
-        <f aca="false">A242 &amp;" " &amp;"""" &amp;B242 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D242" s="1" t="str">
         <f aca="false">IF(ISBLANK(A242),"",C242)</f>
         <v/>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="1" t="str">
-        <f aca="false">A243 &amp;" " &amp;"""" &amp;B243 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D243" s="1" t="str">
         <f aca="false">IF(ISBLANK(A243),"",C243)</f>
         <v/>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="1" t="str">
-        <f aca="false">A244 &amp;" " &amp;"""" &amp;B244 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D244" s="1" t="str">
         <f aca="false">IF(ISBLANK(A244),"",C244)</f>
         <v/>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="1" t="str">
-        <f aca="false">A245 &amp;" " &amp;"""" &amp;B245 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D245" s="1" t="str">
         <f aca="false">IF(ISBLANK(A245),"",C245)</f>
         <v/>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="1" t="str">
-        <f aca="false">A246 &amp;" " &amp;"""" &amp;B246 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D246" s="1" t="str">
         <f aca="false">IF(ISBLANK(A246),"",C246)</f>
         <v/>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C247" s="1" t="str">
-        <f aca="false">A247 &amp;" " &amp;"""" &amp;B247 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D247" s="1" t="str">
         <f aca="false">IF(ISBLANK(A247),"",C247)</f>
         <v/>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="1" t="str">
-        <f aca="false">A248 &amp;" " &amp;"""" &amp;B248 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D248" s="1" t="str">
         <f aca="false">IF(ISBLANK(A248),"",C248)</f>
         <v/>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="1" t="str">
-        <f aca="false">A249 &amp;" " &amp;"""" &amp;B249 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D249" s="1" t="str">
         <f aca="false">IF(ISBLANK(A249),"",C249)</f>
         <v/>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="1" t="str">
-        <f aca="false">A250 &amp;" " &amp;"""" &amp;B250 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D250" s="1" t="str">
         <f aca="false">IF(ISBLANK(A250),"",C250)</f>
         <v/>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="1" t="str">
-        <f aca="false">A251 &amp;" " &amp;"""" &amp;B251 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D251" s="1" t="str">
         <f aca="false">IF(ISBLANK(A251),"",C251)</f>
         <v/>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="1" t="str">
-        <f aca="false">A252 &amp;" " &amp;"""" &amp;B252 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D252" s="1" t="str">
         <f aca="false">IF(ISBLANK(A252),"",C252)</f>
         <v/>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="1" t="str">
-        <f aca="false">A253 &amp;" " &amp;"""" &amp;B253 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D253" s="1" t="str">
         <f aca="false">IF(ISBLANK(A253),"",C253)</f>
         <v/>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C254" s="1" t="str">
-        <f aca="false">A254 &amp;" " &amp;"""" &amp;B254 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D254" s="1" t="str">
         <f aca="false">IF(ISBLANK(A254),"",C254)</f>
         <v/>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C255" s="1" t="str">
-        <f aca="false">A255 &amp;" " &amp;"""" &amp;B255 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D255" s="1" t="str">
         <f aca="false">IF(ISBLANK(A255),"",C255)</f>
         <v/>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C256" s="1" t="str">
-        <f aca="false">A256 &amp;" " &amp;"""" &amp;B256 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D256" s="1" t="str">
         <f aca="false">IF(ISBLANK(A256),"",C256)</f>
         <v/>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C257" s="1" t="str">
-        <f aca="false">A257 &amp;" " &amp;"""" &amp;B257 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D257" s="1" t="str">
         <f aca="false">IF(ISBLANK(A257),"",C257)</f>
         <v/>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C258" s="1" t="str">
-        <f aca="false">A258 &amp;" " &amp;"""" &amp;B258 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D258" s="1" t="str">
         <f aca="false">IF(ISBLANK(A258),"",C258)</f>
         <v/>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C259" s="1" t="str">
-        <f aca="false">A259 &amp;" " &amp;"""" &amp;B259 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D259" s="1" t="str">
         <f aca="false">IF(ISBLANK(A259),"",C259)</f>
         <v/>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C260" s="1" t="str">
-        <f aca="false">A260 &amp;" " &amp;"""" &amp;B260 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D260" s="1" t="str">
         <f aca="false">IF(ISBLANK(A260),"",C260)</f>
         <v/>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C261" s="1" t="str">
-        <f aca="false">A261 &amp;" " &amp;"""" &amp;B261 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D261" s="1" t="str">
         <f aca="false">IF(ISBLANK(A261),"",C261)</f>
         <v/>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C262" s="1" t="str">
-        <f aca="false">A262 &amp;" " &amp;"""" &amp;B262 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D262" s="1" t="str">
         <f aca="false">IF(ISBLANK(A262),"",C262)</f>
         <v/>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C263" s="1" t="str">
-        <f aca="false">A263 &amp;" " &amp;"""" &amp;B263 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D263" s="1" t="str">
         <f aca="false">IF(ISBLANK(A263),"",C263)</f>
         <v/>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C264" s="1" t="str">
-        <f aca="false">A264 &amp;" " &amp;"""" &amp;B264 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D264" s="1" t="str">
         <f aca="false">IF(ISBLANK(A264),"",C264)</f>
         <v/>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="1" t="str">
-        <f aca="false">A265 &amp;" " &amp;"""" &amp;B265 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D265" s="1" t="str">
         <f aca="false">IF(ISBLANK(A265),"",C265)</f>
         <v/>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C266" s="1" t="str">
-        <f aca="false">A266 &amp;" " &amp;"""" &amp;B266 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D266" s="1" t="str">
         <f aca="false">IF(ISBLANK(A266),"",C266)</f>
         <v/>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="1" t="str">
-        <f aca="false">A267 &amp;" " &amp;"""" &amp;B267 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D267" s="1" t="str">
         <f aca="false">IF(ISBLANK(A267),"",C267)</f>
         <v/>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="1" t="str">
-        <f aca="false">A268 &amp;" " &amp;"""" &amp;B268 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D268" s="1" t="str">
         <f aca="false">IF(ISBLANK(A268),"",C268)</f>
         <v/>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="1" t="str">
-        <f aca="false">A269 &amp;" " &amp;"""" &amp;B269 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D269" s="1" t="str">
         <f aca="false">IF(ISBLANK(A269),"",C269)</f>
         <v/>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C270" s="1" t="str">
-        <f aca="false">A270 &amp;" " &amp;"""" &amp;B270 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D270" s="1" t="str">
         <f aca="false">IF(ISBLANK(A270),"",C270)</f>
         <v/>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="1" t="str">
-        <f aca="false">A271 &amp;" " &amp;"""" &amp;B271 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D271" s="1" t="str">
         <f aca="false">IF(ISBLANK(A271),"",C271)</f>
         <v/>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="1" t="str">
-        <f aca="false">A272 &amp;" " &amp;"""" &amp;B272 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D272" s="1" t="str">
         <f aca="false">IF(ISBLANK(A272),"",C272)</f>
         <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="1" t="str">
-        <f aca="false">A273 &amp;" " &amp;"""" &amp;B273 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D273" s="1" t="str">
         <f aca="false">IF(ISBLANK(A273),"",C273)</f>
         <v/>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="1" t="str">
-        <f aca="false">A274 &amp;" " &amp;"""" &amp;B274 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D274" s="1" t="str">
         <f aca="false">IF(ISBLANK(A274),"",C274)</f>
         <v/>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="1" t="str">
-        <f aca="false">A275 &amp;" " &amp;"""" &amp;B275 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D275" s="1" t="str">
         <f aca="false">IF(ISBLANK(A275),"",C275)</f>
         <v/>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="1" t="str">
-        <f aca="false">A276 &amp;" " &amp;"""" &amp;B276 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D276" s="1" t="str">
         <f aca="false">IF(ISBLANK(A276),"",C276)</f>
         <v/>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="1" t="str">
-        <f aca="false">A277 &amp;" " &amp;"""" &amp;B277 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D277" s="1" t="str">
         <f aca="false">IF(ISBLANK(A277),"",C277)</f>
         <v/>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C278" s="1" t="str">
-        <f aca="false">A278 &amp;" " &amp;"""" &amp;B278 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D278" s="1" t="str">
         <f aca="false">IF(ISBLANK(A278),"",C278)</f>
         <v/>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C279" s="1" t="str">
-        <f aca="false">A279 &amp;" " &amp;"""" &amp;B279 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D279" s="1" t="str">
         <f aca="false">IF(ISBLANK(A279),"",C279)</f>
         <v/>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="1" t="str">
-        <f aca="false">A280 &amp;" " &amp;"""" &amp;B280 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D280" s="1" t="str">
         <f aca="false">IF(ISBLANK(A280),"",C280)</f>
         <v/>
@@ -3816,2110 +2650,1266 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="2"/>
-      <c r="C281" s="1" t="str">
-        <f aca="false">A281 &amp;" " &amp;"""" &amp;B281 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D281" s="1" t="str">
         <f aca="false">IF(ISBLANK(A281),"",C281)</f>
         <v/>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C282" s="1" t="str">
-        <f aca="false">A282 &amp;" " &amp;"""" &amp;B282 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D282" s="1" t="str">
         <f aca="false">IF(ISBLANK(A282),"",C282)</f>
         <v/>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C283" s="1" t="str">
-        <f aca="false">A283 &amp;" " &amp;"""" &amp;B283 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D283" s="1" t="str">
         <f aca="false">IF(ISBLANK(A283),"",C283)</f>
         <v/>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C284" s="1" t="str">
-        <f aca="false">A284 &amp;" " &amp;"""" &amp;B284 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D284" s="1" t="str">
         <f aca="false">IF(ISBLANK(A284),"",C284)</f>
         <v/>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C285" s="1" t="str">
-        <f aca="false">A285 &amp;" " &amp;"""" &amp;B285 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D285" s="1" t="str">
         <f aca="false">IF(ISBLANK(A285),"",C285)</f>
         <v/>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C286" s="1" t="str">
-        <f aca="false">A286 &amp;" " &amp;"""" &amp;B286 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D286" s="1" t="str">
         <f aca="false">IF(ISBLANK(A286),"",C286)</f>
         <v/>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="1" t="str">
-        <f aca="false">A287 &amp;" " &amp;"""" &amp;B287 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D287" s="1" t="str">
         <f aca="false">IF(ISBLANK(A287),"",C287)</f>
         <v/>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="1" t="str">
-        <f aca="false">A288 &amp;" " &amp;"""" &amp;B288 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D288" s="1" t="str">
         <f aca="false">IF(ISBLANK(A288),"",C288)</f>
         <v/>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="1" t="str">
-        <f aca="false">A289 &amp;" " &amp;"""" &amp;B289 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D289" s="1" t="str">
         <f aca="false">IF(ISBLANK(A289),"",C289)</f>
         <v/>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="1" t="str">
-        <f aca="false">A290 &amp;" " &amp;"""" &amp;B290 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D290" s="1" t="str">
         <f aca="false">IF(ISBLANK(A290),"",C290)</f>
         <v/>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="1" t="str">
-        <f aca="false">A291 &amp;" " &amp;"""" &amp;B291 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D291" s="1" t="str">
         <f aca="false">IF(ISBLANK(A291),"",C291)</f>
         <v/>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="1" t="str">
-        <f aca="false">A292 &amp;" " &amp;"""" &amp;B292 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D292" s="1" t="str">
         <f aca="false">IF(ISBLANK(A292),"",C292)</f>
         <v/>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="1" t="str">
-        <f aca="false">A293 &amp;" " &amp;"""" &amp;B293 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D293" s="1" t="str">
         <f aca="false">IF(ISBLANK(A293),"",C293)</f>
         <v/>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="1" t="str">
-        <f aca="false">A294 &amp;" " &amp;"""" &amp;B294 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D294" s="1" t="str">
         <f aca="false">IF(ISBLANK(A294),"",C294)</f>
         <v/>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="1" t="str">
-        <f aca="false">A295 &amp;" " &amp;"""" &amp;B295 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D295" s="1" t="str">
         <f aca="false">IF(ISBLANK(A295),"",C295)</f>
         <v/>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="1" t="str">
-        <f aca="false">A296 &amp;" " &amp;"""" &amp;B296 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D296" s="1" t="str">
         <f aca="false">IF(ISBLANK(A296),"",C296)</f>
         <v/>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="1" t="str">
-        <f aca="false">A297 &amp;" " &amp;"""" &amp;B297 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D297" s="1" t="str">
         <f aca="false">IF(ISBLANK(A297),"",C297)</f>
         <v/>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="1" t="str">
-        <f aca="false">A298 &amp;" " &amp;"""" &amp;B298 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D298" s="1" t="str">
         <f aca="false">IF(ISBLANK(A298),"",C298)</f>
         <v/>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="1" t="str">
-        <f aca="false">A299 &amp;" " &amp;"""" &amp;B299 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D299" s="1" t="str">
         <f aca="false">IF(ISBLANK(A299),"",C299)</f>
         <v/>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="1" t="str">
-        <f aca="false">A300 &amp;" " &amp;"""" &amp;B300 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D300" s="1" t="str">
         <f aca="false">IF(ISBLANK(A300),"",C300)</f>
         <v/>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="1" t="str">
-        <f aca="false">A301 &amp;" " &amp;"""" &amp;B301 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D301" s="1" t="str">
         <f aca="false">IF(ISBLANK(A301),"",C301)</f>
         <v/>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="1" t="str">
-        <f aca="false">A302 &amp;" " &amp;"""" &amp;B302 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D302" s="1" t="str">
         <f aca="false">IF(ISBLANK(A302),"",C302)</f>
         <v/>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C303" s="1" t="str">
-        <f aca="false">A303 &amp;" " &amp;"""" &amp;B303 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D303" s="1" t="str">
         <f aca="false">IF(ISBLANK(A303),"",C303)</f>
         <v/>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C304" s="1" t="str">
-        <f aca="false">A304 &amp;" " &amp;"""" &amp;B304 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D304" s="1" t="str">
         <f aca="false">IF(ISBLANK(A304),"",C304)</f>
         <v/>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C305" s="1" t="str">
-        <f aca="false">A305 &amp;" " &amp;"""" &amp;B305 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D305" s="1" t="str">
         <f aca="false">IF(ISBLANK(A305),"",C305)</f>
         <v/>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C306" s="1" t="str">
-        <f aca="false">A306 &amp;" " &amp;"""" &amp;B306 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D306" s="1" t="str">
         <f aca="false">IF(ISBLANK(A306),"",C306)</f>
         <v/>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C307" s="1" t="str">
-        <f aca="false">A307 &amp;" " &amp;"""" &amp;B307 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D307" s="1" t="str">
         <f aca="false">IF(ISBLANK(A307),"",C307)</f>
         <v/>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C308" s="1" t="str">
-        <f aca="false">A308 &amp;" " &amp;"""" &amp;B308 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D308" s="1" t="str">
         <f aca="false">IF(ISBLANK(A308),"",C308)</f>
         <v/>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C309" s="1" t="str">
-        <f aca="false">A309 &amp;" " &amp;"""" &amp;B309 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D309" s="1" t="str">
         <f aca="false">IF(ISBLANK(A309),"",C309)</f>
         <v/>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C310" s="1" t="str">
-        <f aca="false">A310 &amp;" " &amp;"""" &amp;B310 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D310" s="1" t="str">
         <f aca="false">IF(ISBLANK(A310),"",C310)</f>
         <v/>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C311" s="1" t="str">
-        <f aca="false">A311 &amp;" " &amp;"""" &amp;B311 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D311" s="1" t="str">
         <f aca="false">IF(ISBLANK(A311),"",C311)</f>
         <v/>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C312" s="1" t="str">
-        <f aca="false">A312 &amp;" " &amp;"""" &amp;B312 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D312" s="1" t="str">
         <f aca="false">IF(ISBLANK(A312),"",C312)</f>
         <v/>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C313" s="1" t="str">
-        <f aca="false">A313 &amp;" " &amp;"""" &amp;B313 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D313" s="1" t="str">
         <f aca="false">IF(ISBLANK(A313),"",C313)</f>
         <v/>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C314" s="1" t="str">
-        <f aca="false">A314 &amp;" " &amp;"""" &amp;B314 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D314" s="1" t="str">
         <f aca="false">IF(ISBLANK(A314),"",C314)</f>
         <v/>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C315" s="1" t="str">
-        <f aca="false">A315 &amp;" " &amp;"""" &amp;B315 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D315" s="1" t="str">
         <f aca="false">IF(ISBLANK(A315),"",C315)</f>
         <v/>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C316" s="1" t="str">
-        <f aca="false">A316 &amp;" " &amp;"""" &amp;B316 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D316" s="1" t="str">
         <f aca="false">IF(ISBLANK(A316),"",C316)</f>
         <v/>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C317" s="1" t="str">
-        <f aca="false">A317 &amp;" " &amp;"""" &amp;B317 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D317" s="1" t="str">
         <f aca="false">IF(ISBLANK(A317),"",C317)</f>
         <v/>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C318" s="1" t="str">
-        <f aca="false">A318 &amp;" " &amp;"""" &amp;B318 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D318" s="1" t="str">
         <f aca="false">IF(ISBLANK(A318),"",C318)</f>
         <v/>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C319" s="1" t="str">
-        <f aca="false">A319 &amp;" " &amp;"""" &amp;B319 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D319" s="1" t="str">
         <f aca="false">IF(ISBLANK(A319),"",C319)</f>
         <v/>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C320" s="1" t="str">
-        <f aca="false">A320 &amp;" " &amp;"""" &amp;B320 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D320" s="1" t="str">
         <f aca="false">IF(ISBLANK(A320),"",C320)</f>
         <v/>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C321" s="1" t="str">
-        <f aca="false">A321 &amp;" " &amp;"""" &amp;B321 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D321" s="1" t="str">
         <f aca="false">IF(ISBLANK(A321),"",C321)</f>
         <v/>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C322" s="1" t="str">
-        <f aca="false">A322 &amp;" " &amp;"""" &amp;B322 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D322" s="1" t="str">
         <f aca="false">IF(ISBLANK(A322),"",C322)</f>
         <v/>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C323" s="1" t="str">
-        <f aca="false">A323 &amp;" " &amp;"""" &amp;B323 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D323" s="1" t="str">
         <f aca="false">IF(ISBLANK(A323),"",C323)</f>
         <v/>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C324" s="1" t="str">
-        <f aca="false">A324 &amp;" " &amp;"""" &amp;B324 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D324" s="1" t="str">
         <f aca="false">IF(ISBLANK(A324),"",C324)</f>
         <v/>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C325" s="1" t="str">
-        <f aca="false">A325 &amp;" " &amp;"""" &amp;B325 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D325" s="1" t="str">
         <f aca="false">IF(ISBLANK(A325),"",C325)</f>
         <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C326" s="1" t="str">
-        <f aca="false">A326 &amp;" " &amp;"""" &amp;B326 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D326" s="1" t="str">
         <f aca="false">IF(ISBLANK(A326),"",C326)</f>
         <v/>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C327" s="1" t="str">
-        <f aca="false">A327 &amp;" " &amp;"""" &amp;B327 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D327" s="1" t="str">
         <f aca="false">IF(ISBLANK(A327),"",C327)</f>
         <v/>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C328" s="1" t="str">
-        <f aca="false">A328 &amp;" " &amp;"""" &amp;B328 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D328" s="1" t="str">
         <f aca="false">IF(ISBLANK(A328),"",C328)</f>
         <v/>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C329" s="1" t="str">
-        <f aca="false">A329 &amp;" " &amp;"""" &amp;B329 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D329" s="1" t="str">
         <f aca="false">IF(ISBLANK(A329),"",C329)</f>
         <v/>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C330" s="1" t="str">
-        <f aca="false">A330 &amp;" " &amp;"""" &amp;B330 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D330" s="1" t="str">
         <f aca="false">IF(ISBLANK(A330),"",C330)</f>
         <v/>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C331" s="1" t="str">
-        <f aca="false">A331 &amp;" " &amp;"""" &amp;B331 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D331" s="1" t="str">
         <f aca="false">IF(ISBLANK(A331),"",C331)</f>
         <v/>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C332" s="1" t="str">
-        <f aca="false">A332 &amp;" " &amp;"""" &amp;B332 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D332" s="1" t="str">
         <f aca="false">IF(ISBLANK(A332),"",C332)</f>
         <v/>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C333" s="1" t="str">
-        <f aca="false">A333 &amp;" " &amp;"""" &amp;B333 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D333" s="1" t="str">
         <f aca="false">IF(ISBLANK(A333),"",C333)</f>
         <v/>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C334" s="1" t="str">
-        <f aca="false">A334 &amp;" " &amp;"""" &amp;B334 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D334" s="1" t="str">
         <f aca="false">IF(ISBLANK(A334),"",C334)</f>
         <v/>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C335" s="1" t="str">
-        <f aca="false">A335 &amp;" " &amp;"""" &amp;B335 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D335" s="1" t="str">
         <f aca="false">IF(ISBLANK(A335),"",C335)</f>
         <v/>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C336" s="1" t="str">
-        <f aca="false">A336 &amp;" " &amp;"""" &amp;B336 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D336" s="1" t="str">
         <f aca="false">IF(ISBLANK(A336),"",C336)</f>
         <v/>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="1" t="str">
-        <f aca="false">A337 &amp;" " &amp;"""" &amp;B337 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D337" s="1" t="str">
         <f aca="false">IF(ISBLANK(A337),"",C337)</f>
         <v/>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="1" t="str">
-        <f aca="false">A338 &amp;" " &amp;"""" &amp;B338 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D338" s="1" t="str">
         <f aca="false">IF(ISBLANK(A338),"",C338)</f>
         <v/>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C339" s="1" t="str">
-        <f aca="false">A339 &amp;" " &amp;"""" &amp;B339 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D339" s="1" t="str">
         <f aca="false">IF(ISBLANK(A339),"",C339)</f>
         <v/>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C340" s="1" t="str">
-        <f aca="false">A340 &amp;" " &amp;"""" &amp;B340 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D340" s="1" t="str">
         <f aca="false">IF(ISBLANK(A340),"",C340)</f>
         <v/>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="1" t="str">
-        <f aca="false">A341 &amp;" " &amp;"""" &amp;B341 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D341" s="1" t="str">
         <f aca="false">IF(ISBLANK(A341),"",C341)</f>
         <v/>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="1" t="str">
-        <f aca="false">A342 &amp;" " &amp;"""" &amp;B342 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D342" s="1" t="str">
         <f aca="false">IF(ISBLANK(A342),"",C342)</f>
         <v/>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C343" s="1" t="str">
-        <f aca="false">A343 &amp;" " &amp;"""" &amp;B343 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D343" s="1" t="str">
         <f aca="false">IF(ISBLANK(A343),"",C343)</f>
         <v/>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C344" s="1" t="str">
-        <f aca="false">A344 &amp;" " &amp;"""" &amp;B344 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D344" s="1" t="str">
         <f aca="false">IF(ISBLANK(A344),"",C344)</f>
         <v/>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C345" s="1" t="str">
-        <f aca="false">A345 &amp;" " &amp;"""" &amp;B345 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D345" s="1" t="str">
         <f aca="false">IF(ISBLANK(A345),"",C345)</f>
         <v/>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C346" s="1" t="str">
-        <f aca="false">A346 &amp;" " &amp;"""" &amp;B346 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D346" s="1" t="str">
         <f aca="false">IF(ISBLANK(A346),"",C346)</f>
         <v/>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C347" s="1" t="str">
-        <f aca="false">A347 &amp;" " &amp;"""" &amp;B347 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D347" s="1" t="str">
         <f aca="false">IF(ISBLANK(A347),"",C347)</f>
         <v/>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C348" s="1" t="str">
-        <f aca="false">A348 &amp;" " &amp;"""" &amp;B348 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D348" s="1" t="str">
         <f aca="false">IF(ISBLANK(A348),"",C348)</f>
         <v/>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C349" s="1" t="str">
-        <f aca="false">A349 &amp;" " &amp;"""" &amp;B349 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D349" s="1" t="str">
         <f aca="false">IF(ISBLANK(A349),"",C349)</f>
         <v/>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C350" s="1" t="str">
-        <f aca="false">A350 &amp;" " &amp;"""" &amp;B350 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D350" s="1" t="str">
         <f aca="false">IF(ISBLANK(A350),"",C350)</f>
         <v/>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C351" s="1" t="str">
-        <f aca="false">A351 &amp;" " &amp;"""" &amp;B351 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D351" s="1" t="str">
         <f aca="false">IF(ISBLANK(A351),"",C351)</f>
         <v/>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C352" s="1" t="str">
-        <f aca="false">A352 &amp;" " &amp;"""" &amp;B352 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D352" s="1" t="str">
         <f aca="false">IF(ISBLANK(A352),"",C352)</f>
         <v/>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C353" s="1" t="str">
-        <f aca="false">A353 &amp;" " &amp;"""" &amp;B353 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D353" s="1" t="str">
         <f aca="false">IF(ISBLANK(A353),"",C353)</f>
         <v/>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C354" s="1" t="str">
-        <f aca="false">A354 &amp;" " &amp;"""" &amp;B354 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D354" s="1" t="str">
         <f aca="false">IF(ISBLANK(A354),"",C354)</f>
         <v/>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C355" s="1" t="str">
-        <f aca="false">A355 &amp;" " &amp;"""" &amp;B355 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D355" s="1" t="str">
         <f aca="false">IF(ISBLANK(A355),"",C355)</f>
         <v/>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C356" s="1" t="str">
-        <f aca="false">A356 &amp;" " &amp;"""" &amp;B356 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D356" s="1" t="str">
         <f aca="false">IF(ISBLANK(A356),"",C356)</f>
         <v/>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="1" t="str">
-        <f aca="false">A357 &amp;" " &amp;"""" &amp;B357 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D357" s="1" t="str">
         <f aca="false">IF(ISBLANK(A357),"",C357)</f>
         <v/>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="1" t="str">
-        <f aca="false">A358 &amp;" " &amp;"""" &amp;B358 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D358" s="1" t="str">
         <f aca="false">IF(ISBLANK(A358),"",C358)</f>
         <v/>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="1" t="str">
-        <f aca="false">A359 &amp;" " &amp;"""" &amp;B359 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D359" s="1" t="str">
         <f aca="false">IF(ISBLANK(A359),"",C359)</f>
         <v/>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C360" s="1" t="str">
-        <f aca="false">A360 &amp;" " &amp;"""" &amp;B360 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D360" s="1" t="str">
         <f aca="false">IF(ISBLANK(A360),"",C360)</f>
         <v/>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="1" t="str">
-        <f aca="false">A361 &amp;" " &amp;"""" &amp;B361 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D361" s="1" t="str">
         <f aca="false">IF(ISBLANK(A361),"",C361)</f>
         <v/>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="1" t="str">
-        <f aca="false">A362 &amp;" " &amp;"""" &amp;B362 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D362" s="1" t="str">
         <f aca="false">IF(ISBLANK(A362),"",C362)</f>
         <v/>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="1" t="str">
-        <f aca="false">A363 &amp;" " &amp;"""" &amp;B363 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D363" s="1" t="str">
         <f aca="false">IF(ISBLANK(A363),"",C363)</f>
         <v/>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C364" s="1" t="str">
-        <f aca="false">A364 &amp;" " &amp;"""" &amp;B364 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D364" s="1" t="str">
         <f aca="false">IF(ISBLANK(A364),"",C364)</f>
         <v/>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C365" s="1" t="str">
-        <f aca="false">A365 &amp;" " &amp;"""" &amp;B365 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D365" s="1" t="str">
         <f aca="false">IF(ISBLANK(A365),"",C365)</f>
         <v/>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C366" s="1" t="str">
-        <f aca="false">A366 &amp;" " &amp;"""" &amp;B366 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D366" s="1" t="str">
         <f aca="false">IF(ISBLANK(A366),"",C366)</f>
         <v/>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="1" t="str">
-        <f aca="false">A367 &amp;" " &amp;"""" &amp;B367 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D367" s="1" t="str">
         <f aca="false">IF(ISBLANK(A367),"",C367)</f>
         <v/>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C368" s="1" t="str">
-        <f aca="false">A368 &amp;" " &amp;"""" &amp;B368 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D368" s="1" t="str">
         <f aca="false">IF(ISBLANK(A368),"",C368)</f>
         <v/>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C369" s="1" t="str">
-        <f aca="false">A369 &amp;" " &amp;"""" &amp;B369 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D369" s="1" t="str">
         <f aca="false">IF(ISBLANK(A369),"",C369)</f>
         <v/>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C370" s="1" t="str">
-        <f aca="false">A370 &amp;" " &amp;"""" &amp;B370 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D370" s="1" t="str">
         <f aca="false">IF(ISBLANK(A370),"",C370)</f>
         <v/>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C371" s="1" t="str">
-        <f aca="false">A371 &amp;" " &amp;"""" &amp;B371 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D371" s="1" t="str">
         <f aca="false">IF(ISBLANK(A371),"",C371)</f>
         <v/>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="1" t="str">
-        <f aca="false">A372 &amp;" " &amp;"""" &amp;B372 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D372" s="1" t="str">
         <f aca="false">IF(ISBLANK(A372),"",C372)</f>
         <v/>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C373" s="1" t="str">
-        <f aca="false">A373 &amp;" " &amp;"""" &amp;B373 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D373" s="1" t="str">
         <f aca="false">IF(ISBLANK(A373),"",C373)</f>
         <v/>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C374" s="1" t="str">
-        <f aca="false">A374 &amp;" " &amp;"""" &amp;B374 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D374" s="1" t="str">
         <f aca="false">IF(ISBLANK(A374),"",C374)</f>
         <v/>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C375" s="1" t="str">
-        <f aca="false">A375 &amp;" " &amp;"""" &amp;B375 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D375" s="1" t="str">
         <f aca="false">IF(ISBLANK(A375),"",C375)</f>
         <v/>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C376" s="1" t="str">
-        <f aca="false">A376 &amp;" " &amp;"""" &amp;B376 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D376" s="1" t="str">
         <f aca="false">IF(ISBLANK(A376),"",C376)</f>
         <v/>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C377" s="1" t="str">
-        <f aca="false">A377 &amp;" " &amp;"""" &amp;B377 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D377" s="1" t="str">
         <f aca="false">IF(ISBLANK(A377),"",C377)</f>
         <v/>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C378" s="1" t="str">
-        <f aca="false">A378 &amp;" " &amp;"""" &amp;B378 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D378" s="1" t="str">
         <f aca="false">IF(ISBLANK(A378),"",C378)</f>
         <v/>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C379" s="1" t="str">
-        <f aca="false">A379 &amp;" " &amp;"""" &amp;B379 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D379" s="1" t="str">
         <f aca="false">IF(ISBLANK(A379),"",C379)</f>
         <v/>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C380" s="1" t="str">
-        <f aca="false">A380 &amp;" " &amp;"""" &amp;B380 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D380" s="1" t="str">
         <f aca="false">IF(ISBLANK(A380),"",C380)</f>
         <v/>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C381" s="1" t="str">
-        <f aca="false">A381 &amp;" " &amp;"""" &amp;B381 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D381" s="1" t="str">
         <f aca="false">IF(ISBLANK(A381),"",C381)</f>
         <v/>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C382" s="1" t="str">
-        <f aca="false">A382 &amp;" " &amp;"""" &amp;B382 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D382" s="1" t="str">
         <f aca="false">IF(ISBLANK(A382),"",C382)</f>
         <v/>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C383" s="1" t="str">
-        <f aca="false">A383 &amp;" " &amp;"""" &amp;B383 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D383" s="1" t="str">
         <f aca="false">IF(ISBLANK(A383),"",C383)</f>
         <v/>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C384" s="1" t="str">
-        <f aca="false">A384 &amp;" " &amp;"""" &amp;B384 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D384" s="1" t="str">
         <f aca="false">IF(ISBLANK(A384),"",C384)</f>
         <v/>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C385" s="1" t="str">
-        <f aca="false">A385 &amp;" " &amp;"""" &amp;B385 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D385" s="1" t="str">
         <f aca="false">IF(ISBLANK(A385),"",C385)</f>
         <v/>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C386" s="1" t="str">
-        <f aca="false">A386 &amp;" " &amp;"""" &amp;B386 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D386" s="1" t="str">
         <f aca="false">IF(ISBLANK(A386),"",C386)</f>
         <v/>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C387" s="1" t="str">
-        <f aca="false">A387 &amp;" " &amp;"""" &amp;B387 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D387" s="1" t="str">
         <f aca="false">IF(ISBLANK(A387),"",C387)</f>
         <v/>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C388" s="1" t="str">
-        <f aca="false">A388 &amp;" " &amp;"""" &amp;B388 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D388" s="1" t="str">
         <f aca="false">IF(ISBLANK(A388),"",C388)</f>
         <v/>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C389" s="1" t="str">
-        <f aca="false">A389 &amp;" " &amp;"""" &amp;B389 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D389" s="1" t="str">
         <f aca="false">IF(ISBLANK(A389),"",C389)</f>
         <v/>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C390" s="1" t="str">
-        <f aca="false">A390 &amp;" " &amp;"""" &amp;B390 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D390" s="1" t="str">
         <f aca="false">IF(ISBLANK(A390),"",C390)</f>
         <v/>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C391" s="1" t="str">
-        <f aca="false">A391 &amp;" " &amp;"""" &amp;B391 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D391" s="1" t="str">
         <f aca="false">IF(ISBLANK(A391),"",C391)</f>
         <v/>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C392" s="1" t="str">
-        <f aca="false">A392 &amp;" " &amp;"""" &amp;B392 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D392" s="1" t="str">
         <f aca="false">IF(ISBLANK(A392),"",C392)</f>
         <v/>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C393" s="1" t="str">
-        <f aca="false">A393 &amp;" " &amp;"""" &amp;B393 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D393" s="1" t="str">
         <f aca="false">IF(ISBLANK(A393),"",C393)</f>
         <v/>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="1" t="str">
-        <f aca="false">A394 &amp;" " &amp;"""" &amp;B394 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D394" s="1" t="str">
         <f aca="false">IF(ISBLANK(A394),"",C394)</f>
         <v/>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="1" t="str">
-        <f aca="false">A395 &amp;" " &amp;"""" &amp;B395 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D395" s="1" t="str">
         <f aca="false">IF(ISBLANK(A395),"",C395)</f>
         <v/>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="1" t="str">
-        <f aca="false">A396 &amp;" " &amp;"""" &amp;B396 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D396" s="1" t="str">
         <f aca="false">IF(ISBLANK(A396),"",C396)</f>
         <v/>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="1" t="str">
-        <f aca="false">A397 &amp;" " &amp;"""" &amp;B397 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D397" s="1" t="str">
         <f aca="false">IF(ISBLANK(A397),"",C397)</f>
         <v/>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="1" t="str">
-        <f aca="false">A398 &amp;" " &amp;"""" &amp;B398 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D398" s="1" t="str">
         <f aca="false">IF(ISBLANK(A398),"",C398)</f>
         <v/>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="1" t="str">
-        <f aca="false">A399 &amp;" " &amp;"""" &amp;B399 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D399" s="1" t="str">
         <f aca="false">IF(ISBLANK(A399),"",C399)</f>
         <v/>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="1" t="str">
-        <f aca="false">A400 &amp;" " &amp;"""" &amp;B400 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D400" s="1" t="str">
         <f aca="false">IF(ISBLANK(A400),"",C400)</f>
         <v/>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="1" t="str">
-        <f aca="false">A401 &amp;" " &amp;"""" &amp;B401 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D401" s="1" t="str">
         <f aca="false">IF(ISBLANK(A401),"",C401)</f>
         <v/>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="1" t="str">
-        <f aca="false">A402 &amp;" " &amp;"""" &amp;B402 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D402" s="1" t="str">
         <f aca="false">IF(ISBLANK(A402),"",C402)</f>
         <v/>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="1" t="str">
-        <f aca="false">A403 &amp;" " &amp;"""" &amp;B403 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D403" s="1" t="str">
         <f aca="false">IF(ISBLANK(A403),"",C403)</f>
         <v/>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="1" t="str">
-        <f aca="false">A404 &amp;" " &amp;"""" &amp;B404 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D404" s="1" t="str">
         <f aca="false">IF(ISBLANK(A404),"",C404)</f>
         <v/>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="1" t="str">
-        <f aca="false">A405 &amp;" " &amp;"""" &amp;B405 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D405" s="1" t="str">
         <f aca="false">IF(ISBLANK(A405),"",C405)</f>
         <v/>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="1" t="str">
-        <f aca="false">A406 &amp;" " &amp;"""" &amp;B406 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D406" s="1" t="str">
         <f aca="false">IF(ISBLANK(A406),"",C406)</f>
         <v/>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="1" t="str">
-        <f aca="false">A407 &amp;" " &amp;"""" &amp;B407 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D407" s="1" t="str">
         <f aca="false">IF(ISBLANK(A407),"",C407)</f>
         <v/>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="1" t="str">
-        <f aca="false">A408 &amp;" " &amp;"""" &amp;B408 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D408" s="1" t="str">
         <f aca="false">IF(ISBLANK(A408),"",C408)</f>
         <v/>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="1" t="str">
-        <f aca="false">A409 &amp;" " &amp;"""" &amp;B409 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D409" s="1" t="str">
         <f aca="false">IF(ISBLANK(A409),"",C409)</f>
         <v/>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="1" t="str">
-        <f aca="false">A410 &amp;" " &amp;"""" &amp;B410 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D410" s="1" t="str">
         <f aca="false">IF(ISBLANK(A410),"",C410)</f>
         <v/>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="1" t="str">
-        <f aca="false">A411 &amp;" " &amp;"""" &amp;B411 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D411" s="1" t="str">
         <f aca="false">IF(ISBLANK(A411),"",C411)</f>
         <v/>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="1" t="str">
-        <f aca="false">A412 &amp;" " &amp;"""" &amp;B412 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D412" s="1" t="str">
         <f aca="false">IF(ISBLANK(A412),"",C412)</f>
         <v/>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="1" t="str">
-        <f aca="false">A413 &amp;" " &amp;"""" &amp;B413 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D413" s="1" t="str">
         <f aca="false">IF(ISBLANK(A413),"",C413)</f>
         <v/>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="1" t="str">
-        <f aca="false">A414 &amp;" " &amp;"""" &amp;B414 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D414" s="1" t="str">
         <f aca="false">IF(ISBLANK(A414),"",C414)</f>
         <v/>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="1" t="str">
-        <f aca="false">A415 &amp;" " &amp;"""" &amp;B415 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D415" s="1" t="str">
         <f aca="false">IF(ISBLANK(A415),"",C415)</f>
         <v/>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="1" t="str">
-        <f aca="false">A416 &amp;" " &amp;"""" &amp;B416 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D416" s="1" t="str">
         <f aca="false">IF(ISBLANK(A416),"",C416)</f>
         <v/>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="1" t="str">
-        <f aca="false">A417 &amp;" " &amp;"""" &amp;B417 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D417" s="1" t="str">
         <f aca="false">IF(ISBLANK(A417),"",C417)</f>
         <v/>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="1" t="str">
-        <f aca="false">A418 &amp;" " &amp;"""" &amp;B418 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D418" s="1" t="str">
         <f aca="false">IF(ISBLANK(A418),"",C418)</f>
         <v/>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="1" t="str">
-        <f aca="false">A419 &amp;" " &amp;"""" &amp;B419 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D419" s="1" t="str">
         <f aca="false">IF(ISBLANK(A419),"",C419)</f>
         <v/>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="1" t="str">
-        <f aca="false">A420 &amp;" " &amp;"""" &amp;B420 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D420" s="1" t="str">
         <f aca="false">IF(ISBLANK(A420),"",C420)</f>
         <v/>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="1" t="str">
-        <f aca="false">A421 &amp;" " &amp;"""" &amp;B421 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D421" s="1" t="str">
         <f aca="false">IF(ISBLANK(A421),"",C421)</f>
         <v/>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="1" t="str">
-        <f aca="false">A422 &amp;" " &amp;"""" &amp;B422 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D422" s="1" t="str">
         <f aca="false">IF(ISBLANK(A422),"",C422)</f>
         <v/>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="1" t="str">
-        <f aca="false">A423 &amp;" " &amp;"""" &amp;B423 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D423" s="1" t="str">
         <f aca="false">IF(ISBLANK(A423),"",C423)</f>
         <v/>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="1" t="str">
-        <f aca="false">A424 &amp;" " &amp;"""" &amp;B424 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D424" s="1" t="str">
         <f aca="false">IF(ISBLANK(A424),"",C424)</f>
         <v/>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="1" t="str">
-        <f aca="false">A425 &amp;" " &amp;"""" &amp;B425 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D425" s="1" t="str">
         <f aca="false">IF(ISBLANK(A425),"",C425)</f>
         <v/>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="1" t="str">
-        <f aca="false">A426 &amp;" " &amp;"""" &amp;B426 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D426" s="1" t="str">
         <f aca="false">IF(ISBLANK(A426),"",C426)</f>
         <v/>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="1" t="str">
-        <f aca="false">A427 &amp;" " &amp;"""" &amp;B427 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D427" s="1" t="str">
         <f aca="false">IF(ISBLANK(A427),"",C427)</f>
         <v/>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="1" t="str">
-        <f aca="false">A428 &amp;" " &amp;"""" &amp;B428 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D428" s="1" t="str">
         <f aca="false">IF(ISBLANK(A428),"",C428)</f>
         <v/>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="1" t="str">
-        <f aca="false">A429 &amp;" " &amp;"""" &amp;B429 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D429" s="1" t="str">
         <f aca="false">IF(ISBLANK(A429),"",C429)</f>
         <v/>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="1" t="str">
-        <f aca="false">A430 &amp;" " &amp;"""" &amp;B430 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D430" s="1" t="str">
         <f aca="false">IF(ISBLANK(A430),"",C430)</f>
         <v/>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="1" t="str">
-        <f aca="false">A431 &amp;" " &amp;"""" &amp;B431 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D431" s="1" t="str">
         <f aca="false">IF(ISBLANK(A431),"",C431)</f>
         <v/>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="1" t="str">
-        <f aca="false">A432 &amp;" " &amp;"""" &amp;B432 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D432" s="1" t="str">
         <f aca="false">IF(ISBLANK(A432),"",C432)</f>
         <v/>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="1" t="str">
-        <f aca="false">A433 &amp;" " &amp;"""" &amp;B433 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D433" s="1" t="str">
         <f aca="false">IF(ISBLANK(A433),"",C433)</f>
         <v/>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="1" t="str">
-        <f aca="false">A434 &amp;" " &amp;"""" &amp;B434 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D434" s="1" t="str">
         <f aca="false">IF(ISBLANK(A434),"",C434)</f>
         <v/>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="1" t="str">
-        <f aca="false">A435 &amp;" " &amp;"""" &amp;B435 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D435" s="1" t="str">
         <f aca="false">IF(ISBLANK(A435),"",C435)</f>
         <v/>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="1" t="str">
-        <f aca="false">A436 &amp;" " &amp;"""" &amp;B436 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D436" s="1" t="str">
         <f aca="false">IF(ISBLANK(A436),"",C436)</f>
         <v/>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="1" t="str">
-        <f aca="false">A437 &amp;" " &amp;"""" &amp;B437 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D437" s="1" t="str">
         <f aca="false">IF(ISBLANK(A437),"",C437)</f>
         <v/>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="1" t="str">
-        <f aca="false">A438 &amp;" " &amp;"""" &amp;B438 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D438" s="1" t="str">
         <f aca="false">IF(ISBLANK(A438),"",C438)</f>
         <v/>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="1" t="str">
-        <f aca="false">A439 &amp;" " &amp;"""" &amp;B439 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D439" s="1" t="str">
         <f aca="false">IF(ISBLANK(A439),"",C439)</f>
         <v/>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="1" t="str">
-        <f aca="false">A440 &amp;" " &amp;"""" &amp;B440 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D440" s="1" t="str">
         <f aca="false">IF(ISBLANK(A440),"",C440)</f>
         <v/>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="1" t="str">
-        <f aca="false">A441 &amp;" " &amp;"""" &amp;B441 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D441" s="1" t="str">
         <f aca="false">IF(ISBLANK(A441),"",C441)</f>
         <v/>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="1" t="str">
-        <f aca="false">A442 &amp;" " &amp;"""" &amp;B442 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D442" s="1" t="str">
         <f aca="false">IF(ISBLANK(A442),"",C442)</f>
         <v/>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="1" t="str">
-        <f aca="false">A443 &amp;" " &amp;"""" &amp;B443 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D443" s="1" t="str">
         <f aca="false">IF(ISBLANK(A443),"",C443)</f>
         <v/>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="1" t="str">
-        <f aca="false">A444 &amp;" " &amp;"""" &amp;B444 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D444" s="1" t="str">
         <f aca="false">IF(ISBLANK(A444),"",C444)</f>
         <v/>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="1" t="str">
-        <f aca="false">A445 &amp;" " &amp;"""" &amp;B445 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D445" s="1" t="str">
         <f aca="false">IF(ISBLANK(A445),"",C445)</f>
         <v/>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="1" t="str">
-        <f aca="false">A446 &amp;" " &amp;"""" &amp;B446 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D446" s="1" t="str">
         <f aca="false">IF(ISBLANK(A446),"",C446)</f>
         <v/>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="1" t="str">
-        <f aca="false">A447 &amp;" " &amp;"""" &amp;B447 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D447" s="1" t="str">
         <f aca="false">IF(ISBLANK(A447),"",C447)</f>
         <v/>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="1" t="str">
-        <f aca="false">A448 &amp;" " &amp;"""" &amp;B448 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D448" s="1" t="str">
         <f aca="false">IF(ISBLANK(A448),"",C448)</f>
         <v/>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="1" t="str">
-        <f aca="false">A449 &amp;" " &amp;"""" &amp;B449 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D449" s="1" t="str">
         <f aca="false">IF(ISBLANK(A449),"",C449)</f>
         <v/>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="1" t="str">
-        <f aca="false">A450 &amp;" " &amp;"""" &amp;B450 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D450" s="1" t="str">
         <f aca="false">IF(ISBLANK(A450),"",C450)</f>
         <v/>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="1" t="str">
-        <f aca="false">A451 &amp;" " &amp;"""" &amp;B451 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D451" s="1" t="str">
         <f aca="false">IF(ISBLANK(A451),"",C451)</f>
         <v/>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="1" t="str">
-        <f aca="false">A452 &amp;" " &amp;"""" &amp;B452 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D452" s="1" t="str">
         <f aca="false">IF(ISBLANK(A452),"",C452)</f>
         <v/>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="1" t="str">
-        <f aca="false">A453 &amp;" " &amp;"""" &amp;B453 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D453" s="1" t="str">
         <f aca="false">IF(ISBLANK(A453),"",C453)</f>
         <v/>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="1" t="str">
-        <f aca="false">A454 &amp;" " &amp;"""" &amp;B454 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D454" s="1" t="str">
         <f aca="false">IF(ISBLANK(A454),"",C454)</f>
         <v/>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="1" t="str">
-        <f aca="false">A455 &amp;" " &amp;"""" &amp;B455 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D455" s="1" t="str">
         <f aca="false">IF(ISBLANK(A455),"",C455)</f>
         <v/>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="1" t="str">
-        <f aca="false">A456 &amp;" " &amp;"""" &amp;B456 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D456" s="1" t="str">
         <f aca="false">IF(ISBLANK(A456),"",C456)</f>
         <v/>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="1" t="str">
-        <f aca="false">A457 &amp;" " &amp;"""" &amp;B457 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D457" s="1" t="str">
         <f aca="false">IF(ISBLANK(A457),"",C457)</f>
         <v/>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="1" t="str">
-        <f aca="false">A458 &amp;" " &amp;"""" &amp;B458 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D458" s="1" t="str">
         <f aca="false">IF(ISBLANK(A458),"",C458)</f>
         <v/>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="1" t="str">
-        <f aca="false">A459 &amp;" " &amp;"""" &amp;B459 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D459" s="1" t="str">
         <f aca="false">IF(ISBLANK(A459),"",C459)</f>
         <v/>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="1" t="str">
-        <f aca="false">A460 &amp;" " &amp;"""" &amp;B460 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D460" s="1" t="str">
         <f aca="false">IF(ISBLANK(A460),"",C460)</f>
         <v/>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="1" t="str">
-        <f aca="false">A461 &amp;" " &amp;"""" &amp;B461 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D461" s="1" t="str">
         <f aca="false">IF(ISBLANK(A461),"",C461)</f>
         <v/>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="1" t="str">
-        <f aca="false">A462 &amp;" " &amp;"""" &amp;B462 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D462" s="1" t="str">
         <f aca="false">IF(ISBLANK(A462),"",C462)</f>
         <v/>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="1" t="str">
-        <f aca="false">A463 &amp;" " &amp;"""" &amp;B463 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D463" s="1" t="str">
         <f aca="false">IF(ISBLANK(A463),"",C463)</f>
         <v/>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="1" t="str">
-        <f aca="false">A464 &amp;" " &amp;"""" &amp;B464 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D464" s="1" t="str">
         <f aca="false">IF(ISBLANK(A464),"",C464)</f>
         <v/>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="1" t="str">
-        <f aca="false">A465 &amp;" " &amp;"""" &amp;B465 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D465" s="1" t="str">
         <f aca="false">IF(ISBLANK(A465),"",C465)</f>
         <v/>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="1" t="str">
-        <f aca="false">A466 &amp;" " &amp;"""" &amp;B466 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D466" s="1" t="str">
         <f aca="false">IF(ISBLANK(A466),"",C466)</f>
         <v/>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="1" t="str">
-        <f aca="false">A467 &amp;" " &amp;"""" &amp;B467 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D467" s="1" t="str">
         <f aca="false">IF(ISBLANK(A467),"",C467)</f>
         <v/>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="1" t="str">
-        <f aca="false">A468 &amp;" " &amp;"""" &amp;B468 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D468" s="1" t="str">
         <f aca="false">IF(ISBLANK(A468),"",C468)</f>
         <v/>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="1" t="str">
-        <f aca="false">A469 &amp;" " &amp;"""" &amp;B469 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D469" s="1" t="str">
         <f aca="false">IF(ISBLANK(A469),"",C469)</f>
         <v/>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="1" t="str">
-        <f aca="false">A470 &amp;" " &amp;"""" &amp;B470 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D470" s="1" t="str">
         <f aca="false">IF(ISBLANK(A470),"",C470)</f>
         <v/>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="1" t="str">
-        <f aca="false">A471 &amp;" " &amp;"""" &amp;B471 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D471" s="1" t="str">
         <f aca="false">IF(ISBLANK(A471),"",C471)</f>
         <v/>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="1" t="str">
-        <f aca="false">A472 &amp;" " &amp;"""" &amp;B472 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D472" s="1" t="str">
         <f aca="false">IF(ISBLANK(A472),"",C472)</f>
         <v/>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="1" t="str">
-        <f aca="false">A473 &amp;" " &amp;"""" &amp;B473 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D473" s="1" t="str">
         <f aca="false">IF(ISBLANK(A473),"",C473)</f>
         <v/>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="1" t="str">
-        <f aca="false">A474 &amp;" " &amp;"""" &amp;B474 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D474" s="1" t="str">
         <f aca="false">IF(ISBLANK(A474),"",C474)</f>
         <v/>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="1" t="str">
-        <f aca="false">A475 &amp;" " &amp;"""" &amp;B475 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D475" s="1" t="str">
         <f aca="false">IF(ISBLANK(A475),"",C475)</f>
         <v/>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="1" t="str">
-        <f aca="false">A476 &amp;" " &amp;"""" &amp;B476 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D476" s="1" t="str">
         <f aca="false">IF(ISBLANK(A476),"",C476)</f>
         <v/>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="1" t="str">
-        <f aca="false">A477 &amp;" " &amp;"""" &amp;B477 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D477" s="1" t="str">
         <f aca="false">IF(ISBLANK(A477),"",C477)</f>
         <v/>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="1" t="str">
-        <f aca="false">A478 &amp;" " &amp;"""" &amp;B478 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D478" s="1" t="str">
         <f aca="false">IF(ISBLANK(A478),"",C478)</f>
         <v/>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="1" t="str">
-        <f aca="false">A479 &amp;" " &amp;"""" &amp;B479 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D479" s="1" t="str">
         <f aca="false">IF(ISBLANK(A479),"",C479)</f>
         <v/>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="1" t="str">
-        <f aca="false">A480 &amp;" " &amp;"""" &amp;B480 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D480" s="1" t="str">
         <f aca="false">IF(ISBLANK(A480),"",C480)</f>
         <v/>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="1" t="str">
-        <f aca="false">A481 &amp;" " &amp;"""" &amp;B481 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D481" s="1" t="str">
         <f aca="false">IF(ISBLANK(A481),"",C481)</f>
         <v/>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="1" t="str">
-        <f aca="false">A482 &amp;" " &amp;"""" &amp;B482 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D482" s="1" t="str">
         <f aca="false">IF(ISBLANK(A482),"",C482)</f>
         <v/>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="1" t="str">
-        <f aca="false">A483 &amp;" " &amp;"""" &amp;B483 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D483" s="1" t="str">
         <f aca="false">IF(ISBLANK(A483),"",C483)</f>
         <v/>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="1" t="str">
-        <f aca="false">A484 &amp;" " &amp;"""" &amp;B484 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D484" s="1" t="str">
         <f aca="false">IF(ISBLANK(A484),"",C484)</f>
         <v/>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="1" t="str">
-        <f aca="false">A485 &amp;" " &amp;"""" &amp;B485 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D485" s="1" t="str">
         <f aca="false">IF(ISBLANK(A485),"",C485)</f>
         <v/>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="1" t="str">
-        <f aca="false">A486 &amp;" " &amp;"""" &amp;B486 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D486" s="1" t="str">
         <f aca="false">IF(ISBLANK(A486),"",C486)</f>
         <v/>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="1" t="str">
-        <f aca="false">A487 &amp;" " &amp;"""" &amp;B487 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D487" s="1" t="str">
         <f aca="false">IF(ISBLANK(A487),"",C487)</f>
         <v/>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="1" t="str">
-        <f aca="false">A488 &amp;" " &amp;"""" &amp;B488 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D488" s="1" t="str">
         <f aca="false">IF(ISBLANK(A488),"",C488)</f>
         <v/>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="1" t="str">
-        <f aca="false">A489 &amp;" " &amp;"""" &amp;B489 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D489" s="1" t="str">
         <f aca="false">IF(ISBLANK(A489),"",C489)</f>
         <v/>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="1" t="str">
-        <f aca="false">A490 &amp;" " &amp;"""" &amp;B490 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D490" s="1" t="str">
         <f aca="false">IF(ISBLANK(A490),"",C490)</f>
         <v/>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="1" t="str">
-        <f aca="false">A491 &amp;" " &amp;"""" &amp;B491 &amp;""""</f>
-        <v>""</v>
-      </c>
       <c r="D491" s="1" t="str">
         <f aca="false">IF(ISBLANK(A491),"",C491)</f>
         <v/>

--- a/806209426/localisation/excel/bookmarks_l_german.xlsx
+++ b/806209426/localisation/excel/bookmarks_l_german.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t xml:space="preserve">l_german:</t>
   </si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t xml:space="preserve"> ## EOF ##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##</t>
   </si>
 </sst>
 </file>
@@ -278,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -306,12 +303,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -356,7 +347,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -366,10 +357,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -498,8 +485,8 @@
   </sheetPr>
   <dimension ref="A1:V499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -518,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A1),"",C1)</f>
+        <f aca="false">IF(OR(ISBLANK(A1),A1=" "),"",C1)</f>
         <v>l_german:</v>
       </c>
     </row>
@@ -534,7 +521,7 @@
         <v> BM_HISTORY_TITLE:0 "Kurze Geschichte"</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A2),"",C2)</f>
+        <f aca="false">IF(OR(ISBLANK(A2),A2=" "),"",C2)</f>
         <v> BM_HISTORY_TITLE:0 "Kurze Geschichte"</v>
       </c>
     </row>
@@ -550,7 +537,7 @@
         <v> GATHERING_STORM_NAME:0 "Total War Mod"</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A3),"",C3)</f>
+        <f aca="false">IF(OR(ISBLANK(A3),A3=" "),"",C3)</f>
         <v> GATHERING_STORM_NAME:0 "Total War Mod"</v>
       </c>
     </row>
@@ -566,7 +553,7 @@
         <v> GATHERING_STORM_DESC:0 "Dunkle Zeiten stehen bevor. In Europa hat Hitler seine Macht gefestigt, und seine Aufmerksamkeit richtet sich nun zunehmend auf die Länder außerhalb Deutschlands. Mussolinis Italien stürzt sich weiterhin in waghalsige militärische Abenteuer, während das Kaiserreich Japan bereit ist, China in Asien anzugreifen. Fast zwanzig Jahre sind seit dem Ende des Ersten Weltkriegs vergangen, und die Welt ist wieder einmal mit Benzin übergossen worden. Ein einziger Funke könnte alles sein, was es braucht."</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A4),"",C4)</f>
+        <f aca="false">IF(OR(ISBLANK(A4),A4=" "),"",C4)</f>
         <v> GATHERING_STORM_DESC:0 "Dunkle Zeiten stehen bevor. In Europa hat Hitler seine Macht gefestigt, und seine Aufmerksamkeit richtet sich nun zunehmend auf die Länder außerhalb Deutschlands. Mussolinis Italien stürzt sich weiterhin in waghalsige militärische Abenteuer, während das Kaiserreich Japan bereit ist, China in Asien anzugreifen. Fast zwanzig Jahre sind seit dem Ende des Ersten Weltkriegs vergangen, und die Welt ist wieder einmal mit Benzin übergossen worden. Ein einziger Funke könnte alles sein, was es braucht."</v>
       </c>
     </row>
@@ -582,7 +569,7 @@
         <v> HITTING_FAN_NAME:0 "Das Einschlagen des Ventilators"</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A5),"",C5)</f>
+        <f aca="false">IF(OR(ISBLANK(A5),A5=" "),"",C5)</f>
         <v> HITTING_FAN_NAME:0 "Das Einschlagen des Ventilators"</v>
       </c>
     </row>
@@ -598,7 +585,7 @@
         <v> HITTING_FAN_DESC:0 "Jawohl, das stimmt! Die Regenschirmsammlung wird sich bald als sehr nützlich erweisen."</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A6),"",C6)</f>
+        <f aca="false">IF(OR(ISBLANK(A6),A6=" "),"",C6)</f>
         <v> HITTING_FAN_DESC:0 "Jawohl, das stimmt! Die Regenschirmsammlung wird sich bald als sehr nützlich erweisen."</v>
       </c>
     </row>
@@ -614,7 +601,7 @@
         <v> ENG_GATHERING_STORM_DESC:0 "Obwohl das Vereinigte Königreich aus dem Ersten Weltkrieg siegreich hervorging, wurde das Fundament seines großen Reiches in seinen Grundfesten erschüttert. Eine Generation der Besten des Landes ging in den Schützengräben Flanderns und Nordfrankreichs verloren, während sich im gesamten Commonwealth Unruhen ausbreiteten und massive Schulden angehäuft wurden.\n\nDas Trauma des letzten Krieges ist noch in frischer Erinnerung, und das Land steht nun vor der Aussicht auf einen weiteren. Es wird immer deutlicher, dass es keinen Frieden für unsere Zeit geben wird."</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A7),"",C7)</f>
+        <f aca="false">IF(OR(ISBLANK(A7),A7=" "),"",C7)</f>
         <v> ENG_GATHERING_STORM_DESC:0 "Obwohl das Vereinigte Königreich aus dem Ersten Weltkrieg siegreich hervorging, wurde das Fundament seines großen Reiches in seinen Grundfesten erschüttert. Eine Generation der Besten des Landes ging in den Schützengräben Flanderns und Nordfrankreichs verloren, während sich im gesamten Commonwealth Unruhen ausbreiteten und massive Schulden angehäuft wurden.\n\nDas Trauma des letzten Krieges ist noch in frischer Erinnerung, und das Land steht nun vor der Aussicht auf einen weiteren. Es wird immer deutlicher, dass es keinen Frieden für unsere Zeit geben wird."</v>
       </c>
     </row>
@@ -630,7 +617,7 @@
         <v> FRA_GATHERING_STORM_DESC:0 "Trotz der verheerenden Folgen des Ersten Weltkriegs ist Frankreich dank seiner starken Wirtschaft auf dem Weg der Besserung. Die Depression hat das Land jedoch immer noch im Griff, und das neue deutsche Regime hat kein Interesse daran, die im Versailler Vertrag festgelegten Reparationszahlungen zu leisten. Als der Vertrag unterzeichnet wurde, bemerkte ein französischer Marschall, dass es sich nicht um Frieden, sondern um einen Waffenstillstand von 20 Jahren handele. Diese 20 Jahre laufen nun rasch ab."</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A8),"",C8)</f>
+        <f aca="false">IF(OR(ISBLANK(A8),A8=" "),"",C8)</f>
         <v> FRA_GATHERING_STORM_DESC:0 "Trotz der verheerenden Folgen des Ersten Weltkriegs ist Frankreich dank seiner starken Wirtschaft auf dem Weg der Besserung. Die Depression hat das Land jedoch immer noch im Griff, und das neue deutsche Regime hat kein Interesse daran, die im Versailler Vertrag festgelegten Reparationszahlungen zu leisten. Als der Vertrag unterzeichnet wurde, bemerkte ein französischer Marschall, dass es sich nicht um Frieden, sondern um einen Waffenstillstand von 20 Jahren handele. Diese 20 Jahre laufen nun rasch ab."</v>
       </c>
     </row>
@@ -646,7 +633,7 @@
         <v> GER_GATHERING_STORM_DESC:0 "Ein neues Deutschland ist auferstanden. Drei Jahre sind vergangen, seit die Weimarer Republik zerschlagen und durch Hitlers Drittes Reich ersetzt wurde. Nach den schwierigen Jahren der Weltwirtschaftskrise ist die wirtschaftliche Stabilität zurückgekehrt, und die Massenarbeitslosigkeit ist beseitigt. Die militärischen Einschränkungen, die Deutschland durch den Versailler Vertrag auferlegt wurden, sind längst vergessen, und die Wehrmacht wird von Tag zu Tag stärker. Ein weiterer Weltkrieg zeichnet sich ab."</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A9),"",C9)</f>
+        <f aca="false">IF(OR(ISBLANK(A9),A9=" "),"",C9)</f>
         <v> GER_GATHERING_STORM_DESC:0 "Ein neues Deutschland ist auferstanden. Drei Jahre sind vergangen, seit die Weimarer Republik zerschlagen und durch Hitlers Drittes Reich ersetzt wurde. Nach den schwierigen Jahren der Weltwirtschaftskrise ist die wirtschaftliche Stabilität zurückgekehrt, und die Massenarbeitslosigkeit ist beseitigt. Die militärischen Einschränkungen, die Deutschland durch den Versailler Vertrag auferlegt wurden, sind längst vergessen, und die Wehrmacht wird von Tag zu Tag stärker. Ein weiterer Weltkrieg zeichnet sich ab."</v>
       </c>
     </row>
@@ -662,7 +649,7 @@
         <v> ITA_GATHERING_STORM_DESC:0 "Mit dem Aufstieg des Faschismus ist Italien in eine neue glorreiche Ära eingetreten. Seine Streitkräfte sind gerade dabei, das wachsende italienische Kolonialreich um Äthiopien zu erweitern, doch Mussolinis Ehrgeiz ist noch lange nicht gestillt.\n\nDie Herrschaft über das Mittelmeer war schon immer Italiens Bestimmung, und in Europa zeichnet sich eine neue Ordnung der Dinge ab. Wenn die Flutwelle des Wandels anrollt, muss Italien einen Platz an ihrer Spitze finden oder riskieren, mitgerissen zu werden."</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A10),"",C10)</f>
+        <f aca="false">IF(OR(ISBLANK(A10),A10=" "),"",C10)</f>
         <v> ITA_GATHERING_STORM_DESC:0 "Mit dem Aufstieg des Faschismus ist Italien in eine neue glorreiche Ära eingetreten. Seine Streitkräfte sind gerade dabei, das wachsende italienische Kolonialreich um Äthiopien zu erweitern, doch Mussolinis Ehrgeiz ist noch lange nicht gestillt.\n\nDie Herrschaft über das Mittelmeer war schon immer Italiens Bestimmung, und in Europa zeichnet sich eine neue Ordnung der Dinge ab. Wenn die Flutwelle des Wandels anrollt, muss Italien einen Platz an ihrer Spitze finden oder riskieren, mitgerissen zu werden."</v>
       </c>
     </row>
@@ -678,7 +665,7 @@
         <v> JAP_GATHERING_STORM_DESC:0 "Das japanische Kaiserreich steht an einem Scheideweg. Hokushin-ron, die nördliche Expansionsdoktrin, wird von der Armee favorisiert und fordert einen Vorstoß nach Sibirien. Nanshin-ron, die südliche Expansionsdoktrin, wird von der Marine unterstützt und hat die reichen europäischen Kolonien in Südostasien und im Pazifik zum Ziel. \Und dann ist da natürlich immer noch China. Japan verfügt über ein beeindruckendes Militär, aber seine Industrie leidet unter Ressourcenmangel und die Zeit wird knapp. Welchen Weg soll man wählen?"</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A11),"",C11)</f>
+        <f aca="false">IF(OR(ISBLANK(A11),A11=" "),"",C11)</f>
         <v> JAP_GATHERING_STORM_DESC:0 "Das japanische Kaiserreich steht an einem Scheideweg. Hokushin-ron, die nördliche Expansionsdoktrin, wird von der Armee favorisiert und fordert einen Vorstoß nach Sibirien. Nanshin-ron, die südliche Expansionsdoktrin, wird von der Marine unterstützt und hat die reichen europäischen Kolonien in Südostasien und im Pazifik zum Ziel. \Und dann ist da natürlich immer noch China. Japan verfügt über ein beeindruckendes Militär, aber seine Industrie leidet unter Ressourcenmangel und die Zeit wird knapp. Welchen Weg soll man wählen?"</v>
       </c>
     </row>
@@ -694,7 +681,7 @@
         <v> SOV_GATHERING_STORM_DESC:0 "Als sich der Staub nach dem Russischen Bürgerkrieg gelegt hatte, war die UdSSR zum unangefochtenen Herrscher über den größten Teil des ehemaligen Russischen Reiches geworden. Es folgten eine rasche Industrialisierung und Kollektivierung, die oft viele Menschenleben kostete. \Die Sowjetunion sieht sich nun mit der Bedrohung durch ein wiedererstarktes Deutschland im Westen und ein kriegerisches Japan im Osten konfrontiert. Natürlich gibt es auch interne Bedrohungen in den Reihen der Kommunistischen Partei, mit denen man sich auseinandersetzen muss..."</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A12),"",C12)</f>
+        <f aca="false">IF(OR(ISBLANK(A12),A12=" "),"",C12)</f>
         <v> SOV_GATHERING_STORM_DESC:0 "Als sich der Staub nach dem Russischen Bürgerkrieg gelegt hatte, war die UdSSR zum unangefochtenen Herrscher über den größten Teil des ehemaligen Russischen Reiches geworden. Es folgten eine rasche Industrialisierung und Kollektivierung, die oft viele Menschenleben kostete. \Die Sowjetunion sieht sich nun mit der Bedrohung durch ein wiedererstarktes Deutschland im Westen und ein kriegerisches Japan im Osten konfrontiert. Natürlich gibt es auch interne Bedrohungen in den Reihen der Kommunistischen Partei, mit denen man sich auseinandersetzen muss..."</v>
       </c>
     </row>
@@ -710,7 +697,7 @@
         <v> SPR_GATHERING_STORM_DESC:0 "Die Spanische Republik steht an einem Scheideweg. Innere Instabilität und radikale Gruppen bedrohen das Überleben der Republik. Die nächsten Wahlen werden zweifellos die Zukunft der Nation für die nächsten Jahrzehnte bestimmen."</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A13),"",C13)</f>
+        <f aca="false">IF(OR(ISBLANK(A13),A13=" "),"",C13)</f>
         <v> SPR_GATHERING_STORM_DESC:0 "Die Spanische Republik steht an einem Scheideweg. Innere Instabilität und radikale Gruppen bedrohen das Überleben der Republik. Die nächsten Wahlen werden zweifellos die Zukunft der Nation für die nächsten Jahrzehnte bestimmen."</v>
       </c>
     </row>
@@ -726,7 +713,7 @@
         <v> USA_GATHERING_STORM_DESC:0 "Die Vereinigten Staaten zogen sich nach dem Ende des letzten Krieges in die Isolation zurück und erlebten in den Roaring Twenties eine Zeit des wirtschaftlichen Wohlstands. Dies fand ein dramatisches Ende, als die Nation von der Großen Depression erfasst wurde.\n\Amerikas Politik der Nichteinmischung in ausländische Kriege hat sich bewährt, aber die Spannungen in Europa und Asien nehmen zu. Der "große Neutrale" könnte in den Strudel hineingezogen werden, ob er will oder nicht."</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A14),"",C14)</f>
+        <f aca="false">IF(OR(ISBLANK(A14),A14=" "),"",C14)</f>
         <v> USA_GATHERING_STORM_DESC:0 "Die Vereinigten Staaten zogen sich nach dem Ende des letzten Krieges in die Isolation zurück und erlebten in den Roaring Twenties eine Zeit des wirtschaftlichen Wohlstands. Dies fand ein dramatisches Ende, als die Nation von der Großen Depression erfasst wurde.\n\Amerikas Politik der Nichteinmischung in ausländische Kriege hat sich bewährt, aber die Spannungen in Europa und Asien nehmen zu. Der "große Neutrale" könnte in den Strudel hineingezogen werden, ob er will oder nicht."</v>
       </c>
     </row>
@@ -742,7 +729,7 @@
         <v> OTHER_GATHERING_STORM_DESC:0 "Die Nationen der Welt, ob groß oder klein, sind nicht alle bereit, den Atem anzuhalten und auf den Ausbruch eines neuen globalen Konflikts zu warten. Von den Großmächten, die am Rande eines Bürgerkriegs stehen, bis hin zu den vielen Nationen, die der Große Krieg geformt und verändert hat, müssen alle schwierige Entscheidungen treffen und Ideale mit Pragmatismus abwägen, um die Zukunft der Welt zu beeinflussen."</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A15),"",C15)</f>
+        <f aca="false">IF(OR(ISBLANK(A15),A15=" "),"",C15)</f>
         <v> OTHER_GATHERING_STORM_DESC:0 "Die Nationen der Welt, ob groß oder klein, sind nicht alle bereit, den Atem anzuhalten und auf den Ausbruch eines neuen globalen Konflikts zu warten. Von den Großmächten, die am Rande eines Bürgerkriegs stehen, bis hin zu den vielen Nationen, die der Große Krieg geformt und verändert hat, müssen alle schwierige Entscheidungen treffen und Ideale mit Pragmatismus abwägen, um die Zukunft der Welt zu beeinflussen."</v>
       </c>
     </row>
@@ -750,7 +737,7 @@
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="1" t="str">
@@ -758,7 +745,7 @@
         <v> POL_GATHERING_STORM_DESC:1 "Nach Jahrhunderten, in denen die polnische Nation auf drei Reiche aufgeteilt war, ist Polen nun wieder unabhängig. Aber seine Position ist nicht einfach. \Im Osten hat die Sowjetunion die demütigende Niederlage im polnisch-sowjetischen Krieg nicht vergessen. \n\nIm Westen macht der deutsche Führer Adolf Hitler keinen Hehl aus seinem Wunsch nach mehr "Lebensraum" - und dass die ehemaligen deutschen Gebiete, die jetzt unter polnischer Kontrolle stehen, der erste Schritt zur Verwirklichung dieses Wunsches sein werden."</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A16),"",C16)</f>
+        <f aca="false">IF(OR(ISBLANK(A16),A16=" "),"",C16)</f>
         <v> POL_GATHERING_STORM_DESC:1 "Nach Jahrhunderten, in denen die polnische Nation auf drei Reiche aufgeteilt war, ist Polen nun wieder unabhängig. Aber seine Position ist nicht einfach. \Im Osten hat die Sowjetunion die demütigende Niederlage im polnisch-sowjetischen Krieg nicht vergessen. \n\nIm Westen macht der deutsche Führer Adolf Hitler keinen Hehl aus seinem Wunsch nach mehr "Lebensraum" - und dass die ehemaligen deutschen Gebiete, die jetzt unter polnischer Kontrolle stehen, der erste Schritt zur Verwirklichung dieses Wunsches sein werden."</v>
       </c>
       <c r="E16" s="2"/>
@@ -792,7 +779,7 @@
         <v> HUN_GATHERING_STORM_DESC:0 "Ungarn, die eine Hälfte der ehemaligen österreichisch-ungarischen Monarchie, wurde von der siegreichen Entente nach dem Ersten Weltkrieg wie ein besiegter Feind behandelt. Mit dem Vertrag von Trianon verlor das Land fast zwei Drittel seines Territoriums. Millionen ethnischer Ungarn lebten außerhalb der Landesgrenzen, und die Wirtschaft des Landes lag in Trümmern. Strenge Aufrüstungsbeschränkungen sollten sicherstellen, dass Ungarn nie wieder den Frieden in Europa gefährden konnte. \Doch mit der Veränderung des politischen Klimas in Europa könnte die Zeit gekommen sein, die Fehler der Vergangenheit endlich wiedergutzumachen und den einstigen Ruhm der Nation wiederzuerlangen."</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A17),"",C17)</f>
+        <f aca="false">IF(OR(ISBLANK(A17),A17=" "),"",C17)</f>
         <v> HUN_GATHERING_STORM_DESC:0 "Ungarn, die eine Hälfte der ehemaligen österreichisch-ungarischen Monarchie, wurde von der siegreichen Entente nach dem Ersten Weltkrieg wie ein besiegter Feind behandelt. Mit dem Vertrag von Trianon verlor das Land fast zwei Drittel seines Territoriums. Millionen ethnischer Ungarn lebten außerhalb der Landesgrenzen, und die Wirtschaft des Landes lag in Trümmern. Strenge Aufrüstungsbeschränkungen sollten sicherstellen, dass Ungarn nie wieder den Frieden in Europa gefährden konnte. \Doch mit der Veränderung des politischen Klimas in Europa könnte die Zeit gekommen sein, die Fehler der Vergangenheit endlich wiedergutzumachen und den einstigen Ruhm der Nation wiederzuerlangen."</v>
       </c>
     </row>
@@ -808,7 +795,7 @@
         <v> ROM_GATHERING_STORM_DESC:0 "Rumänien befand sich auf der Gewinnerseite des Ersten Weltkriegs und gewann infolgedessen neue Gebiete und Menschen hinzu - nicht alle davon waren Rumänen. Um sich gegen die revanchistischen Bestrebungen der Länder zu schützen, die gezwungen waren, Land abzutreten, hat Rumänien ein Netz von Bündnissen auf dem gesamten Balkan geknüpft. In den letzten Jahren hat sich das Land jedoch hauptsächlich um innenpolitische Angelegenheiten gekümmert, und die Regierung von König Carol II. hat diese Bündnisse verfallen lassen. \Wenn sich die politische Lage in Europa ändert, steht Rumänien möglicherweise alleine da - und ist verwundbar."</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A18),"",C18)</f>
+        <f aca="false">IF(OR(ISBLANK(A18),A18=" "),"",C18)</f>
         <v> ROM_GATHERING_STORM_DESC:0 "Rumänien befand sich auf der Gewinnerseite des Ersten Weltkriegs und gewann infolgedessen neue Gebiete und Menschen hinzu - nicht alle davon waren Rumänen. Um sich gegen die revanchistischen Bestrebungen der Länder zu schützen, die gezwungen waren, Land abzutreten, hat Rumänien ein Netz von Bündnissen auf dem gesamten Balkan geknüpft. In den letzten Jahren hat sich das Land jedoch hauptsächlich um innenpolitische Angelegenheiten gekümmert, und die Regierung von König Carol II. hat diese Bündnisse verfallen lassen. \Wenn sich die politische Lage in Europa ändert, steht Rumänien möglicherweise alleine da - und ist verwundbar."</v>
       </c>
     </row>
@@ -824,7 +811,7 @@
         <v> CZE_GATHERING_STORM_DESC:0 "Während des Ersten Weltkriegs kämpften tschechische Truppen in ganz Europa an der Seite der Entente, um die Anerkennung ihrer Nation zu sichern. Ihre Bemühungen waren erfolgreich, und die Tschechoslowakei erhob sich aus der Asche der österreichisch-ungarischen Monarchie. \Seit ihrem explosiven Eintritt in die Staatlichkeit bildete die Tschechoslowakei zusammen mit Jugoslawien und Rumänien das Bündnis der "Kleinen Entente" mit dem Ziel, Ungarns Bemühungen um die Wiederherstellung Österreich-Ungarns zu unterdrücken."</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A19),"",C19)</f>
+        <f aca="false">IF(OR(ISBLANK(A19),A19=" "),"",C19)</f>
         <v> CZE_GATHERING_STORM_DESC:0 "Während des Ersten Weltkriegs kämpften tschechische Truppen in ganz Europa an der Seite der Entente, um die Anerkennung ihrer Nation zu sichern. Ihre Bemühungen waren erfolgreich, und die Tschechoslowakei erhob sich aus der Asche der österreichisch-ungarischen Monarchie. \Seit ihrem explosiven Eintritt in die Staatlichkeit bildete die Tschechoslowakei zusammen mit Jugoslawien und Rumänien das Bündnis der "Kleinen Entente" mit dem Ziel, Ungarns Bemühungen um die Wiederherstellung Österreich-Ungarns zu unterdrücken."</v>
       </c>
     </row>
@@ -840,7 +827,7 @@
         <v> #BUL_GATHERING_STORM_DESC:0 "Bulgarien fand sich auf der Verliererseite des Großen Krieges wieder. Was auch immer vom dritten bulgarischen Reich übrig geblieben war, wurde von den Alliierten Mächten und ihrer erzwungenen Entmilitarisierung Bulgariens zerstört. Zusätzlich zu den Forderungen der Westmächte legten auch die anderen Balkanländer Bulgarien Beschränkungen auf.  \Im Gegensatz zu Österreich, Deutschland und Ungarn hielt sich Bulgarien jedoch an die Friedensauflagen der Alliierten Mächte."</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A20),"",C20)</f>
+        <f aca="false">IF(OR(ISBLANK(A20),A20=" "),"",C20)</f>
         <v> #BUL_GATHERING_STORM_DESC:0 "Bulgarien fand sich auf der Verliererseite des Großen Krieges wieder. Was auch immer vom dritten bulgarischen Reich übrig geblieben war, wurde von den Alliierten Mächten und ihrer erzwungenen Entmilitarisierung Bulgariens zerstört. Zusätzlich zu den Forderungen der Westmächte legten auch die anderen Balkanländer Bulgarien Beschränkungen auf.  \Im Gegensatz zu Österreich, Deutschland und Ungarn hielt sich Bulgarien jedoch an die Friedensauflagen der Alliierten Mächte."</v>
       </c>
     </row>
@@ -856,7 +843,7 @@
         <v> YUG_GATHERING_STORM_DESC:0 "Jugoslawien entstand nach dem Zusammenschluss des neuen Königreichs der Serben, Kroaten und Slowenen mit dem zuvor unabhängigen Königreich Serbien im Jahr 1922. Ursprünglich schloss sich Jugoslawien sowohl der Kleinen Entente als auch dem Balkanpakt an, um seine Unabhängigkeit zu sichern, doch in jüngster Zeit führte die Ermordung von König Alexander in Verbindung mit dem wachsenden internen Druck von Nationalisten und dem externen Druck von Italien und Deutschland zu drastischen Umwälzungen und einer Neubewertung der politischen und strategischen Position des Landes."</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A21),"",C21)</f>
+        <f aca="false">IF(OR(ISBLANK(A21),A21=" "),"",C21)</f>
         <v> YUG_GATHERING_STORM_DESC:0 "Jugoslawien entstand nach dem Zusammenschluss des neuen Königreichs der Serben, Kroaten und Slowenen mit dem zuvor unabhängigen Königreich Serbien im Jahr 1922. Ursprünglich schloss sich Jugoslawien sowohl der Kleinen Entente als auch dem Balkanpakt an, um seine Unabhängigkeit zu sichern, doch in jüngster Zeit führte die Ermordung von König Alexander in Verbindung mit dem wachsenden internen Druck von Nationalisten und dem externen Druck von Italien und Deutschland zu drastischen Umwälzungen und einer Neubewertung der politischen und strategischen Position des Landes."</v>
       </c>
     </row>
@@ -872,7 +859,7 @@
         <v> CAN_GATHERING_STORM_DESC:0 "Kanada trat in den Großen Krieg als bloße Kolonie ein und verließ ihn als Nation. Geboren im Schlamm von Passchendaele, macht Kanada nun seine ersten unsicheren Schritte auf der Weltbühne. \Von der Weltwirtschaftskrise gebeutelt und mit internen Spaltungen zwischen Anglophonen und Frankophonen, sieht die Zukunft dieser neuen Nation alles andere als sicher aus."</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A22),"",C22)</f>
+        <f aca="false">IF(OR(ISBLANK(A22),A22=" "),"",C22)</f>
         <v> CAN_GATHERING_STORM_DESC:0 "Kanada trat in den Großen Krieg als bloße Kolonie ein und verließ ihn als Nation. Geboren im Schlamm von Passchendaele, macht Kanada nun seine ersten unsicheren Schritte auf der Weltbühne. \Von der Weltwirtschaftskrise gebeutelt und mit internen Spaltungen zwischen Anglophonen und Frankophonen, sieht die Zukunft dieser neuen Nation alles andere als sicher aus."</v>
       </c>
     </row>
@@ -888,7 +875,7 @@
         <v> AST_GATHERING_STORM_DESC:0 "Die Australier haben sich ihren Platz in den Geschichtsbüchern des Großen Krieges mit Blut verdient. Die im Gallipolli-Feldzug erbrachten Opfer sind nicht vergessen - und auch nicht diejenigen, die ihn befohlen haben. \n\nAustralien steht nun am Scheideweg: Soll es bei seinem Kolonialherrn bleiben und in einen weiteren Konflikt im fernen Europa hineingezogen werden, oder soll es sich auf die Bedrohungen konzentrieren, die näher an der Heimat auftauchen?"</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A23),"",C23)</f>
+        <f aca="false">IF(OR(ISBLANK(A23),A23=" "),"",C23)</f>
         <v> AST_GATHERING_STORM_DESC:0 "Die Australier haben sich ihren Platz in den Geschichtsbüchern des Großen Krieges mit Blut verdient. Die im Gallipolli-Feldzug erbrachten Opfer sind nicht vergessen - und auch nicht diejenigen, die ihn befohlen haben. \n\nAustralien steht nun am Scheideweg: Soll es bei seinem Kolonialherrn bleiben und in einen weiteren Konflikt im fernen Europa hineingezogen werden, oder soll es sich auf die Bedrohungen konzentrieren, die näher an der Heimat auftauchen?"</v>
       </c>
     </row>
@@ -904,7 +891,7 @@
         <v> SAF_GATHERING_STORM_DESC:0 "Als der Große Krieg begann, weigerten sich viele Südafrikaner, für ihre britischen Herren zu den Waffen zu greifen. Das südafrikanische Militär verbrachte die meiste Zeit des Ersten Weltkriegs damit, deutsche Truppen in den afrikanischen Kolonien zu jagen - mit begrenztem Erfolg. \Nun zeichnet sich ein neuer Krieg am Horizont ab. Damals wie heute gibt es in Südafrika einige, die der Meinung sind, dass das Land überhaupt nicht gegen die Deutschen kämpfen sollte. Manche glauben sogar, dass die Zeit für die Nachfahren der Buren gekommen ist, um die Freiheit zu fordern, die ihren Vorfahren verwehrt wurde."</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A24),"",C24)</f>
+        <f aca="false">IF(OR(ISBLANK(A24),A24=" "),"",C24)</f>
         <v> SAF_GATHERING_STORM_DESC:0 "Als der Große Krieg begann, weigerten sich viele Südafrikaner, für ihre britischen Herren zu den Waffen zu greifen. Das südafrikanische Militär verbrachte die meiste Zeit des Ersten Weltkriegs damit, deutsche Truppen in den afrikanischen Kolonien zu jagen - mit begrenztem Erfolg. \Nun zeichnet sich ein neuer Krieg am Horizont ab. Damals wie heute gibt es in Südafrika einige, die der Meinung sind, dass das Land überhaupt nicht gegen die Deutschen kämpfen sollte. Manche glauben sogar, dass die Zeit für die Nachfahren der Buren gekommen ist, um die Freiheit zu fordern, die ihren Vorfahren verwehrt wurde."</v>
       </c>
     </row>
@@ -920,7 +907,7 @@
         <v> SWE_GATHERING_STORM_DESC:0 "Schweden ist eine voll industrialisierte Nation in Nordeuropa. Sein Volk, das von den berüchtigten Wikingerkriegern abstammt, wird als das germanische Ideal für Deutschland angesehen. Schweden blieb im Großen Krieg neutral, hat aber in der "Stormaktstid", als Schweden baltische und deutsche Gebiete besaß, imperiale Ambitionen entwickelt. Sollte Schweden wieder neutral bleiben oder seine gut geölte zivile Wirtschaft riskieren?"</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A25),"",C25)</f>
+        <f aca="false">IF(OR(ISBLANK(A25),A25=" "),"",C25)</f>
         <v> SWE_GATHERING_STORM_DESC:0 "Schweden ist eine voll industrialisierte Nation in Nordeuropa. Sein Volk, das von den berüchtigten Wikingerkriegern abstammt, wird als das germanische Ideal für Deutschland angesehen. Schweden blieb im Großen Krieg neutral, hat aber in der "Stormaktstid", als Schweden baltische und deutsche Gebiete besaß, imperiale Ambitionen entwickelt. Sollte Schweden wieder neutral bleiben oder seine gut geölte zivile Wirtschaft riskieren?"</v>
       </c>
       <c r="E25" s="2"/>
@@ -954,7 +941,7 @@
         <v> FIN_GATHERING_STORM_DESC:0 "Die finnische Republik blickt nervös nach Osten. Trotz einer gesunden Erholung von der "Großen Depression" beginnen sich die diplomatischen Beziehungen zum russischen Bären zu verschlechtern. Es gibt Gerüchte, dass in der ehemaligen finnisch-karelischen Region das Blut finnischer Zivilisten vergossen wird.\n\nUnsere winzige Nation ist den mächtigen Sowjets im Konfliktfall nicht gewachsen. Aber vielleicht können wir ihnen trotzdem eine blutige Nase verpassen und vielleicht willige Verbündete finden, die uns unterstützen?"</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A26),"",C26)</f>
+        <f aca="false">IF(OR(ISBLANK(A26),A26=" "),"",C26)</f>
         <v> FIN_GATHERING_STORM_DESC:0 "Die finnische Republik blickt nervös nach Osten. Trotz einer gesunden Erholung von der "Großen Depression" beginnen sich die diplomatischen Beziehungen zum russischen Bären zu verschlechtern. Es gibt Gerüchte, dass in der ehemaligen finnisch-karelischen Region das Blut finnischer Zivilisten vergossen wird.\n\nUnsere winzige Nation ist den mächtigen Sowjets im Konfliktfall nicht gewachsen. Aber vielleicht können wir ihnen trotzdem eine blutige Nase verpassen und vielleicht willige Verbündete finden, die uns unterstützen?"</v>
       </c>
     </row>
@@ -970,7 +957,7 @@
         <v> NZL_GATHERING_STORM_DESC:0 "Die winzige Nation im Südpazifik hat im Ersten Weltkrieg tapfer gekämpft und in den blutigen Schlachten bei Gallipoli und an der Westfront hohe Verluste erlitten. Fast die Hälfte der Männer im kampffähigen Alter hatte in den Kämpfen in Übersee gedient, und viele kehrten nicht zurück. Etwa zwanzig Jahre nach dem Ende des Großen Krieges blickt das neuseeländische Volk ängstlich auf die Weltbühne, denn dieses Mal scheint die Kriegsgefahr immer näher an die eigene Heimat heranzurücken..."</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A27),"",C27)</f>
+        <f aca="false">IF(OR(ISBLANK(A27),A27=" "),"",C27)</f>
         <v> NZL_GATHERING_STORM_DESC:0 "Die winzige Nation im Südpazifik hat im Ersten Weltkrieg tapfer gekämpft und in den blutigen Schlachten bei Gallipoli und an der Westfront hohe Verluste erlitten. Fast die Hälfte der Männer im kampffähigen Alter hatte in den Kämpfen in Übersee gedient, und viele kehrten nicht zurück. Etwa zwanzig Jahre nach dem Ende des Großen Krieges blickt das neuseeländische Volk ängstlich auf die Weltbühne, denn dieses Mal scheint die Kriegsgefahr immer näher an die eigene Heimat heranzurücken..."</v>
       </c>
     </row>
@@ -986,7 +973,7 @@
         <v> RAJ_GATHERING_STORM_DESC:0 "Das Raj von Indien, das Kronjuwel des britischen Empire, ist eine seltsame Kombination aus imperialer Macht und imperialer Ohnmacht. Eine winzige Elite britischer Beamter herrscht über einen riesigen Subkontinent mit Hunderten von Millionen von Untertanen. Aus ihren Reihen rekrutiert sich die indische Armee, die im Großen Krieg tapfer gekämpft hat. Die indische Führung hoffte, dass die im letzten Krieg erbrachten Opfer Indien helfen würden, seine Unabhängigkeit von Großbritannien zu erlangen, aber bisher wurde diese Hoffnung enttäuscht. Jetzt, da ein neuer Krieg droht, glauben viele, dass die Zeit gekommen ist, sich diese Freiheit zu nehmen - mit allen Mitteln."</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A28),"",C28)</f>
+        <f aca="false">IF(OR(ISBLANK(A28),A28=" "),"",C28)</f>
         <v> RAJ_GATHERING_STORM_DESC:0 "Das Raj von Indien, das Kronjuwel des britischen Empire, ist eine seltsame Kombination aus imperialer Macht und imperialer Ohnmacht. Eine winzige Elite britischer Beamter herrscht über einen riesigen Subkontinent mit Hunderten von Millionen von Untertanen. Aus ihren Reihen rekrutiert sich die indische Armee, die im Großen Krieg tapfer gekämpft hat. Die indische Führung hoffte, dass die im letzten Krieg erbrachten Opfer Indien helfen würden, seine Unabhängigkeit von Großbritannien zu erlangen, aber bisher wurde diese Hoffnung enttäuscht. Jetzt, da ein neuer Krieg droht, glauben viele, dass die Zeit gekommen ist, sich diese Freiheit zu nehmen - mit allen Mitteln."</v>
       </c>
     </row>
@@ -1002,7 +989,7 @@
         <v> #TUR_GATHERING_STORM_DESC:0 "Obwohl die Türkei ihr Reich durch einen jahrzehntelangen Krieg verlor, fand sie schließlich mit der Ausrufung der Republik zu Frieden und Ruhe. Durch die wirtschaftlichen, sozialen und politischen Revolutionen wandten sich die Türken dem Westen zu und erlebten große Veränderungen und Entwicklungsfortschritte. Nach dem Prinzip "Frieden im eigenen Land, Frieden in der Welt" wurde die Friedens- und Freundschaftspolitik mit allen Nachbarstaaten fortgesetzt und die Militärausgaben eingeschränkt, was die Türkei zwar zu einer wertvollen diplomatischen Macht machte, aber als Nebeneffekt auch dazu führte, dass die türkische Armee im Sinne von technologisch schlecht ausgerüstet wurde. Dennoch ist die türkische Armee immer noch eine abschreckende Kraft."</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A29),"",C29)</f>
+        <f aca="false">IF(OR(ISBLANK(A29),A29=" "),"",C29)</f>
         <v> #TUR_GATHERING_STORM_DESC:0 "Obwohl die Türkei ihr Reich durch einen jahrzehntelangen Krieg verlor, fand sie schließlich mit der Ausrufung der Republik zu Frieden und Ruhe. Durch die wirtschaftlichen, sozialen und politischen Revolutionen wandten sich die Türken dem Westen zu und erlebten große Veränderungen und Entwicklungsfortschritte. Nach dem Prinzip "Frieden im eigenen Land, Frieden in der Welt" wurde die Friedens- und Freundschaftspolitik mit allen Nachbarstaaten fortgesetzt und die Militärausgaben eingeschränkt, was die Türkei zwar zu einer wertvollen diplomatischen Macht machte, aber als Nebeneffekt auch dazu führte, dass die türkische Armee im Sinne von technologisch schlecht ausgerüstet wurde. Dennoch ist die türkische Armee immer noch eine abschreckende Kraft."</v>
       </c>
     </row>
@@ -1018,7 +1005,7 @@
         <v> MEXICO_GATHERING_STORM_DESC:0 "Mexiko hatte nach dem Sturz des Tyrannen Porfirio Díaz zwei Jahrzehnte lang mit Bürgerkriegen zu kämpfen. Zentralisten kämpften gegen Regionalisten, Bauern und Sozialisten gegen Hazienda-Grundbesitzer, und die Kämpfe um die Rolle des Staates gegenüber der Religion kamen aus den Annalen der Aufklärung, um Mexiko zu terrorisieren.\n\n Die säkularistische Regierung besteht darauf, dass sie diese Kämpfe gewonnen hat, aber sie sitzt auf einem Thron aus Trümmern. Wenn Mexiko wiederaufgebaut ist, wird vielleicht ein anderer Sieger hervorgehen."</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A30),"",C30)</f>
+        <f aca="false">IF(OR(ISBLANK(A30),A30=" "),"",C30)</f>
         <v> MEXICO_GATHERING_STORM_DESC:0 "Mexiko hatte nach dem Sturz des Tyrannen Porfirio Díaz zwei Jahrzehnte lang mit Bürgerkriegen zu kämpfen. Zentralisten kämpften gegen Regionalisten, Bauern und Sozialisten gegen Hazienda-Grundbesitzer, und die Kämpfe um die Rolle des Staates gegenüber der Religion kamen aus den Annalen der Aufklärung, um Mexiko zu terrorisieren.\n\n Die säkularistische Regierung besteht darauf, dass sie diese Kämpfe gewonnen hat, aber sie sitzt auf einem Thron aus Trümmern. Wenn Mexiko wiederaufgebaut ist, wird vielleicht ein anderer Sieger hervorgehen."</v>
       </c>
     </row>
@@ -1034,7 +1021,7 @@
         <v> POR_GATHERING_STORM_DESC:0 "Die von António de Oliveira Salazar geführte Zweite Portugiesische Republik ist ein leicht faschistischer, korporatistischer Staat, der von einem Einparteienregime geführt wird.\n\nDa sein einziger Nachbar auf einen Bürgerkrieg zuzusteuern scheint, stellt sich die Frage, wie dieses Land reagieren wird, wenn an seinen Grenzen ein weiterer Krieg ausbricht. "</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A31),"",C31)</f>
+        <f aca="false">IF(OR(ISBLANK(A31),A31=" "),"",C31)</f>
         <v> POR_GATHERING_STORM_DESC:0 "Die von António de Oliveira Salazar geführte Zweite Portugiesische Republik ist ein leicht faschistischer, korporatistischer Staat, der von einem Einparteienregime geführt wird.\n\nDa sein einziger Nachbar auf einen Bürgerkrieg zuzusteuern scheint, stellt sich die Frage, wie dieses Land reagieren wird, wenn an seinen Grenzen ein weiterer Krieg ausbricht. "</v>
       </c>
     </row>
@@ -1050,7 +1037,7 @@
         <v> MAN_GATHERING_STORM_DESC:0 "Puyi, der letzte chinesische Kaiser, der im Alter von sechs Jahren vom Drachenthron gestoßen wurde, hat seine Zeit abgewartet. Während sein früheres Reich im chinesischen Bürgerkrieg zerrissen wurde, fand Puyi in Japan neue Verbündete. Für Puyi war die Gründung des Reiches Mandschukuo im Jahr 1932 nur der erste Schritt auf dem Weg, sein angestammtes Geburtsrecht zurückzuerlangen. Im Moment ist er von der japanischen Armee abhängig, um seine Herrschaft aufrechtzuerhalten, aber mit der Zeit könnte sich eine Gelegenheit ergeben, die Fesseln der Knechtschaft abzuwerfen und das zu werden, wozu er geboren wurde..."</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A32),"",C32)</f>
+        <f aca="false">IF(OR(ISBLANK(A32),A32=" "),"",C32)</f>
         <v> MAN_GATHERING_STORM_DESC:0 "Puyi, der letzte chinesische Kaiser, der im Alter von sechs Jahren vom Drachenthron gestoßen wurde, hat seine Zeit abgewartet. Während sein früheres Reich im chinesischen Bürgerkrieg zerrissen wurde, fand Puyi in Japan neue Verbündete. Für Puyi war die Gründung des Reiches Mandschukuo im Jahr 1932 nur der erste Schritt auf dem Weg, sein angestammtes Geburtsrecht zurückzuerlangen. Im Moment ist er von der japanischen Armee abhängig, um seine Herrschaft aufrechtzuerhalten, aber mit der Zeit könnte sich eine Gelegenheit ergeben, die Fesseln der Knechtschaft abzuwerfen und das zu werden, wozu er geboren wurde..."</v>
       </c>
     </row>
@@ -1066,7 +1053,7 @@
         <v> NETHERLANDS_GATHERING_STORM_DESC:0 "Die niederländische Regierung beobachtet die zunehmenden globalen Spannungen mit Sorge. Aufgrund ihrer kränkelnden Wirtschaft, einer mächtigen pazifistischen Bewegung und ihres festen Glaubens an die Neutralität, der potenzielle Verbündete vergrault, sind sie nicht in der Lage, ihre Verteidigung angemessen vorzubereiten. Gleichzeitig bedeutet die Bedeutung der Niederlande als Tor zum Handel auf dem Kontinent, dass sowohl die Briten als auch die Deutschen eine niederländische "Kooperation" wünschen, um den jeweils anderen auszubremsen, und eine Ablehnung als Grund für Feindseligkeit nehmen könnten. Vielleicht ist der Rückzug in die Kolonien das einzig mögliche Mittel, um sich einer solchen Invasion zu widersetzen..."</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A33),"",C33)</f>
+        <f aca="false">IF(OR(ISBLANK(A33),A33=" "),"",C33)</f>
         <v> NETHERLANDS_GATHERING_STORM_DESC:0 "Die niederländische Regierung beobachtet die zunehmenden globalen Spannungen mit Sorge. Aufgrund ihrer kränkelnden Wirtschaft, einer mächtigen pazifistischen Bewegung und ihres festen Glaubens an die Neutralität, der potenzielle Verbündete vergrault, sind sie nicht in der Lage, ihre Verteidigung angemessen vorzubereiten. Gleichzeitig bedeutet die Bedeutung der Niederlande als Tor zum Handel auf dem Kontinent, dass sowohl die Briten als auch die Deutschen eine niederländische "Kooperation" wünschen, um den jeweils anderen auszubremsen, und eine Ablehnung als Grund für Feindseligkeit nehmen könnten. Vielleicht ist der Rückzug in die Kolonien das einzig mögliche Mittel, um sich einer solchen Invasion zu widersetzen..."</v>
       </c>
     </row>
@@ -1082,7 +1069,7 @@
         <v> SPAIN_GATHERING_STORM_DESC:0 "In den ersten fünf Jahren ihres Bestehens hatte die junge Zweite Spanische Republik bereits mit Streiks, einem Militärputschversuch und einem großen revolutionären Aufstand zu kämpfen. Obwohl sie diese Herausforderungen überstanden hat, ist die spanische Gesellschaft weiterhin von politischer Polarisierung und Gewalt zwischen Anarchisten, Kommunisten und Falangisten geprägt. Beide Seiten blicken hoffnungsvoll auf die bevorstehenden Parlamentswahlen von 1936, aber es ist unwahrscheinlich, dass der Sieg einer der beiden Seiten eine Rückkehr zur Stabilität bringen wird. Und während die Gewalt weitergeht, wartet das Militär ab und schmiedet Pläne..."</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A34),"",C34)</f>
+        <f aca="false">IF(OR(ISBLANK(A34),A34=" "),"",C34)</f>
         <v> SPAIN_GATHERING_STORM_DESC:0 "In den ersten fünf Jahren ihres Bestehens hatte die junge Zweite Spanische Republik bereits mit Streiks, einem Militärputschversuch und einem großen revolutionären Aufstand zu kämpfen. Obwohl sie diese Herausforderungen überstanden hat, ist die spanische Gesellschaft weiterhin von politischer Polarisierung und Gewalt zwischen Anarchisten, Kommunisten und Falangisten geprägt. Beide Seiten blicken hoffnungsvoll auf die bevorstehenden Parlamentswahlen von 1936, aber es ist unwahrscheinlich, dass der Sieg einer der beiden Seiten eine Rückkehr zur Stabilität bringen wird. Und während die Gewalt weitergeht, wartet das Militär ab und schmiedet Pläne..."</v>
       </c>
     </row>
@@ -1098,7 +1085,7 @@
         <v> SPAIN_BLITZKRIEG_DESC:0 "Der Bürgerkrieg, der das Land in den letzten drei Jahren verwüstet hat, ist endlich zu Ende. Unter der Führung Francos müssen die Sieger nun dafür sorgen, dass sich Spanien erholt, die letzten Widerstandsnester beseitigt und die durch den Krieg entstandenen Gräben überwunden werden. Die Zeit ist jedoch nicht unbegrenzt, da die Welt insgesamt ihren unaufhaltsamen Marsch in einen zweifellos noch größeren und blutigeren Krieg fortsetzt. Wenn Spanien sich behaupten will, geschweige denn die Früchte der Chancen dieses kommenden Konflikts ernten will, muss es seine Industrie und sein Militär unverzüglich vorbereiten."</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A35),"",C35)</f>
+        <f aca="false">IF(OR(ISBLANK(A35),A35=" "),"",C35)</f>
         <v> SPAIN_BLITZKRIEG_DESC:0 "Der Bürgerkrieg, der das Land in den letzten drei Jahren verwüstet hat, ist endlich zu Ende. Unter der Führung Francos müssen die Sieger nun dafür sorgen, dass sich Spanien erholt, die letzten Widerstandsnester beseitigt und die durch den Krieg entstandenen Gräben überwunden werden. Die Zeit ist jedoch nicht unbegrenzt, da die Welt insgesamt ihren unaufhaltsamen Marsch in einen zweifellos noch größeren und blutigeren Krieg fortsetzt. Wenn Spanien sich behaupten will, geschweige denn die Früchte der Chancen dieses kommenden Konflikts ernten will, muss es seine Industrie und sein Militär unverzüglich vorbereiten."</v>
       </c>
     </row>
@@ -1114,7 +1101,7 @@
         <v> PORTUGAL_GATHERING_STORM_DESC:0 "Seit Salazars Machtübernahme im Jahr 1932 hat sich Portugal allmählich von der instabilen Zeit der Ersten Republik entfernt. Steuerliche Autonomie und politische Unabhängigkeit von den Großmächten führten zur Schaffung des Estado Novo und legten den Grundstein für die Entwicklung der portugiesischen Industrie und die Modernisierung der Armee. \n\Nun muss Portugal entscheiden, wie es weitergehen soll, da die politische und soziale Instabilität im benachbarten Spanien zunimmt und die internationalen Spannungen hoffnungslos zunehmen..."</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A36),"",C36)</f>
+        <f aca="false">IF(OR(ISBLANK(A36),A36=" "),"",C36)</f>
         <v> PORTUGAL_GATHERING_STORM_DESC:0 "Seit Salazars Machtübernahme im Jahr 1932 hat sich Portugal allmählich von der instabilen Zeit der Ersten Republik entfernt. Steuerliche Autonomie und politische Unabhängigkeit von den Großmächten führten zur Schaffung des Estado Novo und legten den Grundstein für die Entwicklung der portugiesischen Industrie und die Modernisierung der Armee. \n\Nun muss Portugal entscheiden, wie es weitergehen soll, da die politische und soziale Instabilität im benachbarten Spanien zunimmt und die internationalen Spannungen hoffnungslos zunehmen..."</v>
       </c>
     </row>
@@ -1130,7 +1117,7 @@
         <v> PORTUGAL_BLITZKRIEG_DESC:0 "Die konservative Regierung Salazar erlaubte Portugal, während des Spanischen Bürgerkriegs neutral zu bleiben, während sie die Nationalisten aktiv unterstützte und so die Niederlage der Kommunisten und Anarchisten sicherte. \n\nNun, da die Iberische Halbinsel endlich Stabilität gefunden hat, ist es an der Zeit, sich im Ausland nach potenziellen Verbündeten umzusehen und zu überlegen, welche Rolle Portugal in dem scheinbar unvermeidlichen weltweiten Konflikt spielen wird."</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A37),"",C37)</f>
+        <f aca="false">IF(OR(ISBLANK(A37),A37=" "),"",C37)</f>
         <v> PORTUGAL_BLITZKRIEG_DESC:0 "Die konservative Regierung Salazar erlaubte Portugal, während des Spanischen Bürgerkriegs neutral zu bleiben, während sie die Nationalisten aktiv unterstützte und so die Niederlage der Kommunisten und Anarchisten sicherte. \n\nNun, da die Iberische Halbinsel endlich Stabilität gefunden hat, ist es an der Zeit, sich im Ausland nach potenziellen Verbündeten umzusehen und zu überlegen, welche Rolle Portugal in dem scheinbar unvermeidlichen weltweiten Konflikt spielen wird."</v>
       </c>
     </row>
@@ -1146,7 +1133,7 @@
         <v> NOR_GATHERING_STORM_DESC:0 "Die frühen 1900er Jahre waren für Norwegen geradezu ein goldenes Zeitalter. Mit der Unabhängigkeit, dem Wirtschaftswachstum, der Erforschung der Polargebiete und der Ausdehnung der Territorien auf beiden Seiten des Globus hat das Königreich Norwegen der Welt seinen Stempel aufgedrückt. Doch nicht alles verlief reibungslos, denn Norwegens neutrale Handelsmarine erlitt während des Ersten Weltkriegs Verluste, und in jüngster Zeit hat die Weltwirtschaftskrise die Wirtschaft etwas zum Stillstand gebracht. Zwar hat die Wohlfahrtspolitik der von der Labour-Partei geführten Regierung versucht, die Probleme zu lindern, doch diese "Broken-Gun"-Politik mit geringeren Verteidigungsausgaben hat Norwegen in eine gewisse Gefahr gebracht..."</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A38),"",C38)</f>
+        <f aca="false">IF(OR(ISBLANK(A38),A38=" "),"",C38)</f>
         <v> NOR_GATHERING_STORM_DESC:0 "Die frühen 1900er Jahre waren für Norwegen geradezu ein goldenes Zeitalter. Mit der Unabhängigkeit, dem Wirtschaftswachstum, der Erforschung der Polargebiete und der Ausdehnung der Territorien auf beiden Seiten des Globus hat das Königreich Norwegen der Welt seinen Stempel aufgedrückt. Doch nicht alles verlief reibungslos, denn Norwegens neutrale Handelsmarine erlitt während des Ersten Weltkriegs Verluste, und in jüngster Zeit hat die Weltwirtschaftskrise die Wirtschaft etwas zum Stillstand gebracht. Zwar hat die Wohlfahrtspolitik der von der Labour-Partei geführten Regierung versucht, die Probleme zu lindern, doch diese "Broken-Gun"-Politik mit geringeren Verteidigungsausgaben hat Norwegen in eine gewisse Gefahr gebracht..."</v>
       </c>
       <c r="E38" s="2"/>
@@ -1172,7 +1159,7 @@
         <v> BUL_GATHERING_STORM_DESC:0 "Seit dem Befreiungskrieg von 1878 und der Ablehnung des San-Stefano-Vertrags durch die westlichen Demokratien hat Bulgarien eine lange Geschichte von Konflikten und Verrat auf dem Balkan erlebt. Als besiegtes Mitglied der Mittelmächte im Ersten Weltkrieg erlitt Bulgarien schwere territoriale Verluste, und der Vertrag von Neuilly-sur-Seine verhängte harte wirtschaftliche Sanktionen und strenge militärische Beschränkungen. \Angesichts der großen politischen und sozialen Veränderungen in Europa ist es für Bulgarien an der Zeit, seinen eigenen Weg zu gehen und seinen rechtmäßigen Platz auf dem Balkan zu finden."</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A39),"",C39)</f>
+        <f aca="false">IF(OR(ISBLANK(A39),A39=" "),"",C39)</f>
         <v> BUL_GATHERING_STORM_DESC:0 "Seit dem Befreiungskrieg von 1878 und der Ablehnung des San-Stefano-Vertrags durch die westlichen Demokratien hat Bulgarien eine lange Geschichte von Konflikten und Verrat auf dem Balkan erlebt. Als besiegtes Mitglied der Mittelmächte im Ersten Weltkrieg erlitt Bulgarien schwere territoriale Verluste, und der Vertrag von Neuilly-sur-Seine verhängte harte wirtschaftliche Sanktionen und strenge militärische Beschränkungen. \Angesichts der großen politischen und sozialen Veränderungen in Europa ist es für Bulgarien an der Zeit, seinen eigenen Weg zu gehen und seinen rechtmäßigen Platz auf dem Balkan zu finden."</v>
       </c>
     </row>
@@ -1188,7 +1175,7 @@
         <v> GRE_GATHERING_STORM_DESC:0 "Griechenland ist eine Nation in der Krise. Royalisten und Republikaner haben einen erbitterten Kampf um die Seele der Nation geführt, der 1935 in der Abschaffung der Zweiten Griechischen Republik endete. Der König, ein autokratischer Ausländer, bleibt eine höchst gespaltene Figur mit einer ungewissen Zukunft. \Abgelenkt durch kleinliche Innenpolitik hat man im Norden ein bösartiges und revanchistisches Bulgarien geduldet, während Griechenlands langjähriger Feind und neuer Verbündeter, die Türkei, im Osten eine politische Metamorphose durchmacht, ganz zu schweigen von dem rührenden Ungeheuer auf der anderen Seite der Adria..."</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A40),"",C40)</f>
+        <f aca="false">IF(OR(ISBLANK(A40),A40=" "),"",C40)</f>
         <v> GRE_GATHERING_STORM_DESC:0 "Griechenland ist eine Nation in der Krise. Royalisten und Republikaner haben einen erbitterten Kampf um die Seele der Nation geführt, der 1935 in der Abschaffung der Zweiten Griechischen Republik endete. Der König, ein autokratischer Ausländer, bleibt eine höchst gespaltene Figur mit einer ungewissen Zukunft. \Abgelenkt durch kleinliche Innenpolitik hat man im Norden ein bösartiges und revanchistisches Bulgarien geduldet, während Griechenlands langjähriger Feind und neuer Verbündeter, die Türkei, im Osten eine politische Metamorphose durchmacht, ganz zu schweigen von dem rührenden Ungeheuer auf der anderen Seite der Adria..."</v>
       </c>
     </row>
@@ -1204,7 +1191,7 @@
         <v> TUR_GATHERING_STORM_DESC:0 "Aus der Asche des Osmanischen Reiches wurde die Republik Türkei geboren. Die türkische Unabhängigkeit wurde mit Blut und Kugeln im Nationalen Feldzug von 1923 errungen, und obwohl der Kampf gerecht war, lastet der Preis weiterhin schwer auf dem türkischen Volk. \n\nReligiöse Konservative plagen das Hinterland und widersetzen sich den landesweiten Modernisierungsbemühungen aufs Schärfste, während kurdische Nationalisten im Osten des Landes ihr Unwesen treiben. Der hochverehrte Präsident Mustafa Kemal Atatürk muss das Land vereinen oder die Fackel an einen Führer weitergeben, der dazu in der Lage ist, und das muss bald geschehen, da sich in Europa Unruhen anbahnen..."</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A41),"",C41)</f>
+        <f aca="false">IF(OR(ISBLANK(A41),A41=" "),"",C41)</f>
         <v> TUR_GATHERING_STORM_DESC:0 "Aus der Asche des Osmanischen Reiches wurde die Republik Türkei geboren. Die türkische Unabhängigkeit wurde mit Blut und Kugeln im Nationalen Feldzug von 1923 errungen, und obwohl der Kampf gerecht war, lastet der Preis weiterhin schwer auf dem türkischen Volk. \n\nReligiöse Konservative plagen das Hinterland und widersetzen sich den landesweiten Modernisierungsbemühungen aufs Schärfste, während kurdische Nationalisten im Osten des Landes ihr Unwesen treiben. Der hochverehrte Präsident Mustafa Kemal Atatürk muss das Land vereinen oder die Fackel an einen Führer weitergeben, der dazu in der Lage ist, und das muss bald geschehen, da sich in Europa Unruhen anbahnen..."</v>
       </c>
     </row>
@@ -1216,8 +1203,9 @@
         <f aca="false">A42 &amp;" " &amp;"""" &amp;B42 &amp;""""</f>
         <v> ## EOF ## ""</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>82</v>
+      <c r="D42" s="1" t="str">
+        <f aca="false">IF(OR(ISBLANK(A42),A42=" "),"",C42)</f>
+        <v> ## EOF ## ""</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
